--- a/Predictive Analysis Commodity pricing.xlsx
+++ b/Predictive Analysis Commodity pricing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rowland\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rowland\Desktop\Agriarche\commodity-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EB41D46-2CDD-4106-8213-1D107DA92904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA96E63-8525-4D41-A08A-57F91D241A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F09D21BD-9259-4A67-8D0A-62113798C6EA}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="168">
   <si>
     <t>Agent Code</t>
   </si>
@@ -511,6 +511,39 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>IS001KDN</t>
+  </si>
+  <si>
+    <t>kaduna</t>
+  </si>
+  <si>
+    <t>giwa</t>
+  </si>
+  <si>
+    <t>Sorghum White</t>
+  </si>
+  <si>
+    <t>pambegua</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>gombe</t>
+  </si>
+  <si>
+    <t>biliri</t>
+  </si>
+  <si>
+    <t>Groundut Kampala</t>
+  </si>
+  <si>
+    <t>yobe</t>
+  </si>
+  <si>
+    <t>potiskum</t>
   </si>
 </sst>
 </file>
@@ -890,11 +923,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A965C-A024-4543-8FC7-F4F80100D5B5}">
   <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:W102"/>
+  <dimension ref="A1:W138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="26" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="26" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5466,6 +5499,1266 @@
         <v>653</v>
       </c>
     </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>46034.768923356482</v>
+      </c>
+      <c r="B103" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103" t="s">
+        <v>114</v>
+      </c>
+      <c r="E103" t="s">
+        <v>49</v>
+      </c>
+      <c r="F103" s="4">
+        <v>56000</v>
+      </c>
+      <c r="G103">
+        <v>115</v>
+      </c>
+      <c r="H103">
+        <v>486.95652173912998</v>
+      </c>
+      <c r="I103" t="s">
+        <v>116</v>
+      </c>
+      <c r="J103" t="s">
+        <v>27</v>
+      </c>
+      <c r="K103">
+        <v>489.95652173912998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>46034.760524872683</v>
+      </c>
+      <c r="B104" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" t="s">
+        <v>114</v>
+      </c>
+      <c r="E104" t="s">
+        <v>115</v>
+      </c>
+      <c r="F104" s="4">
+        <v>62000</v>
+      </c>
+      <c r="G104">
+        <v>103</v>
+      </c>
+      <c r="H104">
+        <v>601.94174757281496</v>
+      </c>
+      <c r="I104" t="s">
+        <v>116</v>
+      </c>
+      <c r="J104" t="s">
+        <v>27</v>
+      </c>
+      <c r="K104">
+        <v>604.94174757281496</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>46034.759880821759</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" t="s">
+        <v>114</v>
+      </c>
+      <c r="E105" t="s">
+        <v>82</v>
+      </c>
+      <c r="F105" s="4">
+        <v>58000</v>
+      </c>
+      <c r="G105">
+        <v>105</v>
+      </c>
+      <c r="H105">
+        <v>552.38095238095195</v>
+      </c>
+      <c r="I105" t="s">
+        <v>116</v>
+      </c>
+      <c r="J105" t="s">
+        <v>27</v>
+      </c>
+      <c r="K105">
+        <v>555.38095238095195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>46034.759268425929</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="4">
+        <v>61000</v>
+      </c>
+      <c r="G106">
+        <v>105</v>
+      </c>
+      <c r="H106">
+        <v>580.95238095238096</v>
+      </c>
+      <c r="I106" t="s">
+        <v>116</v>
+      </c>
+      <c r="J106" t="s">
+        <v>27</v>
+      </c>
+      <c r="K106">
+        <v>583.95238095238096</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>46034.758549687504</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" s="4">
+        <v>35000</v>
+      </c>
+      <c r="G107">
+        <v>95</v>
+      </c>
+      <c r="H107">
+        <v>368.42105263157799</v>
+      </c>
+      <c r="I107" t="s">
+        <v>116</v>
+      </c>
+      <c r="J107" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107">
+        <v>371.42105263157799</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>46037.767790034719</v>
+      </c>
+      <c r="B108" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" t="s">
+        <v>49</v>
+      </c>
+      <c r="F108" s="4">
+        <v>52000</v>
+      </c>
+      <c r="G108">
+        <v>100</v>
+      </c>
+      <c r="H108">
+        <v>520</v>
+      </c>
+      <c r="I108" t="s">
+        <v>123</v>
+      </c>
+      <c r="J108" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>46037.766945196759</v>
+      </c>
+      <c r="B109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" t="s">
+        <v>47</v>
+      </c>
+      <c r="F109" s="4">
+        <v>22000</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+      <c r="H109">
+        <v>220</v>
+      </c>
+      <c r="I109" t="s">
+        <v>126</v>
+      </c>
+      <c r="J109" t="s">
+        <v>27</v>
+      </c>
+      <c r="K109">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>46037.766236400457</v>
+      </c>
+      <c r="B110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" s="4">
+        <v>27000</v>
+      </c>
+      <c r="G110">
+        <v>70</v>
+      </c>
+      <c r="H110">
+        <v>385.71428571428498</v>
+      </c>
+      <c r="I110" t="s">
+        <v>123</v>
+      </c>
+      <c r="J110" t="s">
+        <v>27</v>
+      </c>
+      <c r="K110">
+        <v>388.71428571428498</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>46037.765261099543</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" t="s">
+        <v>41</v>
+      </c>
+      <c r="F111" s="4">
+        <v>22000</v>
+      </c>
+      <c r="G111">
+        <v>100</v>
+      </c>
+      <c r="H111">
+        <v>220</v>
+      </c>
+      <c r="I111" t="s">
+        <v>123</v>
+      </c>
+      <c r="J111" t="s">
+        <v>27</v>
+      </c>
+      <c r="K111">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>46037.764401180553</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" t="s">
+        <v>63</v>
+      </c>
+      <c r="F112" s="4">
+        <v>22000</v>
+      </c>
+      <c r="G112">
+        <v>95</v>
+      </c>
+      <c r="H112">
+        <v>231.57894736842101</v>
+      </c>
+      <c r="I112" t="s">
+        <v>123</v>
+      </c>
+      <c r="J112" t="s">
+        <v>27</v>
+      </c>
+      <c r="K112">
+        <v>234.57894736842101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>46037.763536516213</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" s="4">
+        <v>90000</v>
+      </c>
+      <c r="G113">
+        <v>85</v>
+      </c>
+      <c r="H113">
+        <v>1058.8235294117601</v>
+      </c>
+      <c r="I113" t="s">
+        <v>123</v>
+      </c>
+      <c r="J113" t="s">
+        <v>27</v>
+      </c>
+      <c r="K113">
+        <v>1061.8235294117601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>46037.762724340268</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" s="4">
+        <v>51000</v>
+      </c>
+      <c r="G114">
+        <v>80</v>
+      </c>
+      <c r="H114">
+        <v>637.5</v>
+      </c>
+      <c r="I114" t="s">
+        <v>123</v>
+      </c>
+      <c r="J114" t="s">
+        <v>27</v>
+      </c>
+      <c r="K114">
+        <v>640.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>46038.627586840281</v>
+      </c>
+      <c r="B115" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" t="s">
+        <v>158</v>
+      </c>
+      <c r="D115" t="s">
+        <v>159</v>
+      </c>
+      <c r="E115" t="s">
+        <v>37</v>
+      </c>
+      <c r="F115">
+        <v>23000</v>
+      </c>
+      <c r="G115">
+        <v>100</v>
+      </c>
+      <c r="H115">
+        <v>230</v>
+      </c>
+      <c r="I115" t="s">
+        <v>116</v>
+      </c>
+      <c r="J115" t="s">
+        <v>27</v>
+      </c>
+      <c r="K115">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>46038.628292881942</v>
+      </c>
+      <c r="B116" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" t="s">
+        <v>159</v>
+      </c>
+      <c r="E116" t="s">
+        <v>103</v>
+      </c>
+      <c r="F116">
+        <v>24000</v>
+      </c>
+      <c r="G116">
+        <v>100</v>
+      </c>
+      <c r="H116">
+        <v>240</v>
+      </c>
+      <c r="I116" t="s">
+        <v>116</v>
+      </c>
+      <c r="J116" t="s">
+        <v>27</v>
+      </c>
+      <c r="K116">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>46038.628886365739</v>
+      </c>
+      <c r="B117" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" t="s">
+        <v>158</v>
+      </c>
+      <c r="D117" t="s">
+        <v>159</v>
+      </c>
+      <c r="E117" t="s">
+        <v>160</v>
+      </c>
+      <c r="F117">
+        <v>25000</v>
+      </c>
+      <c r="G117">
+        <v>100</v>
+      </c>
+      <c r="H117">
+        <v>250</v>
+      </c>
+      <c r="I117" t="s">
+        <v>116</v>
+      </c>
+      <c r="J117" t="s">
+        <v>27</v>
+      </c>
+      <c r="K117">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>46038.629439756944</v>
+      </c>
+      <c r="B118" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" t="s">
+        <v>158</v>
+      </c>
+      <c r="D118" t="s">
+        <v>159</v>
+      </c>
+      <c r="E118" t="s">
+        <v>49</v>
+      </c>
+      <c r="F118">
+        <v>50000</v>
+      </c>
+      <c r="G118">
+        <v>100</v>
+      </c>
+      <c r="H118">
+        <v>500</v>
+      </c>
+      <c r="I118" t="s">
+        <v>116</v>
+      </c>
+      <c r="J118" t="s">
+        <v>27</v>
+      </c>
+      <c r="K118">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>46038.690450543982</v>
+      </c>
+      <c r="B119" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" t="s">
+        <v>158</v>
+      </c>
+      <c r="D119" t="s">
+        <v>161</v>
+      </c>
+      <c r="E119" t="s">
+        <v>43</v>
+      </c>
+      <c r="F119">
+        <v>34000</v>
+      </c>
+      <c r="G119">
+        <v>350</v>
+      </c>
+      <c r="H119">
+        <v>97.142857142857096</v>
+      </c>
+      <c r="I119" t="s">
+        <v>123</v>
+      </c>
+      <c r="J119" t="s">
+        <v>27</v>
+      </c>
+      <c r="K119">
+        <v>100.142857142857</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>46038.697169953703</v>
+      </c>
+      <c r="B120" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" t="s">
+        <v>158</v>
+      </c>
+      <c r="D120" t="s">
+        <v>161</v>
+      </c>
+      <c r="E120" t="s">
+        <v>63</v>
+      </c>
+      <c r="F120">
+        <v>22500</v>
+      </c>
+      <c r="G120">
+        <v>235</v>
+      </c>
+      <c r="H120">
+        <v>95.744680851063805</v>
+      </c>
+      <c r="I120" t="s">
+        <v>116</v>
+      </c>
+      <c r="J120" t="s">
+        <v>27</v>
+      </c>
+      <c r="K120">
+        <v>98.744680851063805</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>46038.703716956021</v>
+      </c>
+      <c r="B121" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" t="s">
+        <v>158</v>
+      </c>
+      <c r="D121" t="s">
+        <v>161</v>
+      </c>
+      <c r="E121" t="s">
+        <v>49</v>
+      </c>
+      <c r="F121">
+        <v>51000</v>
+      </c>
+      <c r="G121">
+        <v>530</v>
+      </c>
+      <c r="H121">
+        <v>96.2264150943396</v>
+      </c>
+      <c r="I121" t="s">
+        <v>123</v>
+      </c>
+      <c r="J121" t="s">
+        <v>162</v>
+      </c>
+      <c r="K121">
+        <v>99.2264150943396</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>46038.704976643523</v>
+      </c>
+      <c r="B122" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" t="s">
+        <v>158</v>
+      </c>
+      <c r="D122" t="s">
+        <v>161</v>
+      </c>
+      <c r="E122" t="s">
+        <v>160</v>
+      </c>
+      <c r="F122">
+        <v>25000</v>
+      </c>
+      <c r="G122">
+        <v>275</v>
+      </c>
+      <c r="H122">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="I122" t="s">
+        <v>123</v>
+      </c>
+      <c r="J122" t="s">
+        <v>162</v>
+      </c>
+      <c r="K122">
+        <v>93.909090909090907</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>46039.783726481481</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" t="s">
+        <v>163</v>
+      </c>
+      <c r="D123" t="s">
+        <v>164</v>
+      </c>
+      <c r="E123" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123">
+        <v>43000</v>
+      </c>
+      <c r="G123">
+        <v>80</v>
+      </c>
+      <c r="H123">
+        <v>537.5</v>
+      </c>
+      <c r="I123" t="s">
+        <v>123</v>
+      </c>
+      <c r="J123" t="s">
+        <v>27</v>
+      </c>
+      <c r="K123">
+        <v>540.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>46039.784391967587</v>
+      </c>
+      <c r="B124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" t="s">
+        <v>163</v>
+      </c>
+      <c r="D124" t="s">
+        <v>164</v>
+      </c>
+      <c r="E124" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124">
+        <v>85000</v>
+      </c>
+      <c r="G124">
+        <v>85</v>
+      </c>
+      <c r="H124">
+        <v>1000</v>
+      </c>
+      <c r="I124" t="s">
+        <v>123</v>
+      </c>
+      <c r="J124" t="s">
+        <v>27</v>
+      </c>
+      <c r="K124">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>46039.78497951389</v>
+      </c>
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" t="s">
+        <v>163</v>
+      </c>
+      <c r="D125" t="s">
+        <v>164</v>
+      </c>
+      <c r="E125" t="s">
+        <v>165</v>
+      </c>
+      <c r="F125">
+        <v>80000</v>
+      </c>
+      <c r="G125">
+        <v>85</v>
+      </c>
+      <c r="H125">
+        <v>941.17647058823502</v>
+      </c>
+      <c r="I125" t="s">
+        <v>126</v>
+      </c>
+      <c r="J125" t="s">
+        <v>27</v>
+      </c>
+      <c r="K125">
+        <v>944.17647058823502</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>46039.785577939823</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" t="s">
+        <v>163</v>
+      </c>
+      <c r="D126" t="s">
+        <v>164</v>
+      </c>
+      <c r="E126" t="s">
+        <v>63</v>
+      </c>
+      <c r="F126">
+        <v>22000</v>
+      </c>
+      <c r="G126">
+        <v>95</v>
+      </c>
+      <c r="H126">
+        <v>231.57894736842101</v>
+      </c>
+      <c r="I126" t="s">
+        <v>123</v>
+      </c>
+      <c r="J126" t="s">
+        <v>27</v>
+      </c>
+      <c r="K126">
+        <v>234.57894736842101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>46039.786285925933</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" t="s">
+        <v>163</v>
+      </c>
+      <c r="D127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E127" t="s">
+        <v>41</v>
+      </c>
+      <c r="F127">
+        <v>25000</v>
+      </c>
+      <c r="G127">
+        <v>100</v>
+      </c>
+      <c r="H127">
+        <v>250</v>
+      </c>
+      <c r="I127" t="s">
+        <v>126</v>
+      </c>
+      <c r="J127" t="s">
+        <v>27</v>
+      </c>
+      <c r="K127">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>46039.787125266201</v>
+      </c>
+      <c r="B128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" t="s">
+        <v>163</v>
+      </c>
+      <c r="D128" t="s">
+        <v>164</v>
+      </c>
+      <c r="E128" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128">
+        <v>27000</v>
+      </c>
+      <c r="G128">
+        <v>70</v>
+      </c>
+      <c r="H128">
+        <v>385.71428571428498</v>
+      </c>
+      <c r="I128" t="s">
+        <v>123</v>
+      </c>
+      <c r="J128" t="s">
+        <v>27</v>
+      </c>
+      <c r="K128">
+        <v>388.71428571428498</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>46039.787814710653</v>
+      </c>
+      <c r="B129" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" t="s">
+        <v>163</v>
+      </c>
+      <c r="D129" t="s">
+        <v>164</v>
+      </c>
+      <c r="E129" t="s">
+        <v>47</v>
+      </c>
+      <c r="F129">
+        <v>28000</v>
+      </c>
+      <c r="G129">
+        <v>100</v>
+      </c>
+      <c r="H129">
+        <v>280</v>
+      </c>
+      <c r="I129" t="s">
+        <v>126</v>
+      </c>
+      <c r="J129" t="s">
+        <v>27</v>
+      </c>
+      <c r="K129">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>46039.788641597217</v>
+      </c>
+      <c r="B130" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" t="s">
+        <v>163</v>
+      </c>
+      <c r="D130" t="s">
+        <v>164</v>
+      </c>
+      <c r="E130" t="s">
+        <v>49</v>
+      </c>
+      <c r="F130">
+        <v>53000</v>
+      </c>
+      <c r="G130">
+        <v>100</v>
+      </c>
+      <c r="H130">
+        <v>530</v>
+      </c>
+      <c r="I130" t="s">
+        <v>123</v>
+      </c>
+      <c r="J130" t="s">
+        <v>27</v>
+      </c>
+      <c r="K130">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>46040.85899197917</v>
+      </c>
+      <c r="B131" t="s">
+        <v>79</v>
+      </c>
+      <c r="C131" t="s">
+        <v>166</v>
+      </c>
+      <c r="D131" t="s">
+        <v>167</v>
+      </c>
+      <c r="E131" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131">
+        <v>49000</v>
+      </c>
+      <c r="G131">
+        <v>100</v>
+      </c>
+      <c r="H131">
+        <v>490</v>
+      </c>
+      <c r="I131" t="s">
+        <v>116</v>
+      </c>
+      <c r="J131" t="s">
+        <v>27</v>
+      </c>
+      <c r="K131">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>46040.859583495367</v>
+      </c>
+      <c r="B132" t="s">
+        <v>79</v>
+      </c>
+      <c r="C132" t="s">
+        <v>166</v>
+      </c>
+      <c r="D132" t="s">
+        <v>167</v>
+      </c>
+      <c r="E132" t="s">
+        <v>32</v>
+      </c>
+      <c r="F132">
+        <v>107000</v>
+      </c>
+      <c r="G132">
+        <v>98</v>
+      </c>
+      <c r="H132">
+        <v>1091.8367346938701</v>
+      </c>
+      <c r="I132" t="s">
+        <v>116</v>
+      </c>
+      <c r="J132" t="s">
+        <v>27</v>
+      </c>
+      <c r="K132">
+        <v>1094.8367346938701</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>46040.860529768521</v>
+      </c>
+      <c r="B133" t="s">
+        <v>79</v>
+      </c>
+      <c r="C133" t="s">
+        <v>166</v>
+      </c>
+      <c r="D133" t="s">
+        <v>167</v>
+      </c>
+      <c r="E133" t="s">
+        <v>63</v>
+      </c>
+      <c r="F133">
+        <v>27000</v>
+      </c>
+      <c r="G133">
+        <v>100</v>
+      </c>
+      <c r="H133">
+        <v>270</v>
+      </c>
+      <c r="I133" t="s">
+        <v>116</v>
+      </c>
+      <c r="J133" t="s">
+        <v>27</v>
+      </c>
+      <c r="K133">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>46040.861482905093</v>
+      </c>
+      <c r="B134" t="s">
+        <v>79</v>
+      </c>
+      <c r="C134" t="s">
+        <v>166</v>
+      </c>
+      <c r="D134" t="s">
+        <v>167</v>
+      </c>
+      <c r="E134" t="s">
+        <v>41</v>
+      </c>
+      <c r="F134">
+        <v>30000</v>
+      </c>
+      <c r="G134">
+        <v>105</v>
+      </c>
+      <c r="H134">
+        <v>285.71428571428498</v>
+      </c>
+      <c r="I134" t="s">
+        <v>116</v>
+      </c>
+      <c r="J134" t="s">
+        <v>27</v>
+      </c>
+      <c r="K134">
+        <v>288.71428571428498</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>46040.863150173609</v>
+      </c>
+      <c r="B135" t="s">
+        <v>79</v>
+      </c>
+      <c r="C135" t="s">
+        <v>166</v>
+      </c>
+      <c r="D135" t="s">
+        <v>167</v>
+      </c>
+      <c r="E135" t="s">
+        <v>150</v>
+      </c>
+      <c r="F135">
+        <v>900000</v>
+      </c>
+      <c r="G135">
+        <v>115</v>
+      </c>
+      <c r="H135">
+        <v>7826.0869565217299</v>
+      </c>
+      <c r="I135" t="s">
+        <v>116</v>
+      </c>
+      <c r="J135" t="s">
+        <v>27</v>
+      </c>
+      <c r="K135">
+        <v>7829.0869565217299</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>46040.864042465277</v>
+      </c>
+      <c r="B136" t="s">
+        <v>79</v>
+      </c>
+      <c r="C136" t="s">
+        <v>166</v>
+      </c>
+      <c r="D136" t="s">
+        <v>167</v>
+      </c>
+      <c r="E136" t="s">
+        <v>103</v>
+      </c>
+      <c r="F136">
+        <v>20000</v>
+      </c>
+      <c r="G136">
+        <v>95</v>
+      </c>
+      <c r="H136">
+        <v>210.52631578947299</v>
+      </c>
+      <c r="I136" t="s">
+        <v>116</v>
+      </c>
+      <c r="J136" t="s">
+        <v>27</v>
+      </c>
+      <c r="K136">
+        <v>213.52631578947299</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>46040.866058576386</v>
+      </c>
+      <c r="B137" t="s">
+        <v>79</v>
+      </c>
+      <c r="C137" t="s">
+        <v>166</v>
+      </c>
+      <c r="D137" t="s">
+        <v>167</v>
+      </c>
+      <c r="E137" t="s">
+        <v>47</v>
+      </c>
+      <c r="F137">
+        <v>23000</v>
+      </c>
+      <c r="G137">
+        <v>95</v>
+      </c>
+      <c r="H137">
+        <v>242.105263157894</v>
+      </c>
+      <c r="I137" t="s">
+        <v>116</v>
+      </c>
+      <c r="J137" t="s">
+        <v>27</v>
+      </c>
+      <c r="K137">
+        <v>245.105263157894</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>46040.868844999997</v>
+      </c>
+      <c r="B138" t="s">
+        <v>79</v>
+      </c>
+      <c r="C138" t="s">
+        <v>166</v>
+      </c>
+      <c r="D138" t="s">
+        <v>167</v>
+      </c>
+      <c r="E138" t="s">
+        <v>110</v>
+      </c>
+      <c r="F138">
+        <v>23000</v>
+      </c>
+      <c r="G138">
+        <v>98</v>
+      </c>
+      <c r="H138">
+        <v>234.69387755101999</v>
+      </c>
+      <c r="I138" t="s">
+        <v>116</v>
+      </c>
+      <c r="J138" t="s">
+        <v>27</v>
+      </c>
+      <c r="K138">
+        <v>237.69387755101999</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:W102" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">

--- a/Predictive Analysis Commodity pricing.xlsx
+++ b/Predictive Analysis Commodity pricing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rowland\Desktop\Agriarche\commodity-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA96E63-8525-4D41-A08A-57F91D241A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D57072-3520-460B-8058-8895FC62141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F09D21BD-9259-4A67-8D0A-62113798C6EA}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="166">
   <si>
     <t>Agent Code</t>
   </si>
@@ -519,31 +519,25 @@
     <t>kaduna</t>
   </si>
   <si>
-    <t>giwa</t>
-  </si>
-  <si>
     <t>Sorghum White</t>
   </si>
   <si>
-    <t>pambegua</t>
-  </si>
-  <si>
     <t>Old</t>
   </si>
   <si>
     <t>gombe</t>
   </si>
   <si>
-    <t>biliri</t>
-  </si>
-  <si>
     <t>Groundut Kampala</t>
   </si>
   <si>
     <t>yobe</t>
   </si>
   <si>
-    <t>potiskum</t>
+    <t>Giwa</t>
+  </si>
+  <si>
+    <t>Pambegua</t>
   </si>
 </sst>
 </file>
@@ -926,8 +920,8 @@
   <dimension ref="A1:W138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="26" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J108" sqref="J108"/>
+      <pane ySplit="26" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5930,7 +5924,7 @@
         <v>158</v>
       </c>
       <c r="D115" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E115" t="s">
         <v>37</v>
@@ -5965,7 +5959,7 @@
         <v>158</v>
       </c>
       <c r="D116" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E116" t="s">
         <v>103</v>
@@ -6000,10 +5994,10 @@
         <v>158</v>
       </c>
       <c r="D117" t="s">
+        <v>164</v>
+      </c>
+      <c r="E117" t="s">
         <v>159</v>
-      </c>
-      <c r="E117" t="s">
-        <v>160</v>
       </c>
       <c r="F117">
         <v>25000</v>
@@ -6035,7 +6029,7 @@
         <v>158</v>
       </c>
       <c r="D118" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E118" t="s">
         <v>49</v>
@@ -6070,7 +6064,7 @@
         <v>158</v>
       </c>
       <c r="D119" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E119" t="s">
         <v>43</v>
@@ -6105,7 +6099,7 @@
         <v>158</v>
       </c>
       <c r="D120" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E120" t="s">
         <v>63</v>
@@ -6140,7 +6134,7 @@
         <v>158</v>
       </c>
       <c r="D121" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E121" t="s">
         <v>49</v>
@@ -6158,7 +6152,7 @@
         <v>123</v>
       </c>
       <c r="J121" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K121">
         <v>99.2264150943396</v>
@@ -6175,10 +6169,10 @@
         <v>158</v>
       </c>
       <c r="D122" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F122">
         <v>25000</v>
@@ -6193,7 +6187,7 @@
         <v>123</v>
       </c>
       <c r="J122" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K122">
         <v>93.909090909090907</v>
@@ -6207,10 +6201,10 @@
         <v>21</v>
       </c>
       <c r="C123" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D123" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="E123" t="s">
         <v>24</v>
@@ -6242,10 +6236,10 @@
         <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D124" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="E124" t="s">
         <v>32</v>
@@ -6277,13 +6271,13 @@
         <v>21</v>
       </c>
       <c r="C125" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D125" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="E125" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F125">
         <v>80000</v>
@@ -6312,10 +6306,10 @@
         <v>21</v>
       </c>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D126" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="E126" t="s">
         <v>63</v>
@@ -6347,10 +6341,10 @@
         <v>21</v>
       </c>
       <c r="C127" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D127" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="E127" t="s">
         <v>41</v>
@@ -6382,10 +6376,10 @@
         <v>21</v>
       </c>
       <c r="C128" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D128" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="E128" t="s">
         <v>43</v>
@@ -6417,10 +6411,10 @@
         <v>21</v>
       </c>
       <c r="C129" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D129" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="E129" t="s">
         <v>47</v>
@@ -6452,10 +6446,10 @@
         <v>21</v>
       </c>
       <c r="C130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D130" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="E130" t="s">
         <v>49</v>
@@ -6487,10 +6481,10 @@
         <v>79</v>
       </c>
       <c r="C131" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D131" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="E131" t="s">
         <v>24</v>
@@ -6522,10 +6516,10 @@
         <v>79</v>
       </c>
       <c r="C132" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D132" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="E132" t="s">
         <v>32</v>
@@ -6557,10 +6551,10 @@
         <v>79</v>
       </c>
       <c r="C133" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D133" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="E133" t="s">
         <v>63</v>
@@ -6592,10 +6586,10 @@
         <v>79</v>
       </c>
       <c r="C134" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D134" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="E134" t="s">
         <v>41</v>
@@ -6627,10 +6621,10 @@
         <v>79</v>
       </c>
       <c r="C135" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D135" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="E135" t="s">
         <v>150</v>
@@ -6662,10 +6656,10 @@
         <v>79</v>
       </c>
       <c r="C136" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D136" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="E136" t="s">
         <v>103</v>
@@ -6697,10 +6691,10 @@
         <v>79</v>
       </c>
       <c r="C137" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D137" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="E137" t="s">
         <v>47</v>
@@ -6732,10 +6726,10 @@
         <v>79</v>
       </c>
       <c r="C138" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D138" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="E138" t="s">
         <v>110</v>

--- a/Predictive Analysis Commodity pricing.xlsx
+++ b/Predictive Analysis Commodity pricing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rowland\Desktop\Agriarche\commodity-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D57072-3520-460B-8058-8895FC62141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF11831-9F57-4F3F-8917-73941A204205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F09D21BD-9259-4A67-8D0A-62113798C6EA}"/>
   </bookViews>
@@ -920,8 +920,8 @@
   <dimension ref="A1:W138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="26" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H141" sqref="H141"/>
+      <pane ySplit="26" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5509,7 +5509,7 @@
       <c r="E103" t="s">
         <v>49</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="6">
         <v>56000</v>
       </c>
       <c r="G103">
@@ -5544,7 +5544,7 @@
       <c r="E104" t="s">
         <v>115</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="6">
         <v>62000</v>
       </c>
       <c r="G104">
@@ -5579,7 +5579,7 @@
       <c r="E105" t="s">
         <v>82</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="6">
         <v>58000</v>
       </c>
       <c r="G105">
@@ -5614,7 +5614,7 @@
       <c r="E106" t="s">
         <v>24</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="6">
         <v>61000</v>
       </c>
       <c r="G106">
@@ -5649,7 +5649,7 @@
       <c r="E107" t="s">
         <v>43</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="6">
         <v>35000</v>
       </c>
       <c r="G107">
@@ -5684,7 +5684,7 @@
       <c r="E108" t="s">
         <v>49</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F108" s="6">
         <v>52000</v>
       </c>
       <c r="G108">
@@ -5719,7 +5719,7 @@
       <c r="E109" t="s">
         <v>47</v>
       </c>
-      <c r="F109" s="4">
+      <c r="F109" s="6">
         <v>22000</v>
       </c>
       <c r="G109">
@@ -5754,7 +5754,7 @@
       <c r="E110" t="s">
         <v>43</v>
       </c>
-      <c r="F110" s="4">
+      <c r="F110" s="6">
         <v>27000</v>
       </c>
       <c r="G110">
@@ -5789,7 +5789,7 @@
       <c r="E111" t="s">
         <v>41</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111" s="6">
         <v>22000</v>
       </c>
       <c r="G111">
@@ -5824,7 +5824,7 @@
       <c r="E112" t="s">
         <v>63</v>
       </c>
-      <c r="F112" s="4">
+      <c r="F112" s="6">
         <v>22000</v>
       </c>
       <c r="G112">
@@ -5859,7 +5859,7 @@
       <c r="E113" t="s">
         <v>32</v>
       </c>
-      <c r="F113" s="4">
+      <c r="F113" s="6">
         <v>90000</v>
       </c>
       <c r="G113">
@@ -5894,7 +5894,7 @@
       <c r="E114" t="s">
         <v>24</v>
       </c>
-      <c r="F114" s="4">
+      <c r="F114" s="6">
         <v>51000</v>
       </c>
       <c r="G114">
@@ -5929,7 +5929,7 @@
       <c r="E115" t="s">
         <v>37</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="6">
         <v>23000</v>
       </c>
       <c r="G115">
@@ -5964,7 +5964,7 @@
       <c r="E116" t="s">
         <v>103</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="6">
         <v>24000</v>
       </c>
       <c r="G116">
@@ -5999,7 +5999,7 @@
       <c r="E117" t="s">
         <v>159</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="6">
         <v>25000</v>
       </c>
       <c r="G117">
@@ -6034,7 +6034,7 @@
       <c r="E118" t="s">
         <v>49</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="6">
         <v>50000</v>
       </c>
       <c r="G118">
@@ -6069,7 +6069,7 @@
       <c r="E119" t="s">
         <v>43</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="6">
         <v>34000</v>
       </c>
       <c r="G119">
@@ -6104,7 +6104,7 @@
       <c r="E120" t="s">
         <v>63</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="6">
         <v>22500</v>
       </c>
       <c r="G120">
@@ -6139,7 +6139,7 @@
       <c r="E121" t="s">
         <v>49</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="6">
         <v>51000</v>
       </c>
       <c r="G121">
@@ -6174,7 +6174,7 @@
       <c r="E122" t="s">
         <v>159</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="6">
         <v>25000</v>
       </c>
       <c r="G122">
@@ -6209,7 +6209,7 @@
       <c r="E123" t="s">
         <v>24</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="6">
         <v>43000</v>
       </c>
       <c r="G123">
@@ -6244,7 +6244,7 @@
       <c r="E124" t="s">
         <v>32</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="6">
         <v>85000</v>
       </c>
       <c r="G124">
@@ -6279,7 +6279,7 @@
       <c r="E125" t="s">
         <v>162</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="6">
         <v>80000</v>
       </c>
       <c r="G125">
@@ -6314,7 +6314,7 @@
       <c r="E126" t="s">
         <v>63</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="6">
         <v>22000</v>
       </c>
       <c r="G126">
@@ -6349,7 +6349,7 @@
       <c r="E127" t="s">
         <v>41</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="6">
         <v>25000</v>
       </c>
       <c r="G127">
@@ -6384,7 +6384,7 @@
       <c r="E128" t="s">
         <v>43</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="6">
         <v>27000</v>
       </c>
       <c r="G128">
@@ -6419,7 +6419,7 @@
       <c r="E129" t="s">
         <v>47</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="6">
         <v>28000</v>
       </c>
       <c r="G129">
@@ -6454,7 +6454,7 @@
       <c r="E130" t="s">
         <v>49</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="6">
         <v>53000</v>
       </c>
       <c r="G130">
@@ -6489,7 +6489,7 @@
       <c r="E131" t="s">
         <v>24</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="6">
         <v>49000</v>
       </c>
       <c r="G131">
@@ -6524,7 +6524,7 @@
       <c r="E132" t="s">
         <v>32</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="6">
         <v>107000</v>
       </c>
       <c r="G132">
@@ -6559,7 +6559,7 @@
       <c r="E133" t="s">
         <v>63</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="6">
         <v>27000</v>
       </c>
       <c r="G133">
@@ -6594,7 +6594,7 @@
       <c r="E134" t="s">
         <v>41</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="6">
         <v>30000</v>
       </c>
       <c r="G134">
@@ -6629,8 +6629,8 @@
       <c r="E135" t="s">
         <v>150</v>
       </c>
-      <c r="F135">
-        <v>900000</v>
+      <c r="F135" s="6">
+        <v>90000</v>
       </c>
       <c r="G135">
         <v>115</v>
@@ -6664,7 +6664,7 @@
       <c r="E136" t="s">
         <v>103</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="6">
         <v>20000</v>
       </c>
       <c r="G136">
@@ -6699,7 +6699,7 @@
       <c r="E137" t="s">
         <v>47</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="6">
         <v>23000</v>
       </c>
       <c r="G137">
@@ -6734,7 +6734,7 @@
       <c r="E138" t="s">
         <v>110</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="6">
         <v>23000</v>
       </c>
       <c r="G138">

--- a/Predictive Analysis Commodity pricing.xlsx
+++ b/Predictive Analysis Commodity pricing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rowland\Desktop\Agriarche\commodity-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF11831-9F57-4F3F-8917-73941A204205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D849E1BC-47C2-471F-8828-6043037AE7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F09D21BD-9259-4A67-8D0A-62113798C6EA}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="170">
   <si>
     <t>Agent Code</t>
   </si>
@@ -538,6 +538,18 @@
   </si>
   <si>
     <t>Pambegua</t>
+  </si>
+  <si>
+    <t>AS001ADM</t>
+  </si>
+  <si>
+    <t>Adamawa</t>
+  </si>
+  <si>
+    <t>Sabo Kasuwa Mubi</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
 </sst>
 </file>
@@ -917,11 +929,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A965C-A024-4543-8FC7-F4F80100D5B5}">
   <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:W138"/>
+  <dimension ref="A1:W168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="26" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
+      <pane ySplit="26" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2349,501 +2361,552 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>46030.922455798609</v>
+        <v>46023.793820868057</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="F27" s="6">
-        <v>63000</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="4">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H27" s="4">
-        <v>611.65048543689295</v>
+        <v>650</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="J27" t="s">
         <v>27</v>
       </c>
       <c r="K27" s="4">
-        <v>278</v>
-      </c>
-      <c r="N27">
-        <v>737626064</v>
-      </c>
-      <c r="O27" t="s">
-        <v>117</v>
-      </c>
-      <c r="P27" s="3">
-        <v>46025.597708333327</v>
-      </c>
-      <c r="S27" t="s">
-        <v>30</v>
-      </c>
-      <c r="U27" t="s">
-        <v>31</v>
-      </c>
-      <c r="W27">
-        <v>36</v>
+        <v>298.23809523809501</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>46030.922455798609</v>
+        <v>46023.794994814823</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="F28" s="6">
-        <v>63000</v>
-      </c>
-      <c r="G28">
-        <v>103</v>
-      </c>
-      <c r="H28">
-        <v>611.65048543689295</v>
+        <v>90000</v>
+      </c>
+      <c r="G28" s="4">
+        <v>85</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1058.8235294117601</v>
       </c>
       <c r="I28" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="J28" t="s">
         <v>27</v>
       </c>
-      <c r="N28">
-        <v>737626149</v>
-      </c>
-      <c r="O28" t="s">
-        <v>118</v>
-      </c>
-      <c r="P28" s="3">
-        <v>46025.598483796297</v>
-      </c>
-      <c r="S28" t="s">
-        <v>30</v>
-      </c>
-      <c r="U28" t="s">
-        <v>31</v>
-      </c>
-      <c r="W28">
-        <v>37</v>
+      <c r="K28" s="4">
+        <v>785.60869565217297</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>46030.921798935182</v>
+        <v>46023.795786863433</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F29" s="6">
-        <v>58000</v>
+        <v>25000</v>
       </c>
       <c r="G29" s="4">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H29" s="4">
-        <v>552.38095238095195</v>
+        <v>263.15789473684202</v>
       </c>
       <c r="I29" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="J29" t="s">
         <v>27</v>
       </c>
       <c r="K29" s="4">
-        <v>853</v>
+        <v>213.52631578947299</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>46030.921798935182</v>
+        <v>46023.796657418978</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="F30" s="6">
-        <v>58000</v>
-      </c>
-      <c r="G30">
-        <v>105</v>
-      </c>
-      <c r="H30">
-        <v>552.38095238095195</v>
+        <v>25000</v>
+      </c>
+      <c r="G30" s="4">
+        <v>100</v>
+      </c>
+      <c r="H30" s="4">
+        <v>250</v>
       </c>
       <c r="I30" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="J30" t="s">
         <v>27</v>
+      </c>
+      <c r="K30" s="4">
+        <v>245.105263157894</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>46030.920732303239</v>
+        <v>46023.797625624997</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F31" s="6">
-        <v>61000</v>
+        <v>27000</v>
       </c>
       <c r="G31" s="4">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="H31" s="4">
-        <v>580.95238095238096</v>
+        <v>385.71428571428498</v>
       </c>
       <c r="I31" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="J31" t="s">
         <v>27</v>
       </c>
       <c r="K31" s="4">
-        <v>508</v>
+        <v>245.105263157894</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>46030.920732303239</v>
+        <v>46023.798798634263</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F32" s="6">
-        <v>61000</v>
-      </c>
-      <c r="G32">
-        <v>105</v>
-      </c>
-      <c r="H32">
-        <v>580.95238095238096</v>
+        <v>25000</v>
+      </c>
+      <c r="G32" s="4">
+        <v>100</v>
+      </c>
+      <c r="H32" s="4">
+        <v>250</v>
       </c>
       <c r="I32" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="J32" t="s">
         <v>27</v>
+      </c>
+      <c r="K32" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>46030.919912384263</v>
+        <v>46023.799761655093</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F33" s="6">
-        <v>57000</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="4">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="H33" s="4">
-        <v>495.65217391304299</v>
+        <v>650</v>
       </c>
       <c r="I33" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="J33" t="s">
         <v>27</v>
       </c>
       <c r="K33" s="4">
-        <v>508</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>46030.919912384263</v>
+        <v>46023.800733993063</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
         <v>49</v>
       </c>
       <c r="F34" s="6">
-        <v>57000</v>
-      </c>
-      <c r="G34">
-        <v>115</v>
-      </c>
-      <c r="H34">
-        <v>495.65217391304299</v>
+        <v>48000</v>
+      </c>
+      <c r="G34" s="4">
+        <v>98</v>
+      </c>
+      <c r="H34" s="4">
+        <v>489.79591836734602</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="J34" t="s">
         <v>27</v>
+      </c>
+      <c r="K34" s="4">
+        <v>350.36842105263099</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>46030.918346331018</v>
+        <v>46025.637433981479</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F35" s="6">
-        <v>34000</v>
+        <v>47000</v>
       </c>
       <c r="G35" s="4">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H35" s="4">
-        <v>357.89473684210498</v>
+        <v>587.5</v>
       </c>
       <c r="I35" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="J35" t="s">
         <v>27</v>
       </c>
       <c r="K35" s="4">
-        <v>885.35294117647004</v>
+        <v>603</v>
+      </c>
+      <c r="N35">
+        <v>737823443</v>
+      </c>
+      <c r="O35" t="s">
+        <v>139</v>
+      </c>
+      <c r="P35" s="3">
+        <v>46026.84233796296</v>
+      </c>
+      <c r="S35" t="s">
+        <v>30</v>
+      </c>
+      <c r="U35" t="s">
+        <v>31</v>
+      </c>
+      <c r="W35">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>46030.918346331018</v>
+        <v>46025.638221909721</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F36" s="6">
-        <v>34000</v>
-      </c>
-      <c r="G36">
-        <v>95</v>
-      </c>
-      <c r="H36">
-        <v>357.89473684210498</v>
+        <v>90000</v>
+      </c>
+      <c r="G36" s="4">
+        <v>85</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1058.8235294117601</v>
       </c>
       <c r="I36" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="J36" t="s">
         <v>27</v>
+      </c>
+      <c r="K36" s="4">
+        <v>564.90476190476102</v>
+      </c>
+      <c r="N36">
+        <v>737820804</v>
+      </c>
+      <c r="O36" t="s">
+        <v>138</v>
+      </c>
+      <c r="P36" s="3">
+        <v>46026.821157407408</v>
+      </c>
+      <c r="S36" t="s">
+        <v>30</v>
+      </c>
+      <c r="U36" t="s">
+        <v>31</v>
+      </c>
+      <c r="W36">
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>46030.917687453701</v>
+        <v>46025.638782152782</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F37" s="6">
-        <v>20000</v>
+        <v>85000</v>
       </c>
       <c r="G37" s="4">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H37" s="4">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I37" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="J37" t="s">
         <v>27</v>
       </c>
       <c r="K37" s="4">
-        <v>944.17647058823502</v>
+        <v>634.06796116504802</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>46030.917687453701</v>
+        <v>46025.639375590283</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
         <v>63</v>
       </c>
       <c r="F38" s="6">
-        <v>20000</v>
-      </c>
-      <c r="G38">
-        <v>100</v>
-      </c>
-      <c r="H38">
-        <v>200</v>
+        <v>24000</v>
+      </c>
+      <c r="G38" s="4">
+        <v>95</v>
+      </c>
+      <c r="H38" s="4">
+        <v>252.63157894736801</v>
       </c>
       <c r="I38" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="J38" t="s">
         <v>27</v>
+      </c>
+      <c r="K38" s="4">
+        <v>498.65217391304299</v>
+      </c>
+      <c r="N38">
+        <v>737820416</v>
+      </c>
+      <c r="O38" t="s">
+        <v>137</v>
+      </c>
+      <c r="P38" s="3">
+        <v>46026.81827546296</v>
+      </c>
+      <c r="S38" t="s">
+        <v>30</v>
+      </c>
+      <c r="U38" t="s">
+        <v>31</v>
+      </c>
+      <c r="W38">
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>46027.483332025462</v>
+        <v>46025.640143599543</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F39" s="6">
-        <v>57000</v>
+        <v>30000</v>
       </c>
       <c r="G39" s="4">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H39" s="4">
-        <v>495.65217391304299</v>
+        <v>300</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="J39" t="s">
         <v>27</v>
       </c>
-      <c r="K39" s="4">
-        <v>503</v>
+      <c r="N39">
+        <v>737627851</v>
+      </c>
+      <c r="O39" t="s">
+        <v>136</v>
+      </c>
+      <c r="P39" s="3">
+        <v>46025.607777777783</v>
+      </c>
+      <c r="S39" t="s">
+        <v>30</v>
+      </c>
+      <c r="U39" t="s">
+        <v>31</v>
+      </c>
+      <c r="W39">
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>46027.481432534732</v>
+        <v>46025.640863252323</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F40" s="6">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="G40" s="4">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="H40" s="4">
-        <v>631.06796116504802</v>
+        <v>357.142857142857</v>
       </c>
       <c r="I40" t="s">
         <v>26</v>
@@ -2851,87 +2914,114 @@
       <c r="J40" t="s">
         <v>27</v>
       </c>
-      <c r="K40" s="4">
-        <v>283</v>
+      <c r="N40">
+        <v>737627736</v>
+      </c>
+      <c r="O40" t="s">
+        <v>135</v>
+      </c>
+      <c r="P40" s="3">
+        <v>46025.606759259259</v>
+      </c>
+      <c r="S40" t="s">
+        <v>30</v>
+      </c>
+      <c r="U40" t="s">
+        <v>31</v>
+      </c>
+      <c r="W40">
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>46027.480758101847</v>
+        <v>46025.645791712966</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F41" s="6">
-        <v>59000</v>
+        <v>28000</v>
       </c>
       <c r="G41" s="4">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H41" s="4">
-        <v>561.90476190476102</v>
+        <v>280</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="J41" t="s">
         <v>27</v>
       </c>
-      <c r="K41" s="4">
-        <v>360.142857142857</v>
+      <c r="N41">
+        <v>737627632</v>
+      </c>
+      <c r="O41" t="s">
+        <v>134</v>
+      </c>
+      <c r="P41" s="3">
+        <v>46025.60601851852</v>
+      </c>
+      <c r="S41" t="s">
+        <v>30</v>
+      </c>
+      <c r="U41" t="s">
+        <v>31</v>
+      </c>
+      <c r="W41">
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>46027.479841284723</v>
+        <v>46025.646681307873</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F42" s="6">
-        <v>63000</v>
+        <v>48000</v>
       </c>
       <c r="G42" s="4">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H42" s="4">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="J42" t="s">
         <v>27</v>
       </c>
-      <c r="K42" s="4">
-        <v>303</v>
-      </c>
       <c r="N42">
-        <v>737820457</v>
+        <v>737627493</v>
       </c>
       <c r="O42" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="P42" s="3">
-        <v>46026.818854166668</v>
+        <v>46025.605046296303</v>
       </c>
       <c r="S42" t="s">
         <v>30</v>
@@ -2940,51 +3030,48 @@
         <v>31</v>
       </c>
       <c r="W42">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>46027.479271736112</v>
+        <v>46025.647667453697</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F43" s="6">
-        <v>33000</v>
+        <v>80000</v>
       </c>
       <c r="G43" s="4">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H43" s="4">
-        <v>347.36842105263099</v>
+        <v>941.17647058823502</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="J43" t="s">
         <v>27</v>
       </c>
-      <c r="K43" s="4">
-        <v>255.63157894736801</v>
-      </c>
       <c r="N43">
-        <v>737824189</v>
+        <v>737377939</v>
       </c>
       <c r="O43" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="P43" s="3">
-        <v>46026.845775462964</v>
+        <v>46023.758113425924</v>
       </c>
       <c r="S43" t="s">
         <v>30</v>
@@ -2993,51 +3080,48 @@
         <v>31</v>
       </c>
       <c r="W43">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>46027.477737465277</v>
+        <v>46025.648406932873</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F44" s="6">
-        <v>20000</v>
+        <v>75000</v>
       </c>
       <c r="G44" s="4">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H44" s="4">
-        <v>200</v>
+        <v>882.35294117647004</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="J44" t="s">
         <v>27</v>
       </c>
-      <c r="K44" s="4">
-        <v>1003</v>
-      </c>
       <c r="N44">
-        <v>737965573</v>
+        <v>737377833</v>
       </c>
       <c r="O44" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="P44" s="3">
-        <v>46027.436076388891</v>
+        <v>46023.757152777784</v>
       </c>
       <c r="S44" t="s">
         <v>30</v>
@@ -3046,33 +3130,33 @@
         <v>31</v>
       </c>
       <c r="W44">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>46027.470755069437</v>
+        <v>46026.859183993052</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F45" s="6">
-        <v>20000</v>
+        <v>50500</v>
       </c>
       <c r="G45" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="4">
-        <v>100</v>
+        <v>505</v>
       </c>
       <c r="I45" t="s">
         <v>55</v>
@@ -3081,398 +3165,296 @@
         <v>27</v>
       </c>
       <c r="K45" s="4">
-        <v>1061.8235294117601</v>
-      </c>
-      <c r="N45">
-        <v>737966595</v>
-      </c>
-      <c r="O45" t="s">
-        <v>122</v>
-      </c>
-      <c r="P45" s="3">
-        <v>46027.437604166669</v>
-      </c>
-      <c r="S45" t="s">
-        <v>30</v>
-      </c>
-      <c r="U45" t="s">
-        <v>31</v>
-      </c>
-      <c r="W45">
-        <v>54</v>
+        <v>653</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>46032.688644895832</v>
+        <v>46026.859920370371</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F46" s="6">
-        <v>26000</v>
-      </c>
-      <c r="G46">
+        <v>50500</v>
+      </c>
+      <c r="G46" s="4">
         <v>100</v>
       </c>
-      <c r="H46">
-        <v>260</v>
+      <c r="H46" s="4">
+        <v>505</v>
       </c>
       <c r="I46" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="J46" t="s">
         <v>27</v>
       </c>
-      <c r="N46">
-        <v>737966972</v>
-      </c>
-      <c r="O46" t="s">
-        <v>124</v>
-      </c>
-      <c r="P46" s="3">
-        <v>46027.438171296293</v>
-      </c>
-      <c r="S46" t="s">
-        <v>30</v>
-      </c>
-      <c r="U46" t="s">
-        <v>31</v>
-      </c>
-      <c r="W46">
-        <v>55</v>
+      <c r="K46" s="4">
+        <v>1061.8235294117601</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>46032.687082951386</v>
+        <v>46026.860507465281</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F47" s="6">
-        <v>27000</v>
-      </c>
-      <c r="G47">
-        <v>70</v>
-      </c>
-      <c r="H47">
-        <v>385.71428571428498</v>
+        <v>85000</v>
+      </c>
+      <c r="G47" s="4">
+        <v>100</v>
+      </c>
+      <c r="H47" s="4">
+        <v>850</v>
       </c>
       <c r="I47" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="J47" t="s">
         <v>27</v>
       </c>
-      <c r="N47">
-        <v>737967404</v>
-      </c>
-      <c r="O47" t="s">
-        <v>125</v>
-      </c>
-      <c r="P47" s="3">
-        <v>46027.439097222217</v>
-      </c>
-      <c r="S47" t="s">
-        <v>30</v>
-      </c>
-      <c r="U47" t="s">
-        <v>31</v>
-      </c>
-      <c r="W47">
-        <v>56</v>
+      <c r="K47" s="4">
+        <v>266.15789473684202</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>46032.685642025463</v>
+        <v>46026.861369305552</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F48" s="6">
-        <v>28000</v>
-      </c>
-      <c r="G48">
+        <v>27500</v>
+      </c>
+      <c r="G48" s="4">
         <v>100</v>
       </c>
-      <c r="H48">
-        <v>280</v>
+      <c r="H48" s="4">
+        <v>275</v>
       </c>
       <c r="I48" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="J48" t="s">
         <v>27</v>
       </c>
-      <c r="N48">
-        <v>737967774</v>
-      </c>
-      <c r="O48" t="s">
-        <v>127</v>
-      </c>
-      <c r="P48" s="3">
-        <v>46027.439768518518</v>
-      </c>
-      <c r="S48" t="s">
-        <v>30</v>
-      </c>
-      <c r="U48" t="s">
-        <v>31</v>
-      </c>
-      <c r="W48">
-        <v>57</v>
+      <c r="K48" s="4">
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>46032.684586122683</v>
+        <v>46026.862139016201</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F49" s="6">
-        <v>23000</v>
-      </c>
-      <c r="G49">
-        <v>95</v>
-      </c>
-      <c r="H49">
-        <v>242.105263157894</v>
+        <v>31000</v>
+      </c>
+      <c r="G49" s="4">
+        <v>105</v>
+      </c>
+      <c r="H49" s="4">
+        <v>295.23809523809501</v>
       </c>
       <c r="I49" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="J49" t="s">
         <v>27</v>
       </c>
-      <c r="N49">
-        <v>737968989</v>
-      </c>
-      <c r="O49" t="s">
-        <v>128</v>
-      </c>
-      <c r="P49" s="3">
-        <v>46027.441666666673</v>
-      </c>
-      <c r="S49" t="s">
-        <v>30</v>
-      </c>
-      <c r="U49" t="s">
-        <v>31</v>
-      </c>
-      <c r="W49">
-        <v>58</v>
+      <c r="K49" s="4">
+        <v>388.71428571428498</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>46032.68353037037</v>
+        <v>46026.862810879633</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="F50" s="6">
-        <v>75000</v>
-      </c>
-      <c r="G50">
-        <v>85</v>
-      </c>
-      <c r="H50">
-        <v>882.35294117647004</v>
+        <v>90000</v>
+      </c>
+      <c r="G50" s="4">
+        <v>115</v>
+      </c>
+      <c r="H50" s="4">
+        <v>782.60869565217297</v>
       </c>
       <c r="I50" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="J50" t="s">
         <v>27</v>
       </c>
-      <c r="N50">
-        <v>737970100</v>
-      </c>
-      <c r="O50" t="s">
-        <v>129</v>
-      </c>
-      <c r="P50" s="3">
-        <v>46027.443460648137</v>
-      </c>
-      <c r="S50" t="s">
-        <v>30</v>
-      </c>
-      <c r="U50" t="s">
-        <v>31</v>
-      </c>
-      <c r="W50">
-        <v>59</v>
+      <c r="K50" s="4">
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>46032.682047650473</v>
+        <v>46026.883998483798</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="F51" s="6">
-        <v>80000</v>
-      </c>
-      <c r="G51">
-        <v>85</v>
-      </c>
-      <c r="H51">
-        <v>941.17647058823502</v>
+        <v>20000</v>
+      </c>
+      <c r="G51" s="4">
+        <v>95</v>
+      </c>
+      <c r="H51" s="4">
+        <v>210.52631578947299</v>
       </c>
       <c r="I51" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="J51" t="s">
         <v>27</v>
+      </c>
+      <c r="K51" s="4">
+        <v>653</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>46032.680882256936</v>
+        <v>46026.885575972221</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F52" s="6">
-        <v>42000</v>
-      </c>
-      <c r="G52">
-        <v>80</v>
-      </c>
-      <c r="H52">
-        <v>525</v>
+        <v>23000</v>
+      </c>
+      <c r="G52" s="4">
+        <v>95</v>
+      </c>
+      <c r="H52" s="4">
+        <v>242.105263157894</v>
       </c>
       <c r="I52" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="J52" t="s">
         <v>27</v>
       </c>
-      <c r="N52">
-        <v>737377756</v>
-      </c>
-      <c r="O52" t="s">
-        <v>130</v>
-      </c>
-      <c r="P52" s="3">
-        <v>46023.755972222221</v>
-      </c>
-      <c r="S52" t="s">
-        <v>30</v>
-      </c>
-      <c r="U52" t="s">
-        <v>31</v>
-      </c>
-      <c r="W52">
-        <v>29</v>
+      <c r="K52" s="4">
+        <v>492.79591836734602</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>46025.648406932873</v>
+        <v>46026.88667886574</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="F53" s="6">
-        <v>75000</v>
+        <v>23000</v>
       </c>
       <c r="G53" s="4">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H53" s="4">
-        <v>882.35294117647004</v>
+        <v>242.105263157894</v>
       </c>
       <c r="I53" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J53" t="s">
         <v>27</v>
       </c>
+      <c r="K53" s="4">
+        <v>590.5</v>
+      </c>
       <c r="N53">
-        <v>737377833</v>
+        <v>737627261</v>
       </c>
       <c r="O53" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="P53" s="3">
-        <v>46023.757152777784</v>
+        <v>46025.604131944441</v>
       </c>
       <c r="S53" t="s">
         <v>30</v>
@@ -3481,48 +3463,51 @@
         <v>31</v>
       </c>
       <c r="W53">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>46025.647667453697</v>
+        <v>46027.470755069437</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F54" s="6">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="G54" s="4">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="H54" s="4">
-        <v>941.17647058823502</v>
+        <v>100</v>
       </c>
       <c r="I54" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J54" t="s">
         <v>27</v>
       </c>
+      <c r="K54" s="4">
+        <v>1061.8235294117601</v>
+      </c>
       <c r="N54">
-        <v>737377939</v>
+        <v>737966595</v>
       </c>
       <c r="O54" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="P54" s="3">
-        <v>46023.758113425924</v>
+        <v>46027.437604166669</v>
       </c>
       <c r="S54" t="s">
         <v>30</v>
@@ -3531,48 +3516,51 @@
         <v>31</v>
       </c>
       <c r="W54">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>46025.646681307873</v>
+        <v>46027.477737465277</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F55" s="6">
-        <v>48000</v>
+        <v>20000</v>
       </c>
       <c r="G55" s="4">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H55" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I55" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J55" t="s">
         <v>27</v>
       </c>
+      <c r="K55" s="4">
+        <v>1003</v>
+      </c>
       <c r="N55">
-        <v>737627493</v>
+        <v>737965573</v>
       </c>
       <c r="O55" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="P55" s="3">
-        <v>46025.605046296303</v>
+        <v>46027.436076388891</v>
       </c>
       <c r="S55" t="s">
         <v>30</v>
@@ -3581,48 +3569,51 @@
         <v>31</v>
       </c>
       <c r="W55">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>46025.645791712966</v>
+        <v>46027.479271736112</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F56" s="6">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="G56" s="4">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H56" s="4">
-        <v>280</v>
+        <v>347.36842105263099</v>
       </c>
       <c r="I56" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J56" t="s">
         <v>27</v>
       </c>
+      <c r="K56" s="4">
+        <v>255.63157894736801</v>
+      </c>
       <c r="N56">
-        <v>737627632</v>
+        <v>737824189</v>
       </c>
       <c r="O56" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="P56" s="3">
-        <v>46025.60601851852</v>
+        <v>46026.845775462964</v>
       </c>
       <c r="S56" t="s">
         <v>30</v>
@@ -3631,48 +3622,51 @@
         <v>31</v>
       </c>
       <c r="W56">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>46025.640863252323</v>
+        <v>46027.479841284723</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F57" s="6">
-        <v>25000</v>
+        <v>63000</v>
       </c>
       <c r="G57" s="4">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="H57" s="4">
-        <v>357.142857142857</v>
+        <v>600</v>
       </c>
       <c r="I57" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J57" t="s">
         <v>27</v>
       </c>
+      <c r="K57" s="4">
+        <v>303</v>
+      </c>
       <c r="N57">
-        <v>737627736</v>
+        <v>737820457</v>
       </c>
       <c r="O57" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="P57" s="3">
-        <v>46025.606759259259</v>
+        <v>46026.818854166668</v>
       </c>
       <c r="S57" t="s">
         <v>30</v>
@@ -3681,150 +3675,117 @@
         <v>31</v>
       </c>
       <c r="W57">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>46025.640143599543</v>
+        <v>46027.480758101847</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="F58" s="6">
-        <v>30000</v>
+        <v>59000</v>
       </c>
       <c r="G58" s="4">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H58" s="4">
-        <v>300</v>
+        <v>561.90476190476102</v>
       </c>
       <c r="I58" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J58" t="s">
         <v>27</v>
       </c>
-      <c r="N58">
-        <v>737627851</v>
-      </c>
-      <c r="O58" t="s">
-        <v>136</v>
-      </c>
-      <c r="P58" s="3">
-        <v>46025.607777777783</v>
-      </c>
-      <c r="S58" t="s">
-        <v>30</v>
-      </c>
-      <c r="U58" t="s">
-        <v>31</v>
-      </c>
-      <c r="W58">
-        <v>43</v>
+      <c r="K58" s="4">
+        <v>360.142857142857</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>46025.639375590283</v>
+        <v>46027.481432534732</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="F59" s="6">
-        <v>24000</v>
+        <v>65000</v>
       </c>
       <c r="G59" s="4">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H59" s="4">
-        <v>252.63157894736801</v>
+        <v>631.06796116504802</v>
       </c>
       <c r="I59" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="J59" t="s">
         <v>27</v>
       </c>
       <c r="K59" s="4">
-        <v>498.65217391304299</v>
-      </c>
-      <c r="N59">
-        <v>737820416</v>
-      </c>
-      <c r="O59" t="s">
-        <v>137</v>
-      </c>
-      <c r="P59" s="3">
-        <v>46026.81827546296</v>
-      </c>
-      <c r="S59" t="s">
-        <v>30</v>
-      </c>
-      <c r="U59" t="s">
-        <v>31</v>
-      </c>
-      <c r="W59">
-        <v>44</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>46025.638782152782</v>
+        <v>46027.483332025462</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F60" s="6">
-        <v>85000</v>
+        <v>57000</v>
       </c>
       <c r="G60" s="4">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="H60" s="4">
-        <v>1000</v>
+        <v>495.65217391304299</v>
       </c>
       <c r="I60" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J60" t="s">
         <v>27</v>
       </c>
       <c r="K60" s="4">
-        <v>634.06796116504802</v>
+        <v>503</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>46025.638221909721</v>
+        <v>46030.847251817133</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -3833,51 +3794,30 @@
         <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F61" s="6">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="G61" s="4">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H61" s="4">
-        <v>1058.8235294117601</v>
+        <v>625</v>
       </c>
       <c r="I61" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="J61" t="s">
         <v>27</v>
-      </c>
-      <c r="K61" s="4">
-        <v>564.90476190476102</v>
-      </c>
-      <c r="N61">
-        <v>737820804</v>
-      </c>
-      <c r="O61" t="s">
-        <v>138</v>
-      </c>
-      <c r="P61" s="3">
-        <v>46026.821157407408</v>
-      </c>
-      <c r="S61" t="s">
-        <v>30</v>
-      </c>
-      <c r="U61" t="s">
-        <v>31</v>
-      </c>
-      <c r="W61">
-        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>46025.637433981479</v>
+        <v>46030.847251817133</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -3886,51 +3826,30 @@
         <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="E62" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="6">
-        <v>47000</v>
-      </c>
-      <c r="G62" s="4">
+        <v>50000</v>
+      </c>
+      <c r="G62">
         <v>80</v>
       </c>
-      <c r="H62" s="4">
-        <v>587.5</v>
+      <c r="H62">
+        <v>625</v>
       </c>
       <c r="I62" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="J62" t="s">
         <v>27</v>
-      </c>
-      <c r="K62" s="4">
-        <v>603</v>
-      </c>
-      <c r="N62">
-        <v>737823443</v>
-      </c>
-      <c r="O62" t="s">
-        <v>139</v>
-      </c>
-      <c r="P62" s="3">
-        <v>46026.84233796296</v>
-      </c>
-      <c r="S62" t="s">
-        <v>30</v>
-      </c>
-      <c r="U62" t="s">
-        <v>31</v>
-      </c>
-      <c r="W62">
-        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>46030.853261863427</v>
+        <v>46030.848417245368</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
@@ -3942,16 +3861,16 @@
         <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F63" s="6">
-        <v>49000</v>
+        <v>80000</v>
       </c>
       <c r="G63" s="4">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H63" s="4">
-        <v>500</v>
+        <v>941.17647058823502</v>
       </c>
       <c r="I63" t="s">
         <v>123</v>
@@ -3959,28 +3878,10 @@
       <c r="J63" t="s">
         <v>27</v>
       </c>
-      <c r="N63">
-        <v>737823808</v>
-      </c>
-      <c r="O63" t="s">
-        <v>140</v>
-      </c>
-      <c r="P63" s="3">
-        <v>46026.843923611108</v>
-      </c>
-      <c r="S63" t="s">
-        <v>30</v>
-      </c>
-      <c r="U63" t="s">
-        <v>31</v>
-      </c>
-      <c r="W63">
-        <v>50</v>
-      </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>46030.853261863427</v>
+        <v>46030.848417245368</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
@@ -3992,16 +3893,16 @@
         <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F64" s="6">
-        <v>49000</v>
+        <v>80000</v>
       </c>
       <c r="G64">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H64">
-        <v>500</v>
+        <v>941.17647058823502</v>
       </c>
       <c r="I64" t="s">
         <v>123</v>
@@ -4009,28 +3910,10 @@
       <c r="J64" t="s">
         <v>27</v>
       </c>
-      <c r="N64">
-        <v>737824092</v>
-      </c>
-      <c r="O64" t="s">
-        <v>142</v>
-      </c>
-      <c r="P64" s="3">
-        <v>46026.845034722217</v>
-      </c>
-      <c r="S64" t="s">
-        <v>30</v>
-      </c>
-      <c r="U64" t="s">
-        <v>31</v>
-      </c>
-      <c r="W64">
-        <v>51</v>
-      </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>46030.851939571759</v>
+        <v>46030.849268414349</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -4042,31 +3925,31 @@
         <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F65" s="6">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="G65" s="4">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H65" s="4">
-        <v>250</v>
+        <v>252.63157894736801</v>
       </c>
       <c r="I65" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J65" t="s">
         <v>27</v>
       </c>
       <c r="N65">
-        <v>737377564</v>
+        <v>737625896</v>
       </c>
       <c r="O65" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P65" s="3">
-        <v>46023.75335648148</v>
+        <v>46025.596550925933</v>
       </c>
       <c r="S65" t="s">
         <v>30</v>
@@ -4075,12 +3958,12 @@
         <v>31</v>
       </c>
       <c r="W65">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>46030.851939571759</v>
+        <v>46030.849268414349</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -4092,31 +3975,31 @@
         <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F66" s="6">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="G66">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H66">
-        <v>250</v>
+        <v>252.63157894736801</v>
       </c>
       <c r="I66" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J66" t="s">
         <v>27</v>
       </c>
       <c r="N66">
-        <v>737377598</v>
+        <v>737625998</v>
       </c>
       <c r="O66" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P66" s="3">
-        <v>46023.754131944443</v>
+        <v>46025.597118055557</v>
       </c>
       <c r="S66" t="s">
         <v>30</v>
@@ -4125,12 +4008,12 @@
         <v>31</v>
       </c>
       <c r="W66">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>46030.850984560187</v>
+        <v>46030.850314791664</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
@@ -4142,16 +4025,16 @@
         <v>23</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F67" s="6">
         <v>25000</v>
       </c>
       <c r="G67" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H67" s="4">
-        <v>357.142857142857</v>
+        <v>250</v>
       </c>
       <c r="I67" t="s">
         <v>123</v>
@@ -4160,13 +4043,13 @@
         <v>27</v>
       </c>
       <c r="N67">
-        <v>737377687</v>
+        <v>737378024</v>
       </c>
       <c r="O67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P67" s="3">
-        <v>46023.755011574067</v>
+        <v>46023.759108796286</v>
       </c>
       <c r="S67" t="s">
         <v>30</v>
@@ -4175,12 +4058,12 @@
         <v>31</v>
       </c>
       <c r="W67">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>46030.850984560187</v>
+        <v>46030.850314791664</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
@@ -4192,16 +4075,16 @@
         <v>141</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F68" s="6">
         <v>25000</v>
       </c>
       <c r="G68">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H68">
-        <v>357.142857142857</v>
+        <v>250</v>
       </c>
       <c r="I68" t="s">
         <v>123</v>
@@ -4209,10 +4092,28 @@
       <c r="J68" t="s">
         <v>27</v>
       </c>
+      <c r="N68">
+        <v>737378138</v>
+      </c>
+      <c r="O68" t="s">
+        <v>147</v>
+      </c>
+      <c r="P68" s="3">
+        <v>46023.760729166657</v>
+      </c>
+      <c r="S68" t="s">
+        <v>30</v>
+      </c>
+      <c r="U68" t="s">
+        <v>31</v>
+      </c>
+      <c r="W68">
+        <v>33</v>
+      </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>46030.850314791664</v>
+        <v>46030.850984560187</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
@@ -4224,16 +4125,16 @@
         <v>23</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F69" s="6">
         <v>25000</v>
       </c>
       <c r="G69" s="4">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H69" s="4">
-        <v>250</v>
+        <v>357.142857142857</v>
       </c>
       <c r="I69" t="s">
         <v>123</v>
@@ -4242,13 +4143,13 @@
         <v>27</v>
       </c>
       <c r="N69">
-        <v>737378024</v>
+        <v>737377687</v>
       </c>
       <c r="O69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P69" s="3">
-        <v>46023.759108796286</v>
+        <v>46023.755011574067</v>
       </c>
       <c r="S69" t="s">
         <v>30</v>
@@ -4257,12 +4158,12 @@
         <v>31</v>
       </c>
       <c r="W69">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>46030.850314791664</v>
+        <v>46030.850984560187</v>
       </c>
       <c r="B70" t="s">
         <v>21</v>
@@ -4274,16 +4175,16 @@
         <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F70" s="6">
         <v>25000</v>
       </c>
       <c r="G70">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H70">
-        <v>250</v>
+        <v>357.142857142857</v>
       </c>
       <c r="I70" t="s">
         <v>123</v>
@@ -4291,28 +4192,10 @@
       <c r="J70" t="s">
         <v>27</v>
       </c>
-      <c r="N70">
-        <v>737378138</v>
-      </c>
-      <c r="O70" t="s">
-        <v>147</v>
-      </c>
-      <c r="P70" s="3">
-        <v>46023.760729166657</v>
-      </c>
-      <c r="S70" t="s">
-        <v>30</v>
-      </c>
-      <c r="U70" t="s">
-        <v>31</v>
-      </c>
-      <c r="W70">
-        <v>33</v>
-      </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>46030.849268414349</v>
+        <v>46030.851939571759</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
@@ -4324,31 +4207,31 @@
         <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F71" s="6">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="G71" s="4">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H71" s="4">
-        <v>252.63157894736801</v>
+        <v>250</v>
       </c>
       <c r="I71" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J71" t="s">
         <v>27</v>
       </c>
       <c r="N71">
-        <v>737625896</v>
+        <v>737377564</v>
       </c>
       <c r="O71" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P71" s="3">
-        <v>46025.596550925933</v>
+        <v>46023.75335648148</v>
       </c>
       <c r="S71" t="s">
         <v>30</v>
@@ -4357,12 +4240,12 @@
         <v>31</v>
       </c>
       <c r="W71">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>46030.849268414349</v>
+        <v>46030.851939571759</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
@@ -4374,31 +4257,31 @@
         <v>141</v>
       </c>
       <c r="E72" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F72" s="6">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="G72">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H72">
-        <v>252.63157894736801</v>
+        <v>250</v>
       </c>
       <c r="I72" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J72" t="s">
         <v>27</v>
       </c>
       <c r="N72">
-        <v>737625998</v>
+        <v>737377598</v>
       </c>
       <c r="O72" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P72" s="3">
-        <v>46025.597118055557</v>
+        <v>46023.754131944443</v>
       </c>
       <c r="S72" t="s">
         <v>30</v>
@@ -4407,12 +4290,12 @@
         <v>31</v>
       </c>
       <c r="W72">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>46030.848417245368</v>
+        <v>46030.853261863427</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
@@ -4424,16 +4307,16 @@
         <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F73" s="6">
-        <v>80000</v>
+        <v>49000</v>
       </c>
       <c r="G73" s="4">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H73" s="4">
-        <v>941.17647058823502</v>
+        <v>500</v>
       </c>
       <c r="I73" t="s">
         <v>123</v>
@@ -4441,10 +4324,28 @@
       <c r="J73" t="s">
         <v>27</v>
       </c>
+      <c r="N73">
+        <v>737823808</v>
+      </c>
+      <c r="O73" t="s">
+        <v>140</v>
+      </c>
+      <c r="P73" s="3">
+        <v>46026.843923611108</v>
+      </c>
+      <c r="S73" t="s">
+        <v>30</v>
+      </c>
+      <c r="U73" t="s">
+        <v>31</v>
+      </c>
+      <c r="W73">
+        <v>50</v>
+      </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>46030.848417245368</v>
+        <v>46030.853261863427</v>
       </c>
       <c r="B74" t="s">
         <v>21</v>
@@ -4456,16 +4357,16 @@
         <v>141</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F74" s="6">
-        <v>80000</v>
+        <v>49000</v>
       </c>
       <c r="G74">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H74">
-        <v>941.17647058823502</v>
+        <v>500</v>
       </c>
       <c r="I74" t="s">
         <v>123</v>
@@ -4473,66 +4374,87 @@
       <c r="J74" t="s">
         <v>27</v>
       </c>
+      <c r="N74">
+        <v>737824092</v>
+      </c>
+      <c r="O74" t="s">
+        <v>142</v>
+      </c>
+      <c r="P74" s="3">
+        <v>46026.845034722217</v>
+      </c>
+      <c r="S74" t="s">
+        <v>30</v>
+      </c>
+      <c r="U74" t="s">
+        <v>31</v>
+      </c>
+      <c r="W74">
+        <v>51</v>
+      </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>46030.847251817133</v>
+        <v>46030.917687453701</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F75" s="6">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="G75" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H75" s="4">
-        <v>625</v>
+        <v>200</v>
       </c>
       <c r="I75" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J75" t="s">
         <v>27</v>
+      </c>
+      <c r="K75" s="4">
+        <v>944.17647058823502</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>46030.847251817133</v>
+        <v>46030.917687453701</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F76" s="6">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="G76">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H76">
-        <v>625</v>
+        <v>200</v>
       </c>
       <c r="I76" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J76" t="s">
         <v>27</v>
@@ -4540,308 +4462,296 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>46023.800733993063</v>
+        <v>46030.918346331018</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F77" s="6">
-        <v>48000</v>
+        <v>34000</v>
       </c>
       <c r="G77" s="4">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H77" s="4">
-        <v>489.79591836734602</v>
+        <v>357.89473684210498</v>
       </c>
       <c r="I77" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="J77" t="s">
         <v>27</v>
       </c>
       <c r="K77" s="4">
-        <v>350.36842105263099</v>
+        <v>885.35294117647004</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
-        <v>46023.799761655093</v>
+        <v>46030.918346331018</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E78" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F78" s="6">
-        <v>52000</v>
-      </c>
-      <c r="G78" s="4">
-        <v>80</v>
-      </c>
-      <c r="H78" s="4">
-        <v>650</v>
+        <v>34000</v>
+      </c>
+      <c r="G78">
+        <v>95</v>
+      </c>
+      <c r="H78">
+        <v>357.89473684210498</v>
       </c>
       <c r="I78" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="J78" t="s">
         <v>27</v>
-      </c>
-      <c r="K78" s="4">
-        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>46023.798798634263</v>
+        <v>46030.919912384263</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F79" s="6">
-        <v>25000</v>
+        <v>57000</v>
       </c>
       <c r="G79" s="4">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H79" s="4">
-        <v>250</v>
+        <v>495.65217391304299</v>
       </c>
       <c r="I79" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="J79" t="s">
         <v>27</v>
       </c>
       <c r="K79" s="4">
-        <v>103</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>46023.797625624997</v>
+        <v>46030.919912384263</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F80" s="6">
-        <v>27000</v>
-      </c>
-      <c r="G80" s="4">
-        <v>70</v>
-      </c>
-      <c r="H80" s="4">
-        <v>385.71428571428498</v>
+        <v>57000</v>
+      </c>
+      <c r="G80">
+        <v>115</v>
+      </c>
+      <c r="H80">
+        <v>495.65217391304299</v>
       </c>
       <c r="I80" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="J80" t="s">
         <v>27</v>
-      </c>
-      <c r="K80" s="4">
-        <v>245.105263157894</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>46023.796657418978</v>
+        <v>46030.920732303239</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F81" s="6">
-        <v>25000</v>
+        <v>61000</v>
       </c>
       <c r="G81" s="4">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H81" s="4">
-        <v>250</v>
+        <v>580.95238095238096</v>
       </c>
       <c r="I81" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="J81" t="s">
         <v>27</v>
       </c>
       <c r="K81" s="4">
-        <v>245.105263157894</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>46023.795786863433</v>
+        <v>46030.920732303239</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E82" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F82" s="6">
-        <v>25000</v>
-      </c>
-      <c r="G82" s="4">
-        <v>95</v>
-      </c>
-      <c r="H82" s="4">
-        <v>263.15789473684202</v>
+        <v>61000</v>
+      </c>
+      <c r="G82">
+        <v>105</v>
+      </c>
+      <c r="H82">
+        <v>580.95238095238096</v>
       </c>
       <c r="I82" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="J82" t="s">
         <v>27</v>
-      </c>
-      <c r="K82" s="4">
-        <v>213.52631578947299</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>46023.794994814823</v>
+        <v>46030.921798935182</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F83" s="6">
-        <v>90000</v>
+        <v>58000</v>
       </c>
       <c r="G83" s="4">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="H83" s="4">
-        <v>1058.8235294117601</v>
+        <v>552.38095238095195</v>
       </c>
       <c r="I83" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="J83" t="s">
         <v>27</v>
       </c>
       <c r="K83" s="4">
-        <v>785.60869565217297</v>
+        <v>853</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>46023.793820868057</v>
+        <v>46030.921798935182</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F84" s="6">
-        <v>52000</v>
-      </c>
-      <c r="G84" s="4">
-        <v>80</v>
-      </c>
-      <c r="H84" s="4">
-        <v>650</v>
+        <v>58000</v>
+      </c>
+      <c r="G84">
+        <v>105</v>
+      </c>
+      <c r="H84">
+        <v>552.38095238095195</v>
       </c>
       <c r="I84" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="J84" t="s">
         <v>27</v>
-      </c>
-      <c r="K84" s="4">
-        <v>298.23809523809501</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>46033.79415559028</v>
+        <v>46030.922455798609</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D85" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="E85" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="F85" s="6">
-        <v>90000</v>
-      </c>
-      <c r="G85">
-        <v>115</v>
-      </c>
-      <c r="H85">
-        <v>782.60869565217297</v>
+        <v>63000</v>
+      </c>
+      <c r="G85" s="4">
+        <v>103</v>
+      </c>
+      <c r="H85" s="4">
+        <v>611.65048543689295</v>
       </c>
       <c r="I85" t="s">
         <v>116</v>
@@ -4849,14 +4759,17 @@
       <c r="J85" t="s">
         <v>27</v>
       </c>
+      <c r="K85" s="4">
+        <v>278</v>
+      </c>
       <c r="N85">
-        <v>737820567</v>
+        <v>737626064</v>
       </c>
       <c r="O85" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="P85" s="3">
-        <v>46026.819733796299</v>
+        <v>46025.597708333327</v>
       </c>
       <c r="S85" t="s">
         <v>30</v>
@@ -4865,33 +4778,33 @@
         <v>31</v>
       </c>
       <c r="W85">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
-        <v>46033.793607928237</v>
+        <v>46030.922455798609</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D86" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="E86" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F86" s="6">
-        <v>23000</v>
+        <v>63000</v>
       </c>
       <c r="G86">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H86">
-        <v>242.105263157894</v>
+        <v>611.65048543689295</v>
       </c>
       <c r="I86" t="s">
         <v>116</v>
@@ -4900,13 +4813,13 @@
         <v>27</v>
       </c>
       <c r="N86">
-        <v>737820624</v>
+        <v>737626149</v>
       </c>
       <c r="O86" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="P86" s="3">
-        <v>46026.820486111108</v>
+        <v>46025.598483796297</v>
       </c>
       <c r="S86" t="s">
         <v>30</v>
@@ -4915,68 +4828,86 @@
         <v>31</v>
       </c>
       <c r="W86">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>46033.79291113426</v>
+        <v>46032.680882256936</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s">
+        <v>53</v>
+      </c>
+      <c r="E87" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="6">
+        <v>42000</v>
+      </c>
+      <c r="G87">
         <v>80</v>
       </c>
-      <c r="D87" t="s">
-        <v>81</v>
-      </c>
-      <c r="E87" t="s">
-        <v>47</v>
-      </c>
-      <c r="F87" s="6">
-        <v>24000</v>
-      </c>
-      <c r="G87">
-        <v>95</v>
-      </c>
       <c r="H87">
-        <v>252.63157894736801</v>
+        <v>525</v>
       </c>
       <c r="I87" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J87" t="s">
         <v>27</v>
+      </c>
+      <c r="N87">
+        <v>737377756</v>
+      </c>
+      <c r="O87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P87" s="3">
+        <v>46023.755972222221</v>
+      </c>
+      <c r="S87" t="s">
+        <v>30</v>
+      </c>
+      <c r="U87" t="s">
+        <v>31</v>
+      </c>
+      <c r="W87">
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>46033.792069953714</v>
+        <v>46032.682047650473</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E88" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="F88" s="6">
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="G88">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H88">
-        <v>210.52631578947299</v>
+        <v>941.17647058823502</v>
       </c>
       <c r="I88" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J88" t="s">
         <v>27</v>
@@ -4984,171 +4915,243 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>46033.791191562501</v>
+        <v>46032.68353037037</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F89" s="6">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="G89">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="H89">
-        <v>285.71428571428498</v>
+        <v>882.35294117647004</v>
       </c>
       <c r="I89" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J89" t="s">
         <v>27</v>
+      </c>
+      <c r="N89">
+        <v>737970100</v>
+      </c>
+      <c r="O89" t="s">
+        <v>129</v>
+      </c>
+      <c r="P89" s="3">
+        <v>46027.443460648137</v>
+      </c>
+      <c r="S89" t="s">
+        <v>30</v>
+      </c>
+      <c r="U89" t="s">
+        <v>31</v>
+      </c>
+      <c r="W89">
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>46033.790557430562</v>
+        <v>46032.684586122683</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C90" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F90" s="6">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="G90">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H90">
-        <v>270</v>
+        <v>242.105263157894</v>
       </c>
       <c r="I90" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J90" t="s">
         <v>27</v>
+      </c>
+      <c r="N90">
+        <v>737968989</v>
+      </c>
+      <c r="O90" t="s">
+        <v>128</v>
+      </c>
+      <c r="P90" s="3">
+        <v>46027.441666666673</v>
+      </c>
+      <c r="S90" t="s">
+        <v>30</v>
+      </c>
+      <c r="U90" t="s">
+        <v>31</v>
+      </c>
+      <c r="W90">
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>46033.789544490741</v>
+        <v>46032.685642025463</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F91" s="6">
-        <v>83000</v>
+        <v>28000</v>
       </c>
       <c r="G91">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H91">
-        <v>846.93877551020398</v>
+        <v>280</v>
       </c>
       <c r="I91" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J91" t="s">
         <v>27</v>
+      </c>
+      <c r="N91">
+        <v>737967774</v>
+      </c>
+      <c r="O91" t="s">
+        <v>127</v>
+      </c>
+      <c r="P91" s="3">
+        <v>46027.439768518518</v>
+      </c>
+      <c r="S91" t="s">
+        <v>30</v>
+      </c>
+      <c r="U91" t="s">
+        <v>31</v>
+      </c>
+      <c r="W91">
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>46033.788779143521</v>
+        <v>46032.687082951386</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E92" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F92" s="6">
-        <v>49000</v>
+        <v>27000</v>
       </c>
       <c r="G92">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H92">
-        <v>490</v>
+        <v>385.71428571428498</v>
       </c>
       <c r="I92" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J92" t="s">
         <v>27</v>
+      </c>
+      <c r="N92">
+        <v>737967404</v>
+      </c>
+      <c r="O92" t="s">
+        <v>125</v>
+      </c>
+      <c r="P92" s="3">
+        <v>46027.439097222217</v>
+      </c>
+      <c r="S92" t="s">
+        <v>30</v>
+      </c>
+      <c r="U92" t="s">
+        <v>31</v>
+      </c>
+      <c r="W92">
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>46033.787580682867</v>
+        <v>46032.688644895832</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C93" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E93" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F93" s="6">
-        <v>49000</v>
+        <v>26000</v>
       </c>
       <c r="G93">
         <v>100</v>
       </c>
       <c r="H93">
-        <v>490</v>
+        <v>260</v>
       </c>
       <c r="I93" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J93" t="s">
         <v>27</v>
       </c>
       <c r="N93">
-        <v>737626229</v>
+        <v>737966972</v>
       </c>
       <c r="O93" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="P93" s="3">
-        <v>46025.59920138889</v>
+        <v>46027.438171296293</v>
       </c>
       <c r="S93" t="s">
         <v>30</v>
@@ -5157,12 +5160,12 @@
         <v>31</v>
       </c>
       <c r="W93">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>46026.88667886574</v>
+        <v>46033.787580682867</v>
       </c>
       <c r="B94" t="s">
         <v>79</v>
@@ -5174,34 +5177,31 @@
         <v>81</v>
       </c>
       <c r="E94" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F94" s="6">
-        <v>23000</v>
-      </c>
-      <c r="G94" s="4">
-        <v>95</v>
-      </c>
-      <c r="H94" s="4">
-        <v>242.105263157894</v>
+        <v>49000</v>
+      </c>
+      <c r="G94">
+        <v>100</v>
+      </c>
+      <c r="H94">
+        <v>490</v>
       </c>
       <c r="I94" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="J94" t="s">
         <v>27</v>
       </c>
-      <c r="K94" s="4">
-        <v>590.5</v>
-      </c>
       <c r="N94">
-        <v>737627261</v>
+        <v>737626229</v>
       </c>
       <c r="O94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P94" s="3">
-        <v>46025.604131944441</v>
+        <v>46025.59920138889</v>
       </c>
       <c r="S94" t="s">
         <v>30</v>
@@ -5210,12 +5210,12 @@
         <v>31</v>
       </c>
       <c r="W94">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>46026.885575972221</v>
+        <v>46033.788779143521</v>
       </c>
       <c r="B95" t="s">
         <v>79</v>
@@ -5227,30 +5227,27 @@
         <v>81</v>
       </c>
       <c r="E95" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F95" s="6">
-        <v>23000</v>
-      </c>
-      <c r="G95" s="4">
-        <v>95</v>
-      </c>
-      <c r="H95" s="4">
-        <v>242.105263157894</v>
+        <v>49000</v>
+      </c>
+      <c r="G95">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>490</v>
       </c>
       <c r="I95" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="J95" t="s">
         <v>27</v>
-      </c>
-      <c r="K95" s="4">
-        <v>492.79591836734602</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>46026.883998483798</v>
+        <v>46033.789544490741</v>
       </c>
       <c r="B96" t="s">
         <v>79</v>
@@ -5262,30 +5259,27 @@
         <v>81</v>
       </c>
       <c r="E96" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="F96" s="6">
-        <v>20000</v>
-      </c>
-      <c r="G96" s="4">
-        <v>95</v>
-      </c>
-      <c r="H96" s="4">
-        <v>210.52631578947299</v>
+        <v>83000</v>
+      </c>
+      <c r="G96">
+        <v>98</v>
+      </c>
+      <c r="H96">
+        <v>846.93877551020398</v>
       </c>
       <c r="I96" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="J96" t="s">
         <v>27</v>
       </c>
-      <c r="K96" s="4">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>46026.862810879633</v>
+        <v>46033.790557430562</v>
       </c>
       <c r="B97" t="s">
         <v>79</v>
@@ -5297,30 +5291,27 @@
         <v>81</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="F97" s="6">
-        <v>90000</v>
-      </c>
-      <c r="G97" s="4">
-        <v>115</v>
-      </c>
-      <c r="H97" s="4">
-        <v>782.60869565217297</v>
+        <v>27000</v>
+      </c>
+      <c r="G97">
+        <v>100</v>
+      </c>
+      <c r="H97">
+        <v>270</v>
       </c>
       <c r="I97" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="J97" t="s">
         <v>27</v>
       </c>
-      <c r="K97" s="4">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>46026.862139016201</v>
+        <v>46033.791191562501</v>
       </c>
       <c r="B98" t="s">
         <v>79</v>
@@ -5335,27 +5326,24 @@
         <v>41</v>
       </c>
       <c r="F98" s="6">
-        <v>31000</v>
-      </c>
-      <c r="G98" s="4">
+        <v>30000</v>
+      </c>
+      <c r="G98">
         <v>105</v>
       </c>
-      <c r="H98" s="4">
-        <v>295.23809523809501</v>
+      <c r="H98">
+        <v>285.71428571428498</v>
       </c>
       <c r="I98" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="J98" t="s">
         <v>27</v>
       </c>
-      <c r="K98" s="4">
-        <v>388.71428571428498</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>46026.861369305552</v>
+        <v>46033.792069953714</v>
       </c>
       <c r="B99" t="s">
         <v>79</v>
@@ -5367,30 +5355,27 @@
         <v>81</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="F99" s="6">
-        <v>27500</v>
-      </c>
-      <c r="G99" s="4">
-        <v>100</v>
-      </c>
-      <c r="H99" s="4">
-        <v>275</v>
+        <v>20000</v>
+      </c>
+      <c r="G99">
+        <v>95</v>
+      </c>
+      <c r="H99">
+        <v>210.52631578947299</v>
       </c>
       <c r="I99" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="J99" t="s">
         <v>27</v>
       </c>
-      <c r="K99" s="4">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>46026.860507465281</v>
+        <v>46033.79291113426</v>
       </c>
       <c r="B100" t="s">
         <v>79</v>
@@ -5402,30 +5387,27 @@
         <v>81</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F100" s="6">
-        <v>85000</v>
-      </c>
-      <c r="G100" s="4">
-        <v>100</v>
-      </c>
-      <c r="H100" s="4">
-        <v>850</v>
+        <v>24000</v>
+      </c>
+      <c r="G100">
+        <v>95</v>
+      </c>
+      <c r="H100">
+        <v>252.63157894736801</v>
       </c>
       <c r="I100" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="J100" t="s">
         <v>27</v>
       </c>
-      <c r="K100" s="4">
-        <v>266.15789473684202</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>46026.859920370371</v>
+        <v>46033.793607928237</v>
       </c>
       <c r="B101" t="s">
         <v>79</v>
@@ -5437,30 +5419,45 @@
         <v>81</v>
       </c>
       <c r="E101" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="F101" s="6">
-        <v>50500</v>
-      </c>
-      <c r="G101" s="4">
-        <v>100</v>
-      </c>
-      <c r="H101" s="4">
-        <v>505</v>
+        <v>23000</v>
+      </c>
+      <c r="G101">
+        <v>95</v>
+      </c>
+      <c r="H101">
+        <v>242.105263157894</v>
       </c>
       <c r="I101" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="J101" t="s">
         <v>27</v>
       </c>
-      <c r="K101" s="4">
-        <v>1061.8235294117601</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N101">
+        <v>737820624</v>
+      </c>
+      <c r="O101" t="s">
+        <v>152</v>
+      </c>
+      <c r="P101" s="3">
+        <v>46026.820486111108</v>
+      </c>
+      <c r="S101" t="s">
+        <v>30</v>
+      </c>
+      <c r="U101" t="s">
+        <v>31</v>
+      </c>
+      <c r="W101">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>46026.859183993052</v>
+        <v>46033.79415559028</v>
       </c>
       <c r="B102" t="s">
         <v>79</v>
@@ -5472,30 +5469,45 @@
         <v>81</v>
       </c>
       <c r="E102" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="F102" s="6">
-        <v>50500</v>
-      </c>
-      <c r="G102" s="4">
-        <v>100</v>
-      </c>
-      <c r="H102" s="4">
-        <v>505</v>
+        <v>90000</v>
+      </c>
+      <c r="G102">
+        <v>115</v>
+      </c>
+      <c r="H102">
+        <v>782.60869565217297</v>
       </c>
       <c r="I102" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="J102" t="s">
         <v>27</v>
       </c>
-      <c r="K102" s="4">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N102">
+        <v>737820567</v>
+      </c>
+      <c r="O102" t="s">
+        <v>151</v>
+      </c>
+      <c r="P102" s="3">
+        <v>46026.819733796299</v>
+      </c>
+      <c r="S102" t="s">
+        <v>30</v>
+      </c>
+      <c r="U102" t="s">
+        <v>31</v>
+      </c>
+      <c r="W102">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>46034.768923356482</v>
+        <v>46034.758549687504</v>
       </c>
       <c r="B103" t="s">
         <v>112</v>
@@ -5507,16 +5519,16 @@
         <v>114</v>
       </c>
       <c r="E103" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F103" s="6">
-        <v>56000</v>
+        <v>35000</v>
       </c>
       <c r="G103">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="H103">
-        <v>486.95652173912998</v>
+        <v>368.42105263157799</v>
       </c>
       <c r="I103" t="s">
         <v>116</v>
@@ -5525,12 +5537,12 @@
         <v>27</v>
       </c>
       <c r="K103">
-        <v>489.95652173912998</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>371.42105263157799</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>46034.760524872683</v>
+        <v>46034.759268425929</v>
       </c>
       <c r="B104" t="s">
         <v>112</v>
@@ -5542,16 +5554,16 @@
         <v>114</v>
       </c>
       <c r="E104" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="F104" s="6">
-        <v>62000</v>
+        <v>61000</v>
       </c>
       <c r="G104">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H104">
-        <v>601.94174757281496</v>
+        <v>580.95238095238096</v>
       </c>
       <c r="I104" t="s">
         <v>116</v>
@@ -5560,10 +5572,10 @@
         <v>27</v>
       </c>
       <c r="K104">
-        <v>604.94174757281496</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>583.95238095238096</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>46034.759880821759</v>
       </c>
@@ -5598,9 +5610,9 @@
         <v>555.38095238095195</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>46034.759268425929</v>
+        <v>46034.760524872683</v>
       </c>
       <c r="B106" t="s">
         <v>112</v>
@@ -5612,16 +5624,16 @@
         <v>114</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="F106" s="6">
-        <v>61000</v>
+        <v>62000</v>
       </c>
       <c r="G106">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H106">
-        <v>580.95238095238096</v>
+        <v>601.94174757281496</v>
       </c>
       <c r="I106" t="s">
         <v>116</v>
@@ -5630,12 +5642,12 @@
         <v>27</v>
       </c>
       <c r="K106">
-        <v>583.95238095238096</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>604.94174757281496</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>46034.758549687504</v>
+        <v>46034.768923356482</v>
       </c>
       <c r="B107" t="s">
         <v>112</v>
@@ -5647,16 +5659,16 @@
         <v>114</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F107" s="6">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="G107">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H107">
-        <v>368.42105263157799</v>
+        <v>486.95652173912998</v>
       </c>
       <c r="I107" t="s">
         <v>116</v>
@@ -5665,12 +5677,12 @@
         <v>27</v>
       </c>
       <c r="K107">
-        <v>371.42105263157799</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>489.95652173912998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>46037.767790034719</v>
+        <v>46037.762724340268</v>
       </c>
       <c r="B108" t="s">
         <v>21</v>
@@ -5682,16 +5694,16 @@
         <v>23</v>
       </c>
       <c r="E108" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F108" s="6">
-        <v>52000</v>
+        <v>51000</v>
       </c>
       <c r="G108">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H108">
-        <v>520</v>
+        <v>637.5</v>
       </c>
       <c r="I108" t="s">
         <v>123</v>
@@ -5700,12 +5712,12 @@
         <v>27</v>
       </c>
       <c r="K108">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <v>640.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>46037.766945196759</v>
+        <v>46037.763536516213</v>
       </c>
       <c r="B109" t="s">
         <v>21</v>
@@ -5717,30 +5729,30 @@
         <v>23</v>
       </c>
       <c r="E109" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F109" s="6">
-        <v>22000</v>
+        <v>90000</v>
       </c>
       <c r="G109">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H109">
-        <v>220</v>
+        <v>1058.8235294117601</v>
       </c>
       <c r="I109" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J109" t="s">
         <v>27</v>
       </c>
       <c r="K109">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1061.8235294117601</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>46037.766236400457</v>
+        <v>46037.764401180553</v>
       </c>
       <c r="B110" t="s">
         <v>21</v>
@@ -5752,16 +5764,16 @@
         <v>23</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F110" s="6">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="G110">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="H110">
-        <v>385.71428571428498</v>
+        <v>231.57894736842101</v>
       </c>
       <c r="I110" t="s">
         <v>123</v>
@@ -5770,10 +5782,10 @@
         <v>27</v>
       </c>
       <c r="K110">
-        <v>388.71428571428498</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>234.57894736842101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>46037.765261099543</v>
       </c>
@@ -5808,9 +5820,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
-        <v>46037.764401180553</v>
+        <v>46037.766236400457</v>
       </c>
       <c r="B112" t="s">
         <v>21</v>
@@ -5822,16 +5834,16 @@
         <v>23</v>
       </c>
       <c r="E112" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F112" s="6">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="G112">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H112">
-        <v>231.57894736842101</v>
+        <v>385.71428571428498</v>
       </c>
       <c r="I112" t="s">
         <v>123</v>
@@ -5840,12 +5852,12 @@
         <v>27</v>
       </c>
       <c r="K112">
-        <v>234.57894736842101</v>
+        <v>388.71428571428498</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>46037.763536516213</v>
+        <v>46037.766945196759</v>
       </c>
       <c r="B113" t="s">
         <v>21</v>
@@ -5857,30 +5869,30 @@
         <v>23</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F113" s="6">
-        <v>90000</v>
+        <v>22000</v>
       </c>
       <c r="G113">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H113">
-        <v>1058.8235294117601</v>
+        <v>220</v>
       </c>
       <c r="I113" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J113" t="s">
         <v>27</v>
       </c>
       <c r="K113">
-        <v>1061.8235294117601</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>46037.762724340268</v>
+        <v>46037.767790034719</v>
       </c>
       <c r="B114" t="s">
         <v>21</v>
@@ -5892,16 +5904,16 @@
         <v>23</v>
       </c>
       <c r="E114" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F114" s="6">
-        <v>51000</v>
+        <v>52000</v>
       </c>
       <c r="G114">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H114">
-        <v>637.5</v>
+        <v>520</v>
       </c>
       <c r="I114" t="s">
         <v>123</v>
@@ -5910,7 +5922,7 @@
         <v>27</v>
       </c>
       <c r="K114">
-        <v>640.5</v>
+        <v>523</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
@@ -6751,6 +6763,1056 @@
       </c>
       <c r="K138">
         <v>237.69387755101999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>46041.41498115741</v>
+      </c>
+      <c r="B139" t="s">
+        <v>166</v>
+      </c>
+      <c r="C139" t="s">
+        <v>167</v>
+      </c>
+      <c r="D139" t="s">
+        <v>168</v>
+      </c>
+      <c r="E139" t="s">
+        <v>115</v>
+      </c>
+      <c r="F139">
+        <v>47000</v>
+      </c>
+      <c r="G139">
+        <v>75</v>
+      </c>
+      <c r="H139">
+        <v>626.66666666666595</v>
+      </c>
+      <c r="I139" t="s">
+        <v>123</v>
+      </c>
+      <c r="J139" t="s">
+        <v>169</v>
+      </c>
+      <c r="K139">
+        <v>629.66666666666595</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>46041.416057337963</v>
+      </c>
+      <c r="B140" t="s">
+        <v>166</v>
+      </c>
+      <c r="C140" t="s">
+        <v>167</v>
+      </c>
+      <c r="D140" t="s">
+        <v>168</v>
+      </c>
+      <c r="E140" t="s">
+        <v>43</v>
+      </c>
+      <c r="F140">
+        <v>35000</v>
+      </c>
+      <c r="G140">
+        <v>85</v>
+      </c>
+      <c r="H140">
+        <v>411.76470588235202</v>
+      </c>
+      <c r="I140" t="s">
+        <v>123</v>
+      </c>
+      <c r="J140" t="s">
+        <v>169</v>
+      </c>
+      <c r="K140">
+        <v>414.76470588235202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
+        <v>46041.417152754628</v>
+      </c>
+      <c r="B141" t="s">
+        <v>166</v>
+      </c>
+      <c r="C141" t="s">
+        <v>167</v>
+      </c>
+      <c r="D141" t="s">
+        <v>168</v>
+      </c>
+      <c r="E141" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141">
+        <v>45000</v>
+      </c>
+      <c r="G141">
+        <v>85</v>
+      </c>
+      <c r="H141">
+        <v>529.41176470588198</v>
+      </c>
+      <c r="I141" t="s">
+        <v>123</v>
+      </c>
+      <c r="J141" t="s">
+        <v>169</v>
+      </c>
+      <c r="K141">
+        <v>532.41176470588198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>46041.417694687501</v>
+      </c>
+      <c r="B142" t="s">
+        <v>166</v>
+      </c>
+      <c r="C142" t="s">
+        <v>167</v>
+      </c>
+      <c r="D142" t="s">
+        <v>168</v>
+      </c>
+      <c r="E142" t="s">
+        <v>82</v>
+      </c>
+      <c r="F142">
+        <v>47000</v>
+      </c>
+      <c r="G142">
+        <v>85</v>
+      </c>
+      <c r="H142">
+        <v>552.94117647058795</v>
+      </c>
+      <c r="I142" t="s">
+        <v>123</v>
+      </c>
+      <c r="J142" t="s">
+        <v>169</v>
+      </c>
+      <c r="K142">
+        <v>555.94117647058795</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>46041.418628715277</v>
+      </c>
+      <c r="B143" t="s">
+        <v>166</v>
+      </c>
+      <c r="C143" t="s">
+        <v>167</v>
+      </c>
+      <c r="D143" t="s">
+        <v>168</v>
+      </c>
+      <c r="E143" t="s">
+        <v>37</v>
+      </c>
+      <c r="F143">
+        <v>26000</v>
+      </c>
+      <c r="G143">
+        <v>115</v>
+      </c>
+      <c r="H143">
+        <v>226.08695652173901</v>
+      </c>
+      <c r="I143" t="s">
+        <v>123</v>
+      </c>
+      <c r="J143" t="s">
+        <v>169</v>
+      </c>
+      <c r="K143">
+        <v>229.08695652173901</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>46041.419179780103</v>
+      </c>
+      <c r="B144" t="s">
+        <v>166</v>
+      </c>
+      <c r="C144" t="s">
+        <v>167</v>
+      </c>
+      <c r="D144" t="s">
+        <v>168</v>
+      </c>
+      <c r="E144" t="s">
+        <v>49</v>
+      </c>
+      <c r="F144">
+        <v>70000</v>
+      </c>
+      <c r="G144">
+        <v>140</v>
+      </c>
+      <c r="H144">
+        <v>500</v>
+      </c>
+      <c r="I144" t="s">
+        <v>123</v>
+      </c>
+      <c r="J144" t="s">
+        <v>169</v>
+      </c>
+      <c r="K144">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>46041.624696817133</v>
+      </c>
+      <c r="B145" t="s">
+        <v>112</v>
+      </c>
+      <c r="C145" t="s">
+        <v>113</v>
+      </c>
+      <c r="D145" t="s">
+        <v>114</v>
+      </c>
+      <c r="E145" t="s">
+        <v>63</v>
+      </c>
+      <c r="F145">
+        <v>20000</v>
+      </c>
+      <c r="G145">
+        <v>100</v>
+      </c>
+      <c r="H145">
+        <v>200</v>
+      </c>
+      <c r="I145" t="s">
+        <v>116</v>
+      </c>
+      <c r="J145" t="s">
+        <v>27</v>
+      </c>
+      <c r="K145">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>46041.625225868047</v>
+      </c>
+      <c r="B146" t="s">
+        <v>112</v>
+      </c>
+      <c r="C146" t="s">
+        <v>113</v>
+      </c>
+      <c r="D146" t="s">
+        <v>114</v>
+      </c>
+      <c r="E146" t="s">
+        <v>43</v>
+      </c>
+      <c r="F146">
+        <v>38000</v>
+      </c>
+      <c r="G146">
+        <v>95</v>
+      </c>
+      <c r="H146">
+        <v>400</v>
+      </c>
+      <c r="I146" t="s">
+        <v>116</v>
+      </c>
+      <c r="J146" t="s">
+        <v>27</v>
+      </c>
+      <c r="K146">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <v>46041.625920335653</v>
+      </c>
+      <c r="B147" t="s">
+        <v>112</v>
+      </c>
+      <c r="C147" t="s">
+        <v>113</v>
+      </c>
+      <c r="D147" t="s">
+        <v>114</v>
+      </c>
+      <c r="E147" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147">
+        <v>63000</v>
+      </c>
+      <c r="G147">
+        <v>105</v>
+      </c>
+      <c r="H147">
+        <v>600</v>
+      </c>
+      <c r="I147" t="s">
+        <v>116</v>
+      </c>
+      <c r="J147" t="s">
+        <v>27</v>
+      </c>
+      <c r="K147">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>46041.62655173611</v>
+      </c>
+      <c r="B148" t="s">
+        <v>112</v>
+      </c>
+      <c r="C148" t="s">
+        <v>113</v>
+      </c>
+      <c r="D148" t="s">
+        <v>114</v>
+      </c>
+      <c r="E148" t="s">
+        <v>82</v>
+      </c>
+      <c r="F148">
+        <v>59000</v>
+      </c>
+      <c r="G148">
+        <v>105</v>
+      </c>
+      <c r="H148">
+        <v>561.90476190476102</v>
+      </c>
+      <c r="I148" t="s">
+        <v>116</v>
+      </c>
+      <c r="J148" t="s">
+        <v>27</v>
+      </c>
+      <c r="K148">
+        <v>564.90476190476102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>46041.627400891201</v>
+      </c>
+      <c r="B149" t="s">
+        <v>112</v>
+      </c>
+      <c r="C149" t="s">
+        <v>113</v>
+      </c>
+      <c r="D149" t="s">
+        <v>114</v>
+      </c>
+      <c r="E149" t="s">
+        <v>115</v>
+      </c>
+      <c r="F149">
+        <v>65000</v>
+      </c>
+      <c r="G149">
+        <v>103</v>
+      </c>
+      <c r="H149">
+        <v>631.06796116504802</v>
+      </c>
+      <c r="I149" t="s">
+        <v>116</v>
+      </c>
+      <c r="J149" t="s">
+        <v>27</v>
+      </c>
+      <c r="K149">
+        <v>634.06796116504802</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>46041.627988495369</v>
+      </c>
+      <c r="B150" t="s">
+        <v>112</v>
+      </c>
+      <c r="C150" t="s">
+        <v>113</v>
+      </c>
+      <c r="D150" t="s">
+        <v>114</v>
+      </c>
+      <c r="E150" t="s">
+        <v>49</v>
+      </c>
+      <c r="F150">
+        <v>60000</v>
+      </c>
+      <c r="G150">
+        <v>115</v>
+      </c>
+      <c r="H150">
+        <v>521.73913043478206</v>
+      </c>
+      <c r="I150" t="s">
+        <v>116</v>
+      </c>
+      <c r="J150" t="s">
+        <v>27</v>
+      </c>
+      <c r="K150">
+        <v>524.73913043478206</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>46041.733182118063</v>
+      </c>
+      <c r="B151" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" t="s">
+        <v>158</v>
+      </c>
+      <c r="D151" t="s">
+        <v>165</v>
+      </c>
+      <c r="E151" t="s">
+        <v>63</v>
+      </c>
+      <c r="F151">
+        <v>22500</v>
+      </c>
+      <c r="G151">
+        <v>235</v>
+      </c>
+      <c r="H151">
+        <v>95.744680851063805</v>
+      </c>
+      <c r="I151" t="s">
+        <v>116</v>
+      </c>
+      <c r="J151" t="s">
+        <v>27</v>
+      </c>
+      <c r="K151">
+        <v>98.744680851063805</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>46041.737899120373</v>
+      </c>
+      <c r="B152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" t="s">
+        <v>158</v>
+      </c>
+      <c r="D152" t="s">
+        <v>165</v>
+      </c>
+      <c r="E152" t="s">
+        <v>49</v>
+      </c>
+      <c r="F152">
+        <v>51000</v>
+      </c>
+      <c r="G152">
+        <v>530</v>
+      </c>
+      <c r="H152">
+        <v>96.2264150943396</v>
+      </c>
+      <c r="I152" t="s">
+        <v>123</v>
+      </c>
+      <c r="J152" t="s">
+        <v>27</v>
+      </c>
+      <c r="K152">
+        <v>99.2264150943396</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>46042.486555821757</v>
+      </c>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" t="s">
+        <v>158</v>
+      </c>
+      <c r="D153" t="s">
+        <v>165</v>
+      </c>
+      <c r="E153" t="s">
+        <v>49</v>
+      </c>
+      <c r="F153">
+        <v>50000</v>
+      </c>
+      <c r="G153">
+        <v>500</v>
+      </c>
+      <c r="H153">
+        <v>100</v>
+      </c>
+      <c r="I153" t="s">
+        <v>123</v>
+      </c>
+      <c r="J153" t="s">
+        <v>27</v>
+      </c>
+      <c r="K153">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>46042.487216504633</v>
+      </c>
+      <c r="B154" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" t="s">
+        <v>158</v>
+      </c>
+      <c r="D154" t="s">
+        <v>165</v>
+      </c>
+      <c r="E154" t="s">
+        <v>43</v>
+      </c>
+      <c r="F154">
+        <v>30000</v>
+      </c>
+      <c r="G154">
+        <v>335</v>
+      </c>
+      <c r="H154">
+        <v>89.552238805970106</v>
+      </c>
+      <c r="I154" t="s">
+        <v>123</v>
+      </c>
+      <c r="J154" t="s">
+        <v>27</v>
+      </c>
+      <c r="K154">
+        <v>92.552238805970106</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>46044.611597071758</v>
+      </c>
+      <c r="B155" t="s">
+        <v>112</v>
+      </c>
+      <c r="C155" t="s">
+        <v>113</v>
+      </c>
+      <c r="D155" t="s">
+        <v>114</v>
+      </c>
+      <c r="E155" t="s">
+        <v>63</v>
+      </c>
+      <c r="F155">
+        <v>19000</v>
+      </c>
+      <c r="G155">
+        <v>100</v>
+      </c>
+      <c r="H155">
+        <v>190</v>
+      </c>
+      <c r="I155" t="s">
+        <v>116</v>
+      </c>
+      <c r="J155" t="s">
+        <v>27</v>
+      </c>
+      <c r="K155">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>46044.612087349538</v>
+      </c>
+      <c r="B156" t="s">
+        <v>112</v>
+      </c>
+      <c r="C156" t="s">
+        <v>113</v>
+      </c>
+      <c r="D156" t="s">
+        <v>114</v>
+      </c>
+      <c r="E156" t="s">
+        <v>43</v>
+      </c>
+      <c r="F156">
+        <v>37000</v>
+      </c>
+      <c r="G156">
+        <v>95</v>
+      </c>
+      <c r="H156">
+        <v>389.47368421052602</v>
+      </c>
+      <c r="I156" t="s">
+        <v>116</v>
+      </c>
+      <c r="J156" t="s">
+        <v>27</v>
+      </c>
+      <c r="K156">
+        <v>392.47368421052602</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>46044.61308520833</v>
+      </c>
+      <c r="B157" t="s">
+        <v>112</v>
+      </c>
+      <c r="C157" t="s">
+        <v>113</v>
+      </c>
+      <c r="D157" t="s">
+        <v>114</v>
+      </c>
+      <c r="E157" t="s">
+        <v>24</v>
+      </c>
+      <c r="F157">
+        <v>65000</v>
+      </c>
+      <c r="G157">
+        <v>105</v>
+      </c>
+      <c r="H157">
+        <v>619.04761904761904</v>
+      </c>
+      <c r="I157" t="s">
+        <v>116</v>
+      </c>
+      <c r="J157" t="s">
+        <v>27</v>
+      </c>
+      <c r="K157">
+        <v>622.04761904761904</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>46044.613647106482</v>
+      </c>
+      <c r="B158" t="s">
+        <v>112</v>
+      </c>
+      <c r="C158" t="s">
+        <v>113</v>
+      </c>
+      <c r="D158" t="s">
+        <v>114</v>
+      </c>
+      <c r="E158" t="s">
+        <v>82</v>
+      </c>
+      <c r="F158">
+        <v>61000</v>
+      </c>
+      <c r="G158">
+        <v>105</v>
+      </c>
+      <c r="H158">
+        <v>580.95238095238096</v>
+      </c>
+      <c r="I158" t="s">
+        <v>116</v>
+      </c>
+      <c r="J158" t="s">
+        <v>27</v>
+      </c>
+      <c r="K158">
+        <v>583.95238095238096</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>46044.614156412033</v>
+      </c>
+      <c r="B159" t="s">
+        <v>112</v>
+      </c>
+      <c r="C159" t="s">
+        <v>113</v>
+      </c>
+      <c r="D159" t="s">
+        <v>114</v>
+      </c>
+      <c r="E159" t="s">
+        <v>115</v>
+      </c>
+      <c r="F159">
+        <v>65000</v>
+      </c>
+      <c r="G159">
+        <v>103</v>
+      </c>
+      <c r="H159">
+        <v>631.06796116504802</v>
+      </c>
+      <c r="I159" t="s">
+        <v>116</v>
+      </c>
+      <c r="J159" t="s">
+        <v>27</v>
+      </c>
+      <c r="K159">
+        <v>634.06796116504802</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>46044.614772407411</v>
+      </c>
+      <c r="B160" t="s">
+        <v>112</v>
+      </c>
+      <c r="C160" t="s">
+        <v>113</v>
+      </c>
+      <c r="D160" t="s">
+        <v>114</v>
+      </c>
+      <c r="E160" t="s">
+        <v>49</v>
+      </c>
+      <c r="F160">
+        <v>66000</v>
+      </c>
+      <c r="G160">
+        <v>115</v>
+      </c>
+      <c r="H160">
+        <v>573.91304347825997</v>
+      </c>
+      <c r="I160" t="s">
+        <v>116</v>
+      </c>
+      <c r="J160" t="s">
+        <v>27</v>
+      </c>
+      <c r="K160">
+        <v>576.91304347825997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>46044.802396180552</v>
+      </c>
+      <c r="B161" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161" t="s">
+        <v>23</v>
+      </c>
+      <c r="E161" t="s">
+        <v>24</v>
+      </c>
+      <c r="F161">
+        <v>45000</v>
+      </c>
+      <c r="G161">
+        <v>80</v>
+      </c>
+      <c r="H161">
+        <v>562.5</v>
+      </c>
+      <c r="I161" t="s">
+        <v>123</v>
+      </c>
+      <c r="J161" t="s">
+        <v>27</v>
+      </c>
+      <c r="K161">
+        <v>565.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>46044.803476307869</v>
+      </c>
+      <c r="B162" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162" t="s">
+        <v>32</v>
+      </c>
+      <c r="F162">
+        <v>90000</v>
+      </c>
+      <c r="G162">
+        <v>85</v>
+      </c>
+      <c r="H162">
+        <v>1058.8235294117601</v>
+      </c>
+      <c r="I162" t="s">
+        <v>123</v>
+      </c>
+      <c r="J162" t="s">
+        <v>27</v>
+      </c>
+      <c r="K162">
+        <v>1061.8235294117601</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>46044.804757442129</v>
+      </c>
+      <c r="B163" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163" t="s">
+        <v>23</v>
+      </c>
+      <c r="E163" t="s">
+        <v>63</v>
+      </c>
+      <c r="F163">
+        <v>22000</v>
+      </c>
+      <c r="G163">
+        <v>95</v>
+      </c>
+      <c r="H163">
+        <v>231.57894736842101</v>
+      </c>
+      <c r="I163" t="s">
+        <v>123</v>
+      </c>
+      <c r="J163" t="s">
+        <v>27</v>
+      </c>
+      <c r="K163">
+        <v>234.57894736842101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>46044.80601197917</v>
+      </c>
+      <c r="B164" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" t="s">
+        <v>41</v>
+      </c>
+      <c r="F164">
+        <v>27000</v>
+      </c>
+      <c r="G164">
+        <v>100</v>
+      </c>
+      <c r="H164">
+        <v>270</v>
+      </c>
+      <c r="I164" t="s">
+        <v>123</v>
+      </c>
+      <c r="J164" t="s">
+        <v>27</v>
+      </c>
+      <c r="K164">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <v>46044.807247210651</v>
+      </c>
+      <c r="B165" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165" t="s">
+        <v>43</v>
+      </c>
+      <c r="F165">
+        <v>28000</v>
+      </c>
+      <c r="G165">
+        <v>70</v>
+      </c>
+      <c r="H165">
+        <v>400</v>
+      </c>
+      <c r="I165" t="s">
+        <v>123</v>
+      </c>
+      <c r="J165" t="s">
+        <v>27</v>
+      </c>
+      <c r="K165">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>46044.809001145833</v>
+      </c>
+      <c r="B166" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D166" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" t="s">
+        <v>47</v>
+      </c>
+      <c r="F166">
+        <v>25000</v>
+      </c>
+      <c r="G166">
+        <v>100</v>
+      </c>
+      <c r="H166">
+        <v>250</v>
+      </c>
+      <c r="I166" t="s">
+        <v>126</v>
+      </c>
+      <c r="J166" t="s">
+        <v>27</v>
+      </c>
+      <c r="K166">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>46044.809755046299</v>
+      </c>
+      <c r="B167" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167" t="s">
+        <v>23</v>
+      </c>
+      <c r="E167" t="s">
+        <v>159</v>
+      </c>
+      <c r="F167">
+        <v>25000</v>
+      </c>
+      <c r="G167">
+        <v>100</v>
+      </c>
+      <c r="H167">
+        <v>250</v>
+      </c>
+      <c r="I167" t="s">
+        <v>126</v>
+      </c>
+      <c r="J167" t="s">
+        <v>27</v>
+      </c>
+      <c r="K167">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>46044.812468425916</v>
+      </c>
+      <c r="B168" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" t="s">
+        <v>22</v>
+      </c>
+      <c r="D168" t="s">
+        <v>23</v>
+      </c>
+      <c r="E168" t="s">
+        <v>49</v>
+      </c>
+      <c r="F168">
+        <v>60000</v>
+      </c>
+      <c r="G168">
+        <v>100</v>
+      </c>
+      <c r="H168">
+        <v>600</v>
+      </c>
+      <c r="I168" t="s">
+        <v>123</v>
+      </c>
+      <c r="J168" t="s">
+        <v>27</v>
+      </c>
+      <c r="K168">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -6760,8 +7822,8 @@
         <dateGroupItem year="2026" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:W102">
-      <sortCondition descending="1" ref="A1:A73"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:W168">
+      <sortCondition ref="A1:A102"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Predictive Analysis Commodity pricing.xlsx
+++ b/Predictive Analysis Commodity pricing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rowland\Desktop\Agriarche\commodity-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D849E1BC-47C2-471F-8828-6043037AE7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C611F10B-AE9B-47EC-B7D8-81DD1E814B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F09D21BD-9259-4A67-8D0A-62113798C6EA}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="171">
   <si>
     <t>Agent Code</t>
   </si>
@@ -550,6 +550,9 @@
   </si>
   <si>
     <t>old</t>
+  </si>
+  <si>
+    <t>Kaduna</t>
   </si>
 </sst>
 </file>
@@ -929,11 +932,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A965C-A024-4543-8FC7-F4F80100D5B5}">
   <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:W168"/>
+  <dimension ref="A1:W185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="26" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
+      <pane ySplit="26" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7815,6 +7818,601 @@
         <v>603</v>
       </c>
     </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>46047.967883263889</v>
+      </c>
+      <c r="B169" t="s">
+        <v>79</v>
+      </c>
+      <c r="C169" t="s">
+        <v>80</v>
+      </c>
+      <c r="D169" t="s">
+        <v>81</v>
+      </c>
+      <c r="E169" t="s">
+        <v>103</v>
+      </c>
+      <c r="F169">
+        <v>21000</v>
+      </c>
+      <c r="G169">
+        <v>95</v>
+      </c>
+      <c r="H169">
+        <v>221.052631578947</v>
+      </c>
+      <c r="I169" t="s">
+        <v>116</v>
+      </c>
+      <c r="J169" t="s">
+        <v>27</v>
+      </c>
+      <c r="K169">
+        <v>224.052631578947</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>46047.966717152784</v>
+      </c>
+      <c r="B170" t="s">
+        <v>79</v>
+      </c>
+      <c r="C170" t="s">
+        <v>80</v>
+      </c>
+      <c r="D170" t="s">
+        <v>81</v>
+      </c>
+      <c r="E170" t="s">
+        <v>150</v>
+      </c>
+      <c r="F170">
+        <v>92000</v>
+      </c>
+      <c r="G170">
+        <v>115</v>
+      </c>
+      <c r="H170">
+        <v>800</v>
+      </c>
+      <c r="I170" t="s">
+        <v>116</v>
+      </c>
+      <c r="J170" t="s">
+        <v>27</v>
+      </c>
+      <c r="K170">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>46047.964625636567</v>
+      </c>
+      <c r="B171" t="s">
+        <v>79</v>
+      </c>
+      <c r="C171" t="s">
+        <v>80</v>
+      </c>
+      <c r="D171" t="s">
+        <v>81</v>
+      </c>
+      <c r="E171" t="s">
+        <v>41</v>
+      </c>
+      <c r="F171">
+        <v>31000</v>
+      </c>
+      <c r="G171">
+        <v>105</v>
+      </c>
+      <c r="H171">
+        <v>295.23809523809501</v>
+      </c>
+      <c r="I171" t="s">
+        <v>116</v>
+      </c>
+      <c r="J171" t="s">
+        <v>27</v>
+      </c>
+      <c r="K171">
+        <v>298.23809523809501</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>46047.959404143519</v>
+      </c>
+      <c r="B172" t="s">
+        <v>79</v>
+      </c>
+      <c r="C172" t="s">
+        <v>80</v>
+      </c>
+      <c r="D172" t="s">
+        <v>81</v>
+      </c>
+      <c r="E172" t="s">
+        <v>37</v>
+      </c>
+      <c r="F172">
+        <v>28000</v>
+      </c>
+      <c r="G172">
+        <v>100</v>
+      </c>
+      <c r="H172">
+        <v>280</v>
+      </c>
+      <c r="I172" t="s">
+        <v>116</v>
+      </c>
+      <c r="J172" t="s">
+        <v>27</v>
+      </c>
+      <c r="K172">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <v>46047.958485613417</v>
+      </c>
+      <c r="B173" t="s">
+        <v>79</v>
+      </c>
+      <c r="C173" t="s">
+        <v>80</v>
+      </c>
+      <c r="D173" t="s">
+        <v>81</v>
+      </c>
+      <c r="E173" t="s">
+        <v>32</v>
+      </c>
+      <c r="F173">
+        <v>110000</v>
+      </c>
+      <c r="G173">
+        <v>98</v>
+      </c>
+      <c r="H173">
+        <v>1122.44897959183</v>
+      </c>
+      <c r="I173" t="s">
+        <v>116</v>
+      </c>
+      <c r="J173" t="s">
+        <v>27</v>
+      </c>
+      <c r="K173">
+        <v>1125.44897959183</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>46047.958044108796</v>
+      </c>
+      <c r="B174" t="s">
+        <v>79</v>
+      </c>
+      <c r="C174" t="s">
+        <v>80</v>
+      </c>
+      <c r="D174" t="s">
+        <v>81</v>
+      </c>
+      <c r="E174" t="s">
+        <v>24</v>
+      </c>
+      <c r="F174">
+        <v>50000</v>
+      </c>
+      <c r="G174">
+        <v>100</v>
+      </c>
+      <c r="H174">
+        <v>500</v>
+      </c>
+      <c r="I174" t="s">
+        <v>116</v>
+      </c>
+      <c r="J174" t="s">
+        <v>27</v>
+      </c>
+      <c r="K174">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <v>46046.726836967588</v>
+      </c>
+      <c r="B175" t="s">
+        <v>21</v>
+      </c>
+      <c r="C175" t="s">
+        <v>22</v>
+      </c>
+      <c r="D175" t="s">
+        <v>53</v>
+      </c>
+      <c r="E175" t="s">
+        <v>49</v>
+      </c>
+      <c r="F175">
+        <v>58000</v>
+      </c>
+      <c r="G175">
+        <v>96</v>
+      </c>
+      <c r="H175">
+        <v>604.16666666666595</v>
+      </c>
+      <c r="I175" t="s">
+        <v>123</v>
+      </c>
+      <c r="J175" t="s">
+        <v>27</v>
+      </c>
+      <c r="K175">
+        <v>607.16666666666595</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>46046.725977430557</v>
+      </c>
+      <c r="B176" t="s">
+        <v>21</v>
+      </c>
+      <c r="C176" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176" t="s">
+        <v>53</v>
+      </c>
+      <c r="E176" t="s">
+        <v>47</v>
+      </c>
+      <c r="F176">
+        <v>28000</v>
+      </c>
+      <c r="G176">
+        <v>100</v>
+      </c>
+      <c r="H176">
+        <v>280</v>
+      </c>
+      <c r="I176" t="s">
+        <v>126</v>
+      </c>
+      <c r="J176" t="s">
+        <v>27</v>
+      </c>
+      <c r="K176">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>46046.724639745371</v>
+      </c>
+      <c r="B177" t="s">
+        <v>21</v>
+      </c>
+      <c r="C177" t="s">
+        <v>22</v>
+      </c>
+      <c r="D177" t="s">
+        <v>53</v>
+      </c>
+      <c r="E177" t="s">
+        <v>43</v>
+      </c>
+      <c r="F177">
+        <v>27000</v>
+      </c>
+      <c r="G177">
+        <v>70</v>
+      </c>
+      <c r="H177">
+        <v>385.71428571428498</v>
+      </c>
+      <c r="I177" t="s">
+        <v>123</v>
+      </c>
+      <c r="J177" t="s">
+        <v>27</v>
+      </c>
+      <c r="K177">
+        <v>388.71428571428498</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>46046.723781666667</v>
+      </c>
+      <c r="B178" t="s">
+        <v>21</v>
+      </c>
+      <c r="C178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D178" t="s">
+        <v>53</v>
+      </c>
+      <c r="E178" t="s">
+        <v>41</v>
+      </c>
+      <c r="F178">
+        <v>29000</v>
+      </c>
+      <c r="G178">
+        <v>100</v>
+      </c>
+      <c r="H178">
+        <v>290</v>
+      </c>
+      <c r="I178" t="s">
+        <v>126</v>
+      </c>
+      <c r="J178" t="s">
+        <v>27</v>
+      </c>
+      <c r="K178">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>46046.722928634263</v>
+      </c>
+      <c r="B179" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" t="s">
+        <v>22</v>
+      </c>
+      <c r="D179" t="s">
+        <v>53</v>
+      </c>
+      <c r="E179" t="s">
+        <v>63</v>
+      </c>
+      <c r="F179">
+        <v>22000</v>
+      </c>
+      <c r="G179">
+        <v>95</v>
+      </c>
+      <c r="H179">
+        <v>231.57894736842101</v>
+      </c>
+      <c r="I179" t="s">
+        <v>123</v>
+      </c>
+      <c r="J179" t="s">
+        <v>27</v>
+      </c>
+      <c r="K179">
+        <v>234.57894736842101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>46046.722074988429</v>
+      </c>
+      <c r="B180" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180" t="s">
+        <v>22</v>
+      </c>
+      <c r="D180" t="s">
+        <v>53</v>
+      </c>
+      <c r="E180" t="s">
+        <v>59</v>
+      </c>
+      <c r="F180">
+        <v>90000</v>
+      </c>
+      <c r="G180">
+        <v>85</v>
+      </c>
+      <c r="H180">
+        <v>1058.8235294117601</v>
+      </c>
+      <c r="I180" t="s">
+        <v>126</v>
+      </c>
+      <c r="J180" t="s">
+        <v>27</v>
+      </c>
+      <c r="K180">
+        <v>1061.8235294117601</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>46046.720284965268</v>
+      </c>
+      <c r="B181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" t="s">
+        <v>22</v>
+      </c>
+      <c r="D181" t="s">
+        <v>53</v>
+      </c>
+      <c r="E181" t="s">
+        <v>32</v>
+      </c>
+      <c r="F181">
+        <v>85000</v>
+      </c>
+      <c r="G181">
+        <v>85</v>
+      </c>
+      <c r="H181">
+        <v>1000</v>
+      </c>
+      <c r="I181" t="s">
+        <v>123</v>
+      </c>
+      <c r="J181" t="s">
+        <v>27</v>
+      </c>
+      <c r="K181">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>46046.719307523148</v>
+      </c>
+      <c r="B182" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" t="s">
+        <v>53</v>
+      </c>
+      <c r="E182" t="s">
+        <v>24</v>
+      </c>
+      <c r="F182">
+        <v>43000</v>
+      </c>
+      <c r="G182">
+        <v>80</v>
+      </c>
+      <c r="H182">
+        <v>537.5</v>
+      </c>
+      <c r="I182" t="s">
+        <v>123</v>
+      </c>
+      <c r="J182" t="s">
+        <v>27</v>
+      </c>
+      <c r="K182">
+        <v>540.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>46046.492864837957</v>
+      </c>
+      <c r="B183" t="s">
+        <v>157</v>
+      </c>
+      <c r="C183" t="s">
+        <v>170</v>
+      </c>
+      <c r="D183" t="s">
+        <v>165</v>
+      </c>
+      <c r="E183" t="s">
+        <v>37</v>
+      </c>
+      <c r="F183">
+        <v>24000</v>
+      </c>
+      <c r="G183">
+        <v>237</v>
+      </c>
+      <c r="H183">
+        <v>101.26582278481</v>
+      </c>
+      <c r="I183" t="s">
+        <v>116</v>
+      </c>
+      <c r="J183" t="s">
+        <v>27</v>
+      </c>
+      <c r="K183">
+        <v>104.26582278481</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>46046.491925729169</v>
+      </c>
+      <c r="B184" t="s">
+        <v>157</v>
+      </c>
+      <c r="C184" t="s">
+        <v>170</v>
+      </c>
+      <c r="D184" t="s">
+        <v>165</v>
+      </c>
+      <c r="E184" t="s">
+        <v>43</v>
+      </c>
+      <c r="F184">
+        <v>35000</v>
+      </c>
+      <c r="G184">
+        <v>380</v>
+      </c>
+      <c r="H184">
+        <v>92.105263157894697</v>
+      </c>
+      <c r="I184" t="s">
+        <v>123</v>
+      </c>
+      <c r="J184" t="s">
+        <v>27</v>
+      </c>
+      <c r="K184">
+        <v>95.105263157894697</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <v>46046.491101562497</v>
+      </c>
+      <c r="B185" t="s">
+        <v>157</v>
+      </c>
+      <c r="C185" t="s">
+        <v>170</v>
+      </c>
+      <c r="D185" t="s">
+        <v>165</v>
+      </c>
+      <c r="E185" t="s">
+        <v>49</v>
+      </c>
+      <c r="F185">
+        <v>60000</v>
+      </c>
+      <c r="G185">
+        <v>630</v>
+      </c>
+      <c r="H185">
+        <v>95.238095238095198</v>
+      </c>
+      <c r="I185" t="s">
+        <v>123</v>
+      </c>
+      <c r="J185" t="s">
+        <v>27</v>
+      </c>
+      <c r="K185">
+        <v>98.238095238095198</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:W102" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">

--- a/Predictive Analysis Commodity pricing.xlsx
+++ b/Predictive Analysis Commodity pricing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rowland\Desktop\Agriarche\commodity-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C611F10B-AE9B-47EC-B7D8-81DD1E814B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4B37C7-F964-4787-9655-5D4CEC724425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F09D21BD-9259-4A67-8D0A-62113798C6EA}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="172">
   <si>
     <t>Agent Code</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>Kaduna</t>
+  </si>
+  <si>
+    <t>honeybeans</t>
   </si>
 </sst>
 </file>
@@ -932,11 +935,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A965C-A024-4543-8FC7-F4F80100D5B5}">
   <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:W185"/>
+  <dimension ref="A1:W203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="26" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H164" sqref="H164"/>
+      <pane ySplit="26" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L186" sqref="L186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8413,6 +8416,636 @@
         <v>98.238095238095198</v>
       </c>
     </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>46051.748093703703</v>
+      </c>
+      <c r="B186" t="s">
+        <v>21</v>
+      </c>
+      <c r="C186" t="s">
+        <v>22</v>
+      </c>
+      <c r="D186" t="s">
+        <v>23</v>
+      </c>
+      <c r="E186" t="s">
+        <v>24</v>
+      </c>
+      <c r="F186">
+        <v>55000</v>
+      </c>
+      <c r="G186">
+        <v>80</v>
+      </c>
+      <c r="H186">
+        <v>687.5</v>
+      </c>
+      <c r="I186" t="s">
+        <v>123</v>
+      </c>
+      <c r="J186" t="s">
+        <v>27</v>
+      </c>
+      <c r="K186">
+        <v>690.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <v>46051.748703333331</v>
+      </c>
+      <c r="B187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187" t="s">
+        <v>23</v>
+      </c>
+      <c r="E187" t="s">
+        <v>32</v>
+      </c>
+      <c r="F187">
+        <v>100000</v>
+      </c>
+      <c r="G187">
+        <v>85</v>
+      </c>
+      <c r="H187">
+        <v>1176.4705882352901</v>
+      </c>
+      <c r="I187" t="s">
+        <v>123</v>
+      </c>
+      <c r="J187" t="s">
+        <v>27</v>
+      </c>
+      <c r="K187">
+        <v>1179.4705882352901</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>46051.749662708331</v>
+      </c>
+      <c r="B188" t="s">
+        <v>21</v>
+      </c>
+      <c r="C188" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188" t="s">
+        <v>59</v>
+      </c>
+      <c r="F188">
+        <v>96000</v>
+      </c>
+      <c r="G188">
+        <v>85</v>
+      </c>
+      <c r="H188">
+        <v>1129.4117647058799</v>
+      </c>
+      <c r="I188" t="s">
+        <v>126</v>
+      </c>
+      <c r="J188" t="s">
+        <v>27</v>
+      </c>
+      <c r="K188">
+        <v>1132.4117647058799</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="3">
+        <v>46051.750264953713</v>
+      </c>
+      <c r="B189" t="s">
+        <v>21</v>
+      </c>
+      <c r="C189" t="s">
+        <v>22</v>
+      </c>
+      <c r="D189" t="s">
+        <v>23</v>
+      </c>
+      <c r="E189" t="s">
+        <v>63</v>
+      </c>
+      <c r="F189">
+        <v>22000</v>
+      </c>
+      <c r="G189">
+        <v>95</v>
+      </c>
+      <c r="H189">
+        <v>231.57894736842101</v>
+      </c>
+      <c r="I189" t="s">
+        <v>116</v>
+      </c>
+      <c r="J189" t="s">
+        <v>27</v>
+      </c>
+      <c r="K189">
+        <v>234.57894736842101</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
+        <v>46051.751193750002</v>
+      </c>
+      <c r="B190" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190" t="s">
+        <v>22</v>
+      </c>
+      <c r="D190" t="s">
+        <v>23</v>
+      </c>
+      <c r="E190" t="s">
+        <v>41</v>
+      </c>
+      <c r="F190">
+        <v>30000</v>
+      </c>
+      <c r="G190">
+        <v>100</v>
+      </c>
+      <c r="H190">
+        <v>300</v>
+      </c>
+      <c r="I190" t="s">
+        <v>123</v>
+      </c>
+      <c r="J190" t="s">
+        <v>27</v>
+      </c>
+      <c r="K190">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="3">
+        <v>46051.752038564817</v>
+      </c>
+      <c r="B191" t="s">
+        <v>21</v>
+      </c>
+      <c r="C191" t="s">
+        <v>22</v>
+      </c>
+      <c r="D191" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191" t="s">
+        <v>43</v>
+      </c>
+      <c r="F191">
+        <v>28000</v>
+      </c>
+      <c r="G191">
+        <v>75</v>
+      </c>
+      <c r="H191">
+        <v>373.33333333333297</v>
+      </c>
+      <c r="I191" t="s">
+        <v>123</v>
+      </c>
+      <c r="J191" t="s">
+        <v>27</v>
+      </c>
+      <c r="K191">
+        <v>376.33333333333297</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
+        <v>46051.755584768522</v>
+      </c>
+      <c r="B192" t="s">
+        <v>21</v>
+      </c>
+      <c r="C192" t="s">
+        <v>22</v>
+      </c>
+      <c r="D192" t="s">
+        <v>23</v>
+      </c>
+      <c r="E192" t="s">
+        <v>47</v>
+      </c>
+      <c r="F192">
+        <v>23000</v>
+      </c>
+      <c r="G192">
+        <v>100</v>
+      </c>
+      <c r="H192">
+        <v>230</v>
+      </c>
+      <c r="I192" t="s">
+        <v>126</v>
+      </c>
+      <c r="J192" t="s">
+        <v>27</v>
+      </c>
+      <c r="K192">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
+        <v>46051.756378518519</v>
+      </c>
+      <c r="B193" t="s">
+        <v>21</v>
+      </c>
+      <c r="C193" t="s">
+        <v>22</v>
+      </c>
+      <c r="D193" t="s">
+        <v>23</v>
+      </c>
+      <c r="E193" t="s">
+        <v>159</v>
+      </c>
+      <c r="F193">
+        <v>23000</v>
+      </c>
+      <c r="G193">
+        <v>100</v>
+      </c>
+      <c r="H193">
+        <v>230</v>
+      </c>
+      <c r="I193" t="s">
+        <v>126</v>
+      </c>
+      <c r="J193" t="s">
+        <v>27</v>
+      </c>
+      <c r="K193">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <v>46051.756998287026</v>
+      </c>
+      <c r="B194" t="s">
+        <v>21</v>
+      </c>
+      <c r="C194" t="s">
+        <v>22</v>
+      </c>
+      <c r="D194" t="s">
+        <v>23</v>
+      </c>
+      <c r="E194" t="s">
+        <v>49</v>
+      </c>
+      <c r="F194">
+        <v>62000</v>
+      </c>
+      <c r="G194">
+        <v>95</v>
+      </c>
+      <c r="H194">
+        <v>652.63157894736798</v>
+      </c>
+      <c r="I194" t="s">
+        <v>123</v>
+      </c>
+      <c r="J194" t="s">
+        <v>27</v>
+      </c>
+      <c r="K194">
+        <v>655.63157894736798</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
+        <v>46052.306498148151</v>
+      </c>
+      <c r="B195" t="s">
+        <v>112</v>
+      </c>
+      <c r="C195" t="s">
+        <v>113</v>
+      </c>
+      <c r="D195" t="s">
+        <v>114</v>
+      </c>
+      <c r="E195" t="s">
+        <v>24</v>
+      </c>
+      <c r="F195">
+        <v>68000</v>
+      </c>
+      <c r="G195">
+        <v>105</v>
+      </c>
+      <c r="H195">
+        <v>647.61904761904702</v>
+      </c>
+      <c r="I195" t="s">
+        <v>116</v>
+      </c>
+      <c r="J195" t="s">
+        <v>27</v>
+      </c>
+      <c r="K195">
+        <v>650.61904761904702</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <v>46052.30701689815</v>
+      </c>
+      <c r="B196" t="s">
+        <v>112</v>
+      </c>
+      <c r="C196" t="s">
+        <v>113</v>
+      </c>
+      <c r="D196" t="s">
+        <v>114</v>
+      </c>
+      <c r="E196" t="s">
+        <v>82</v>
+      </c>
+      <c r="F196">
+        <v>61000</v>
+      </c>
+      <c r="G196">
+        <v>105</v>
+      </c>
+      <c r="H196">
+        <v>580.95238095238096</v>
+      </c>
+      <c r="I196" t="s">
+        <v>116</v>
+      </c>
+      <c r="J196" t="s">
+        <v>27</v>
+      </c>
+      <c r="K196">
+        <v>583.95238095238096</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
+        <v>46052.307482199067</v>
+      </c>
+      <c r="B197" t="s">
+        <v>112</v>
+      </c>
+      <c r="C197" t="s">
+        <v>113</v>
+      </c>
+      <c r="D197" t="s">
+        <v>114</v>
+      </c>
+      <c r="E197" t="s">
+        <v>43</v>
+      </c>
+      <c r="F197">
+        <v>36000</v>
+      </c>
+      <c r="G197">
+        <v>95</v>
+      </c>
+      <c r="H197">
+        <v>378.94736842105198</v>
+      </c>
+      <c r="I197" t="s">
+        <v>116</v>
+      </c>
+      <c r="J197" t="s">
+        <v>27</v>
+      </c>
+      <c r="K197">
+        <v>381.94736842105198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>46052.307945995373</v>
+      </c>
+      <c r="B198" t="s">
+        <v>112</v>
+      </c>
+      <c r="C198" t="s">
+        <v>113</v>
+      </c>
+      <c r="D198" t="s">
+        <v>114</v>
+      </c>
+      <c r="E198" t="s">
+        <v>171</v>
+      </c>
+      <c r="F198">
+        <v>67000</v>
+      </c>
+      <c r="G198">
+        <v>103</v>
+      </c>
+      <c r="H198">
+        <v>650.48543689320297</v>
+      </c>
+      <c r="I198" t="s">
+        <v>116</v>
+      </c>
+      <c r="J198" t="s">
+        <v>27</v>
+      </c>
+      <c r="K198">
+        <v>653.48543689320297</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <v>46052.308440162044</v>
+      </c>
+      <c r="B199" t="s">
+        <v>112</v>
+      </c>
+      <c r="C199" t="s">
+        <v>113</v>
+      </c>
+      <c r="D199" t="s">
+        <v>114</v>
+      </c>
+      <c r="E199" t="s">
+        <v>49</v>
+      </c>
+      <c r="F199">
+        <v>71000</v>
+      </c>
+      <c r="G199">
+        <v>115</v>
+      </c>
+      <c r="H199">
+        <v>617.39130434782601</v>
+      </c>
+      <c r="I199" t="s">
+        <v>116</v>
+      </c>
+      <c r="J199" t="s">
+        <v>27</v>
+      </c>
+      <c r="K199">
+        <v>620.39130434782601</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>46051.797552916672</v>
+      </c>
+      <c r="B200" t="s">
+        <v>157</v>
+      </c>
+      <c r="C200" t="s">
+        <v>170</v>
+      </c>
+      <c r="D200" t="s">
+        <v>165</v>
+      </c>
+      <c r="E200" t="s">
+        <v>49</v>
+      </c>
+      <c r="F200">
+        <v>60000</v>
+      </c>
+      <c r="G200">
+        <v>100</v>
+      </c>
+      <c r="H200">
+        <v>630</v>
+      </c>
+      <c r="I200" t="s">
+        <v>123</v>
+      </c>
+      <c r="J200" t="s">
+        <v>27</v>
+      </c>
+      <c r="K200">
+        <v>98.238095238095198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <v>46051.798799305558</v>
+      </c>
+      <c r="B201" t="s">
+        <v>157</v>
+      </c>
+      <c r="C201" t="s">
+        <v>170</v>
+      </c>
+      <c r="D201" t="s">
+        <v>165</v>
+      </c>
+      <c r="E201" t="s">
+        <v>159</v>
+      </c>
+      <c r="F201">
+        <v>34000</v>
+      </c>
+      <c r="G201">
+        <v>100</v>
+      </c>
+      <c r="H201">
+        <v>260</v>
+      </c>
+      <c r="I201" t="s">
+        <v>123</v>
+      </c>
+      <c r="J201" t="s">
+        <v>27</v>
+      </c>
+      <c r="K201">
+        <v>133.76923076923001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>46051.80110222222</v>
+      </c>
+      <c r="B202" t="s">
+        <v>157</v>
+      </c>
+      <c r="C202" t="s">
+        <v>170</v>
+      </c>
+      <c r="D202" t="s">
+        <v>165</v>
+      </c>
+      <c r="E202" t="s">
+        <v>37</v>
+      </c>
+      <c r="F202">
+        <v>22000</v>
+      </c>
+      <c r="G202">
+        <v>100</v>
+      </c>
+      <c r="H202">
+        <v>230</v>
+      </c>
+      <c r="I202" t="s">
+        <v>116</v>
+      </c>
+      <c r="J202" t="s">
+        <v>27</v>
+      </c>
+      <c r="K202">
+        <v>98.652173913043399</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="3">
+        <v>46051.802656782413</v>
+      </c>
+      <c r="B203" t="s">
+        <v>157</v>
+      </c>
+      <c r="C203" t="s">
+        <v>170</v>
+      </c>
+      <c r="D203" t="s">
+        <v>165</v>
+      </c>
+      <c r="E203" t="s">
+        <v>43</v>
+      </c>
+      <c r="F203">
+        <v>34000</v>
+      </c>
+      <c r="G203">
+        <v>80</v>
+      </c>
+      <c r="H203">
+        <v>360</v>
+      </c>
+      <c r="I203" t="s">
+        <v>123</v>
+      </c>
+      <c r="J203" t="s">
+        <v>27</v>
+      </c>
+      <c r="K203">
+        <v>97.4444444444444</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:W102" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">

--- a/Predictive Analysis Commodity pricing.xlsx
+++ b/Predictive Analysis Commodity pricing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rowland\Desktop\Agriarche\commodity-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4B37C7-F964-4787-9655-5D4CEC724425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893A9C9E-100E-4B65-ABA6-74E39BD2A2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F09D21BD-9259-4A67-8D0A-62113798C6EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="AGRIARCHE COMMODITY PRICE U (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AGRIARCHE COMMODITY PRICE U (2)'!$A$1:$W$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AGRIARCHE COMMODITY PRICE U (2)'!$A$1:$W$192</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="171">
   <si>
     <t>Agent Code</t>
   </si>
@@ -520,9 +520,6 @@
   </si>
   <si>
     <t>Sorghum White</t>
-  </si>
-  <si>
-    <t>Old</t>
   </si>
   <si>
     <t>gombe</t>
@@ -935,11 +932,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A965C-A024-4543-8FC7-F4F80100D5B5}">
   <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:W203"/>
+  <dimension ref="A1:W192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="26" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L186" sqref="L186"/>
+      <pane ySplit="26" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2365,7 +2362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>46023.793820868057</v>
       </c>
@@ -2400,7 +2397,7 @@
         <v>298.23809523809501</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>46023.794994814823</v>
       </c>
@@ -2435,7 +2432,7 @@
         <v>785.60869565217297</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>46023.795786863433</v>
       </c>
@@ -2470,7 +2467,7 @@
         <v>213.52631578947299</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>46023.796657418978</v>
       </c>
@@ -2505,7 +2502,7 @@
         <v>245.105263157894</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>46023.797625624997</v>
       </c>
@@ -2540,7 +2537,7 @@
         <v>245.105263157894</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>46023.798798634263</v>
       </c>
@@ -2575,7 +2572,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>46023.799761655093</v>
       </c>
@@ -2610,7 +2607,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>46023.800733993063</v>
       </c>
@@ -2645,7 +2642,7 @@
         <v>350.36842105263099</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>46025.637433981479</v>
       </c>
@@ -2698,7 +2695,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>46025.638221909721</v>
       </c>
@@ -2751,7 +2748,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>46025.638782152782</v>
       </c>
@@ -2786,7 +2783,7 @@
         <v>634.06796116504802</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>46025.639375590283</v>
       </c>
@@ -2839,7 +2836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>46025.640143599543</v>
       </c>
@@ -2889,7 +2886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>46025.640863252323</v>
       </c>
@@ -2939,7 +2936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>46025.645791712966</v>
       </c>
@@ -2989,7 +2986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>46025.646681307873</v>
       </c>
@@ -3039,7 +3036,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>46025.647667453697</v>
       </c>
@@ -3089,7 +3086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>46025.648406932873</v>
       </c>
@@ -3139,7 +3136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>46026.859183993052</v>
       </c>
@@ -3174,7 +3171,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>46026.859920370371</v>
       </c>
@@ -3209,7 +3206,7 @@
         <v>1061.8235294117601</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46026.860507465281</v>
       </c>
@@ -3244,7 +3241,7 @@
         <v>266.15789473684202</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>46026.861369305552</v>
       </c>
@@ -3279,7 +3276,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>46026.862139016201</v>
       </c>
@@ -3314,7 +3311,7 @@
         <v>388.71428571428498</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>46026.862810879633</v>
       </c>
@@ -3349,7 +3346,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>46026.883998483798</v>
       </c>
@@ -3384,7 +3381,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>46026.885575972221</v>
       </c>
@@ -3419,7 +3416,7 @@
         <v>492.79591836734602</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>46026.88667886574</v>
       </c>
@@ -3472,7 +3469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>46027.470755069437</v>
       </c>
@@ -3525,7 +3522,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>46027.477737465277</v>
       </c>
@@ -3578,7 +3575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>46027.479271736112</v>
       </c>
@@ -3631,7 +3628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>46027.479841284723</v>
       </c>
@@ -3684,7 +3681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>46027.480758101847</v>
       </c>
@@ -3719,7 +3716,7 @@
         <v>360.142857142857</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>46027.481432534732</v>
       </c>
@@ -3754,7 +3751,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>46027.483332025462</v>
       </c>
@@ -3789,7 +3786,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>46030.847251817133</v>
       </c>
@@ -3821,7 +3818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>46030.847251817133</v>
       </c>
@@ -3853,7 +3850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>46030.848417245368</v>
       </c>
@@ -3885,7 +3882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>46030.848417245368</v>
       </c>
@@ -3917,7 +3914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>46030.849268414349</v>
       </c>
@@ -3967,7 +3964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>46030.849268414349</v>
       </c>
@@ -4017,7 +4014,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>46030.850314791664</v>
       </c>
@@ -4067,7 +4064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>46030.850314791664</v>
       </c>
@@ -4117,7 +4114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>46030.850984560187</v>
       </c>
@@ -4167,7 +4164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>46030.850984560187</v>
       </c>
@@ -4199,7 +4196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>46030.851939571759</v>
       </c>
@@ -4249,7 +4246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>46030.851939571759</v>
       </c>
@@ -4299,7 +4296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>46030.853261863427</v>
       </c>
@@ -4349,7 +4346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>46030.853261863427</v>
       </c>
@@ -4399,7 +4396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>46030.917687453701</v>
       </c>
@@ -4434,7 +4431,7 @@
         <v>944.17647058823502</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>46030.917687453701</v>
       </c>
@@ -4466,7 +4463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>46030.918346331018</v>
       </c>
@@ -4501,7 +4498,7 @@
         <v>885.35294117647004</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>46030.918346331018</v>
       </c>
@@ -4533,7 +4530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>46030.919912384263</v>
       </c>
@@ -4568,7 +4565,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>46030.919912384263</v>
       </c>
@@ -4600,7 +4597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>46030.920732303239</v>
       </c>
@@ -4635,7 +4632,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>46030.920732303239</v>
       </c>
@@ -4667,7 +4664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>46030.921798935182</v>
       </c>
@@ -4702,7 +4699,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>46030.921798935182</v>
       </c>
@@ -4734,7 +4731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>46030.922455798609</v>
       </c>
@@ -4787,7 +4784,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>46030.922455798609</v>
       </c>
@@ -4837,7 +4834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>46032.680882256936</v>
       </c>
@@ -4887,7 +4884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>46032.682047650473</v>
       </c>
@@ -4919,7 +4916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>46032.68353037037</v>
       </c>
@@ -4969,7 +4966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>46032.684586122683</v>
       </c>
@@ -5019,7 +5016,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>46032.685642025463</v>
       </c>
@@ -5069,7 +5066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>46032.687082951386</v>
       </c>
@@ -5119,7 +5116,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>46032.688644895832</v>
       </c>
@@ -5169,7 +5166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>46033.787580682867</v>
       </c>
@@ -5219,7 +5216,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>46033.788779143521</v>
       </c>
@@ -5251,7 +5248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>46033.789544490741</v>
       </c>
@@ -5283,7 +5280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>46033.790557430562</v>
       </c>
@@ -5315,7 +5312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>46033.791191562501</v>
       </c>
@@ -5347,7 +5344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>46033.792069953714</v>
       </c>
@@ -5379,7 +5376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>46033.79291113426</v>
       </c>
@@ -5411,7 +5408,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>46033.793607928237</v>
       </c>
@@ -5461,7 +5458,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>46033.79415559028</v>
       </c>
@@ -5511,7 +5508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>46034.758549687504</v>
       </c>
@@ -5546,7 +5543,7 @@
         <v>371.42105263157799</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>46034.759268425929</v>
       </c>
@@ -5581,7 +5578,7 @@
         <v>583.95238095238096</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>46034.759880821759</v>
       </c>
@@ -5616,7 +5613,7 @@
         <v>555.38095238095195</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>46034.760524872683</v>
       </c>
@@ -5651,7 +5648,7 @@
         <v>604.94174757281496</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>46034.768923356482</v>
       </c>
@@ -5686,7 +5683,7 @@
         <v>489.95652173912998</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>46037.762724340268</v>
       </c>
@@ -5721,7 +5718,7 @@
         <v>640.5</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>46037.763536516213</v>
       </c>
@@ -5756,7 +5753,7 @@
         <v>1061.8235294117601</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>46037.764401180553</v>
       </c>
@@ -5791,7 +5788,7 @@
         <v>234.57894736842101</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>46037.765261099543</v>
       </c>
@@ -5826,7 +5823,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>46037.766236400457</v>
       </c>
@@ -5861,7 +5858,7 @@
         <v>388.71428571428498</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>46037.766945196759</v>
       </c>
@@ -5896,7 +5893,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>46037.767790034719</v>
       </c>
@@ -5931,7 +5928,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>46038.627586840281</v>
       </c>
@@ -5942,7 +5939,7 @@
         <v>158</v>
       </c>
       <c r="D115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E115" t="s">
         <v>37</v>
@@ -5966,7 +5963,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>46038.628292881942</v>
       </c>
@@ -5977,7 +5974,7 @@
         <v>158</v>
       </c>
       <c r="D116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E116" t="s">
         <v>103</v>
@@ -6001,7 +5998,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>46038.628886365739</v>
       </c>
@@ -6012,7 +6009,7 @@
         <v>158</v>
       </c>
       <c r="D117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E117" t="s">
         <v>159</v>
@@ -6036,7 +6033,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>46038.629439756944</v>
       </c>
@@ -6047,7 +6044,7 @@
         <v>158</v>
       </c>
       <c r="D118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E118" t="s">
         <v>49</v>
@@ -6071,30 +6068,30 @@
         <v>503</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <v>46038.690450543982</v>
+        <v>46039.783726481481</v>
       </c>
       <c r="B119" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D119" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="E119" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F119" s="6">
-        <v>34000</v>
+        <v>43000</v>
       </c>
       <c r="G119">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="H119">
-        <v>97.142857142857096</v>
+        <v>537.5</v>
       </c>
       <c r="I119" t="s">
         <v>123</v>
@@ -6103,173 +6100,173 @@
         <v>27</v>
       </c>
       <c r="K119">
-        <v>100.142857142857</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+        <v>540.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
-        <v>46038.697169953703</v>
+        <v>46039.784391967587</v>
       </c>
       <c r="B120" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D120" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="E120" t="s">
+        <v>32</v>
+      </c>
+      <c r="F120" s="6">
+        <v>85000</v>
+      </c>
+      <c r="G120">
+        <v>85</v>
+      </c>
+      <c r="H120">
+        <v>1000</v>
+      </c>
+      <c r="I120" t="s">
+        <v>123</v>
+      </c>
+      <c r="J120" t="s">
+        <v>27</v>
+      </c>
+      <c r="K120">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>46039.78497951389</v>
+      </c>
+      <c r="B121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" t="s">
+        <v>160</v>
+      </c>
+      <c r="D121" t="s">
+        <v>53</v>
+      </c>
+      <c r="E121" t="s">
+        <v>161</v>
+      </c>
+      <c r="F121" s="6">
+        <v>80000</v>
+      </c>
+      <c r="G121">
+        <v>85</v>
+      </c>
+      <c r="H121">
+        <v>941.17647058823502</v>
+      </c>
+      <c r="I121" t="s">
+        <v>126</v>
+      </c>
+      <c r="J121" t="s">
+        <v>27</v>
+      </c>
+      <c r="K121">
+        <v>944.17647058823502</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>46039.785577939823</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" t="s">
+        <v>53</v>
+      </c>
+      <c r="E122" t="s">
         <v>63</v>
       </c>
-      <c r="F120" s="6">
-        <v>22500</v>
-      </c>
-      <c r="G120">
-        <v>235</v>
-      </c>
-      <c r="H120">
-        <v>95.744680851063805</v>
-      </c>
-      <c r="I120" t="s">
-        <v>116</v>
-      </c>
-      <c r="J120" t="s">
-        <v>27</v>
-      </c>
-      <c r="K120">
-        <v>98.744680851063805</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
-        <v>46038.703716956021</v>
-      </c>
-      <c r="B121" t="s">
-        <v>157</v>
-      </c>
-      <c r="C121" t="s">
-        <v>158</v>
-      </c>
-      <c r="D121" t="s">
-        <v>165</v>
-      </c>
-      <c r="E121" t="s">
-        <v>49</v>
-      </c>
-      <c r="F121" s="6">
-        <v>51000</v>
-      </c>
-      <c r="G121">
-        <v>530</v>
-      </c>
-      <c r="H121">
-        <v>96.2264150943396</v>
-      </c>
-      <c r="I121" t="s">
-        <v>123</v>
-      </c>
-      <c r="J121" t="s">
-        <v>160</v>
-      </c>
-      <c r="K121">
-        <v>99.2264150943396</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
-        <v>46038.704976643523</v>
-      </c>
-      <c r="B122" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" t="s">
-        <v>158</v>
-      </c>
-      <c r="D122" t="s">
-        <v>165</v>
-      </c>
-      <c r="E122" t="s">
-        <v>159</v>
-      </c>
       <c r="F122" s="6">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="G122">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="H122">
-        <v>90.909090909090907</v>
+        <v>231.57894736842101</v>
       </c>
       <c r="I122" t="s">
         <v>123</v>
       </c>
       <c r="J122" t="s">
+        <v>27</v>
+      </c>
+      <c r="K122">
+        <v>234.57894736842101</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>46039.786285925933</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" t="s">
         <v>160</v>
-      </c>
-      <c r="K122">
-        <v>93.909090909090907</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
-        <v>46039.783726481481</v>
-      </c>
-      <c r="B123" t="s">
-        <v>21</v>
-      </c>
-      <c r="C123" t="s">
-        <v>161</v>
       </c>
       <c r="D123" t="s">
         <v>53</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F123" s="6">
-        <v>43000</v>
+        <v>25000</v>
       </c>
       <c r="G123">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H123">
-        <v>537.5</v>
+        <v>250</v>
       </c>
       <c r="I123" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J123" t="s">
         <v>27</v>
       </c>
       <c r="K123">
-        <v>540.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
-        <v>46039.784391967587</v>
+        <v>46039.787125266201</v>
       </c>
       <c r="B124" t="s">
         <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D124" t="s">
         <v>53</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F124" s="6">
-        <v>85000</v>
+        <v>27000</v>
       </c>
       <c r="G124">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H124">
-        <v>1000</v>
+        <v>385.71428571428498</v>
       </c>
       <c r="I124" t="s">
         <v>123</v>
@@ -6278,33 +6275,33 @@
         <v>27</v>
       </c>
       <c r="K124">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+        <v>388.71428571428498</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
-        <v>46039.78497951389</v>
+        <v>46039.787814710653</v>
       </c>
       <c r="B125" t="s">
         <v>21</v>
       </c>
       <c r="C125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D125" t="s">
         <v>53</v>
       </c>
       <c r="E125" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="F125" s="6">
-        <v>80000</v>
+        <v>28000</v>
       </c>
       <c r="G125">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H125">
-        <v>941.17647058823502</v>
+        <v>280</v>
       </c>
       <c r="I125" t="s">
         <v>126</v>
@@ -6313,33 +6310,33 @@
         <v>27</v>
       </c>
       <c r="K125">
-        <v>944.17647058823502</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
-        <v>46039.785577939823</v>
+        <v>46039.788641597217</v>
       </c>
       <c r="B126" t="s">
         <v>21</v>
       </c>
       <c r="C126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D126" t="s">
         <v>53</v>
       </c>
       <c r="E126" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F126" s="6">
-        <v>22000</v>
+        <v>53000</v>
       </c>
       <c r="G126">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H126">
-        <v>231.57894736842101</v>
+        <v>530</v>
       </c>
       <c r="I126" t="s">
         <v>123</v>
@@ -6348,173 +6345,173 @@
         <v>27</v>
       </c>
       <c r="K126">
-        <v>234.57894736842101</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
-        <v>46039.786285925933</v>
+        <v>46040.85899197917</v>
       </c>
       <c r="B127" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C127" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D127" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F127" s="6">
-        <v>25000</v>
+        <v>49000</v>
       </c>
       <c r="G127">
         <v>100</v>
       </c>
       <c r="H127">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="I127" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J127" t="s">
         <v>27</v>
       </c>
       <c r="K127">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <v>46039.787125266201</v>
+        <v>46040.859583495367</v>
       </c>
       <c r="B128" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C128" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D128" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F128" s="6">
+        <v>107000</v>
+      </c>
+      <c r="G128">
+        <v>98</v>
+      </c>
+      <c r="H128">
+        <v>1091.8367346938701</v>
+      </c>
+      <c r="I128" t="s">
+        <v>116</v>
+      </c>
+      <c r="J128" t="s">
+        <v>27</v>
+      </c>
+      <c r="K128">
+        <v>1094.8367346938701</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>46040.860529768521</v>
+      </c>
+      <c r="B129" t="s">
+        <v>79</v>
+      </c>
+      <c r="C129" t="s">
+        <v>162</v>
+      </c>
+      <c r="D129" t="s">
+        <v>81</v>
+      </c>
+      <c r="E129" t="s">
+        <v>63</v>
+      </c>
+      <c r="F129" s="6">
         <v>27000</v>
-      </c>
-      <c r="G128">
-        <v>70</v>
-      </c>
-      <c r="H128">
-        <v>385.71428571428498</v>
-      </c>
-      <c r="I128" t="s">
-        <v>123</v>
-      </c>
-      <c r="J128" t="s">
-        <v>27</v>
-      </c>
-      <c r="K128">
-        <v>388.71428571428498</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
-        <v>46039.787814710653</v>
-      </c>
-      <c r="B129" t="s">
-        <v>21</v>
-      </c>
-      <c r="C129" t="s">
-        <v>161</v>
-      </c>
-      <c r="D129" t="s">
-        <v>53</v>
-      </c>
-      <c r="E129" t="s">
-        <v>47</v>
-      </c>
-      <c r="F129" s="6">
-        <v>28000</v>
       </c>
       <c r="G129">
         <v>100</v>
       </c>
       <c r="H129">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="I129" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J129" t="s">
         <v>27</v>
       </c>
       <c r="K129">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
-        <v>46039.788641597217</v>
+        <v>46040.861482905093</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C130" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D130" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E130" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F130" s="6">
-        <v>53000</v>
+        <v>30000</v>
       </c>
       <c r="G130">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H130">
-        <v>530</v>
+        <v>285.71428571428498</v>
       </c>
       <c r="I130" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J130" t="s">
         <v>27</v>
       </c>
       <c r="K130">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+        <v>288.71428571428498</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <v>46040.85899197917</v>
+        <v>46040.863150173609</v>
       </c>
       <c r="B131" t="s">
         <v>79</v>
       </c>
       <c r="C131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D131" t="s">
         <v>81</v>
       </c>
       <c r="E131" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="F131" s="6">
-        <v>49000</v>
+        <v>90000</v>
       </c>
       <c r="G131">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H131">
-        <v>490</v>
+        <v>7826.0869565217299</v>
       </c>
       <c r="I131" t="s">
         <v>116</v>
@@ -6523,33 +6520,33 @@
         <v>27</v>
       </c>
       <c r="K131">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7829.0869565217299</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
-        <v>46040.859583495367</v>
+        <v>46040.864042465277</v>
       </c>
       <c r="B132" t="s">
         <v>79</v>
       </c>
       <c r="C132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D132" t="s">
         <v>81</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="F132" s="6">
-        <v>107000</v>
+        <v>20000</v>
       </c>
       <c r="G132">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H132">
-        <v>1091.8367346938701</v>
+        <v>210.52631578947299</v>
       </c>
       <c r="I132" t="s">
         <v>116</v>
@@ -6558,33 +6555,33 @@
         <v>27</v>
       </c>
       <c r="K132">
-        <v>1094.8367346938701</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+        <v>213.52631578947299</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
-        <v>46040.860529768521</v>
+        <v>46040.866058576386</v>
       </c>
       <c r="B133" t="s">
         <v>79</v>
       </c>
       <c r="C133" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D133" t="s">
         <v>81</v>
       </c>
       <c r="E133" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F133" s="6">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="G133">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H133">
-        <v>270</v>
+        <v>242.105263157894</v>
       </c>
       <c r="I133" t="s">
         <v>116</v>
@@ -6593,33 +6590,33 @@
         <v>27</v>
       </c>
       <c r="K133">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+        <v>245.105263157894</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
-        <v>46040.861482905093</v>
+        <v>46040.868844999997</v>
       </c>
       <c r="B134" t="s">
         <v>79</v>
       </c>
       <c r="C134" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D134" t="s">
         <v>81</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="F134" s="6">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="G134">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H134">
-        <v>285.71428571428498</v>
+        <v>234.69387755101999</v>
       </c>
       <c r="I134" t="s">
         <v>116</v>
@@ -6628,362 +6625,362 @@
         <v>27</v>
       </c>
       <c r="K134">
-        <v>288.71428571428498</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+        <v>237.69387755101999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
-        <v>46040.863150173609</v>
+        <v>46041.41498115741</v>
       </c>
       <c r="B135" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="C135" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D135" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="E135" t="s">
-        <v>150</v>
-      </c>
-      <c r="F135" s="6">
-        <v>90000</v>
+        <v>115</v>
+      </c>
+      <c r="F135">
+        <v>47000</v>
       </c>
       <c r="G135">
+        <v>75</v>
+      </c>
+      <c r="H135">
+        <v>626.66666666666595</v>
+      </c>
+      <c r="I135" t="s">
+        <v>123</v>
+      </c>
+      <c r="J135" t="s">
+        <v>168</v>
+      </c>
+      <c r="K135">
+        <v>629.66666666666595</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>46041.416057337963</v>
+      </c>
+      <c r="B136" t="s">
+        <v>165</v>
+      </c>
+      <c r="C136" t="s">
+        <v>166</v>
+      </c>
+      <c r="D136" t="s">
+        <v>167</v>
+      </c>
+      <c r="E136" t="s">
+        <v>43</v>
+      </c>
+      <c r="F136">
+        <v>35000</v>
+      </c>
+      <c r="G136">
+        <v>85</v>
+      </c>
+      <c r="H136">
+        <v>411.76470588235202</v>
+      </c>
+      <c r="I136" t="s">
+        <v>123</v>
+      </c>
+      <c r="J136" t="s">
+        <v>168</v>
+      </c>
+      <c r="K136">
+        <v>414.76470588235202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>46041.417152754628</v>
+      </c>
+      <c r="B137" t="s">
+        <v>165</v>
+      </c>
+      <c r="C137" t="s">
+        <v>166</v>
+      </c>
+      <c r="D137" t="s">
+        <v>167</v>
+      </c>
+      <c r="E137" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137">
+        <v>45000</v>
+      </c>
+      <c r="G137">
+        <v>85</v>
+      </c>
+      <c r="H137">
+        <v>529.41176470588198</v>
+      </c>
+      <c r="I137" t="s">
+        <v>123</v>
+      </c>
+      <c r="J137" t="s">
+        <v>168</v>
+      </c>
+      <c r="K137">
+        <v>532.41176470588198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>46041.417694687501</v>
+      </c>
+      <c r="B138" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" t="s">
+        <v>166</v>
+      </c>
+      <c r="D138" t="s">
+        <v>167</v>
+      </c>
+      <c r="E138" t="s">
+        <v>82</v>
+      </c>
+      <c r="F138">
+        <v>47000</v>
+      </c>
+      <c r="G138">
+        <v>85</v>
+      </c>
+      <c r="H138">
+        <v>552.94117647058795</v>
+      </c>
+      <c r="I138" t="s">
+        <v>123</v>
+      </c>
+      <c r="J138" t="s">
+        <v>168</v>
+      </c>
+      <c r="K138">
+        <v>555.94117647058795</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>46041.418628715277</v>
+      </c>
+      <c r="B139" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" t="s">
+        <v>166</v>
+      </c>
+      <c r="D139" t="s">
+        <v>167</v>
+      </c>
+      <c r="E139" t="s">
+        <v>37</v>
+      </c>
+      <c r="F139">
+        <v>26000</v>
+      </c>
+      <c r="G139">
         <v>115</v>
       </c>
-      <c r="H135">
-        <v>7826.0869565217299</v>
-      </c>
-      <c r="I135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J135" t="s">
-        <v>27</v>
-      </c>
-      <c r="K135">
-        <v>7829.0869565217299</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
-        <v>46040.864042465277</v>
-      </c>
-      <c r="B136" t="s">
-        <v>79</v>
-      </c>
-      <c r="C136" t="s">
-        <v>163</v>
-      </c>
-      <c r="D136" t="s">
-        <v>81</v>
-      </c>
-      <c r="E136" t="s">
-        <v>103</v>
-      </c>
-      <c r="F136" s="6">
-        <v>20000</v>
-      </c>
-      <c r="G136">
-        <v>95</v>
-      </c>
-      <c r="H136">
-        <v>210.52631578947299</v>
-      </c>
-      <c r="I136" t="s">
-        <v>116</v>
-      </c>
-      <c r="J136" t="s">
-        <v>27</v>
-      </c>
-      <c r="K136">
-        <v>213.52631578947299</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
-        <v>46040.866058576386</v>
-      </c>
-      <c r="B137" t="s">
-        <v>79</v>
-      </c>
-      <c r="C137" t="s">
-        <v>163</v>
-      </c>
-      <c r="D137" t="s">
-        <v>81</v>
-      </c>
-      <c r="E137" t="s">
-        <v>47</v>
-      </c>
-      <c r="F137" s="6">
-        <v>23000</v>
-      </c>
-      <c r="G137">
-        <v>95</v>
-      </c>
-      <c r="H137">
-        <v>242.105263157894</v>
-      </c>
-      <c r="I137" t="s">
-        <v>116</v>
-      </c>
-      <c r="J137" t="s">
-        <v>27</v>
-      </c>
-      <c r="K137">
-        <v>245.105263157894</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
-        <v>46040.868844999997</v>
-      </c>
-      <c r="B138" t="s">
-        <v>79</v>
-      </c>
-      <c r="C138" t="s">
-        <v>163</v>
-      </c>
-      <c r="D138" t="s">
-        <v>81</v>
-      </c>
-      <c r="E138" t="s">
-        <v>110</v>
-      </c>
-      <c r="F138" s="6">
-        <v>23000</v>
-      </c>
-      <c r="G138">
-        <v>98</v>
-      </c>
-      <c r="H138">
-        <v>234.69387755101999</v>
-      </c>
-      <c r="I138" t="s">
-        <v>116</v>
-      </c>
-      <c r="J138" t="s">
-        <v>27</v>
-      </c>
-      <c r="K138">
-        <v>237.69387755101999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
-        <v>46041.41498115741</v>
-      </c>
-      <c r="B139" t="s">
-        <v>166</v>
-      </c>
-      <c r="C139" t="s">
-        <v>167</v>
-      </c>
-      <c r="D139" t="s">
-        <v>168</v>
-      </c>
-      <c r="E139" t="s">
-        <v>115</v>
-      </c>
-      <c r="F139">
-        <v>47000</v>
-      </c>
-      <c r="G139">
-        <v>75</v>
-      </c>
       <c r="H139">
-        <v>626.66666666666595</v>
+        <v>226.08695652173901</v>
       </c>
       <c r="I139" t="s">
         <v>123</v>
       </c>
       <c r="J139" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K139">
-        <v>629.66666666666595</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+        <v>229.08695652173901</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
-        <v>46041.416057337963</v>
+        <v>46041.419179780103</v>
       </c>
       <c r="B140" t="s">
+        <v>165</v>
+      </c>
+      <c r="C140" t="s">
         <v>166</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>167</v>
       </c>
-      <c r="D140" t="s">
-        <v>168</v>
-      </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F140">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="G140">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="H140">
-        <v>411.76470588235202</v>
+        <v>500</v>
       </c>
       <c r="I140" t="s">
         <v>123</v>
       </c>
       <c r="J140" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K140">
-        <v>414.76470588235202</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
-        <v>46041.417152754628</v>
+        <v>46041.624696817133</v>
       </c>
       <c r="B141" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="C141" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="D141" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="E141" t="s">
+        <v>63</v>
+      </c>
+      <c r="F141">
+        <v>20000</v>
+      </c>
+      <c r="G141">
+        <v>100</v>
+      </c>
+      <c r="H141">
+        <v>200</v>
+      </c>
+      <c r="I141" t="s">
+        <v>116</v>
+      </c>
+      <c r="J141" t="s">
+        <v>27</v>
+      </c>
+      <c r="K141">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>46041.625225868047</v>
+      </c>
+      <c r="B142" t="s">
+        <v>112</v>
+      </c>
+      <c r="C142" t="s">
+        <v>113</v>
+      </c>
+      <c r="D142" t="s">
+        <v>114</v>
+      </c>
+      <c r="E142" t="s">
+        <v>43</v>
+      </c>
+      <c r="F142">
+        <v>38000</v>
+      </c>
+      <c r="G142">
+        <v>95</v>
+      </c>
+      <c r="H142">
+        <v>400</v>
+      </c>
+      <c r="I142" t="s">
+        <v>116</v>
+      </c>
+      <c r="J142" t="s">
+        <v>27</v>
+      </c>
+      <c r="K142">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>46041.625920335653</v>
+      </c>
+      <c r="B143" t="s">
+        <v>112</v>
+      </c>
+      <c r="C143" t="s">
+        <v>113</v>
+      </c>
+      <c r="D143" t="s">
+        <v>114</v>
+      </c>
+      <c r="E143" t="s">
         <v>24</v>
       </c>
-      <c r="F141">
-        <v>45000</v>
-      </c>
-      <c r="G141">
-        <v>85</v>
-      </c>
-      <c r="H141">
-        <v>529.41176470588198</v>
-      </c>
-      <c r="I141" t="s">
-        <v>123</v>
-      </c>
-      <c r="J141" t="s">
-        <v>169</v>
-      </c>
-      <c r="K141">
-        <v>532.41176470588198</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
-        <v>46041.417694687501</v>
-      </c>
-      <c r="B142" t="s">
-        <v>166</v>
-      </c>
-      <c r="C142" t="s">
-        <v>167</v>
-      </c>
-      <c r="D142" t="s">
-        <v>168</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="F143">
+        <v>63000</v>
+      </c>
+      <c r="G143">
+        <v>105</v>
+      </c>
+      <c r="H143">
+        <v>600</v>
+      </c>
+      <c r="I143" t="s">
+        <v>116</v>
+      </c>
+      <c r="J143" t="s">
+        <v>27</v>
+      </c>
+      <c r="K143">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>46041.62655173611</v>
+      </c>
+      <c r="B144" t="s">
+        <v>112</v>
+      </c>
+      <c r="C144" t="s">
+        <v>113</v>
+      </c>
+      <c r="D144" t="s">
+        <v>114</v>
+      </c>
+      <c r="E144" t="s">
         <v>82</v>
       </c>
-      <c r="F142">
-        <v>47000</v>
-      </c>
-      <c r="G142">
-        <v>85</v>
-      </c>
-      <c r="H142">
-        <v>552.94117647058795</v>
-      </c>
-      <c r="I142" t="s">
-        <v>123</v>
-      </c>
-      <c r="J142" t="s">
-        <v>169</v>
-      </c>
-      <c r="K142">
-        <v>555.94117647058795</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
-        <v>46041.418628715277</v>
-      </c>
-      <c r="B143" t="s">
-        <v>166</v>
-      </c>
-      <c r="C143" t="s">
-        <v>167</v>
-      </c>
-      <c r="D143" t="s">
-        <v>168</v>
-      </c>
-      <c r="E143" t="s">
-        <v>37</v>
-      </c>
-      <c r="F143">
-        <v>26000</v>
-      </c>
-      <c r="G143">
-        <v>115</v>
-      </c>
-      <c r="H143">
-        <v>226.08695652173901</v>
-      </c>
-      <c r="I143" t="s">
-        <v>123</v>
-      </c>
-      <c r="J143" t="s">
-        <v>169</v>
-      </c>
-      <c r="K143">
-        <v>229.08695652173901</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
-        <v>46041.419179780103</v>
-      </c>
-      <c r="B144" t="s">
-        <v>166</v>
-      </c>
-      <c r="C144" t="s">
-        <v>167</v>
-      </c>
-      <c r="D144" t="s">
-        <v>168</v>
-      </c>
-      <c r="E144" t="s">
-        <v>49</v>
-      </c>
       <c r="F144">
-        <v>70000</v>
+        <v>59000</v>
       </c>
       <c r="G144">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="H144">
-        <v>500</v>
+        <v>561.90476190476102</v>
       </c>
       <c r="I144" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J144" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="K144">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+        <v>564.90476190476102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
-        <v>46041.624696817133</v>
+        <v>46041.627400891201</v>
       </c>
       <c r="B145" t="s">
         <v>112</v>
@@ -6995,16 +6992,16 @@
         <v>114</v>
       </c>
       <c r="E145" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="F145">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="G145">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H145">
-        <v>200</v>
+        <v>631.06796116504802</v>
       </c>
       <c r="I145" t="s">
         <v>116</v>
@@ -7013,12 +7010,12 @@
         <v>27</v>
       </c>
       <c r="K145">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>634.06796116504802</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <v>46041.625225868047</v>
+        <v>46041.627988495369</v>
       </c>
       <c r="B146" t="s">
         <v>112</v>
@@ -7030,16 +7027,16 @@
         <v>114</v>
       </c>
       <c r="E146" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F146">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="G146">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H146">
-        <v>400</v>
+        <v>521.73913043478206</v>
       </c>
       <c r="I146" t="s">
         <v>116</v>
@@ -7048,12 +7045,12 @@
         <v>27</v>
       </c>
       <c r="K146">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+        <v>524.73913043478206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <v>46041.625920335653</v>
+        <v>46044.611597071758</v>
       </c>
       <c r="B147" t="s">
         <v>112</v>
@@ -7065,16 +7062,16 @@
         <v>114</v>
       </c>
       <c r="E147" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F147">
-        <v>63000</v>
+        <v>19000</v>
       </c>
       <c r="G147">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H147">
-        <v>600</v>
+        <v>190</v>
       </c>
       <c r="I147" t="s">
         <v>116</v>
@@ -7083,12 +7080,12 @@
         <v>27</v>
       </c>
       <c r="K147">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
-        <v>46041.62655173611</v>
+        <v>46044.612087349538</v>
       </c>
       <c r="B148" t="s">
         <v>112</v>
@@ -7100,16 +7097,16 @@
         <v>114</v>
       </c>
       <c r="E148" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="F148">
-        <v>59000</v>
+        <v>37000</v>
       </c>
       <c r="G148">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H148">
-        <v>561.90476190476102</v>
+        <v>389.47368421052602</v>
       </c>
       <c r="I148" t="s">
         <v>116</v>
@@ -7118,12 +7115,12 @@
         <v>27</v>
       </c>
       <c r="K148">
-        <v>564.90476190476102</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+        <v>392.47368421052602</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
-        <v>46041.627400891201</v>
+        <v>46044.61308520833</v>
       </c>
       <c r="B149" t="s">
         <v>112</v>
@@ -7135,16 +7132,16 @@
         <v>114</v>
       </c>
       <c r="E149" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="F149">
         <v>65000</v>
       </c>
       <c r="G149">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H149">
-        <v>631.06796116504802</v>
+        <v>619.04761904761904</v>
       </c>
       <c r="I149" t="s">
         <v>116</v>
@@ -7153,12 +7150,12 @@
         <v>27</v>
       </c>
       <c r="K149">
-        <v>634.06796116504802</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+        <v>622.04761904761904</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
-        <v>46041.627988495369</v>
+        <v>46044.613647106482</v>
       </c>
       <c r="B150" t="s">
         <v>112</v>
@@ -7170,16 +7167,16 @@
         <v>114</v>
       </c>
       <c r="E150" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F150">
-        <v>60000</v>
+        <v>61000</v>
       </c>
       <c r="G150">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H150">
-        <v>521.73913043478206</v>
+        <v>580.95238095238096</v>
       </c>
       <c r="I150" t="s">
         <v>116</v>
@@ -7188,33 +7185,33 @@
         <v>27</v>
       </c>
       <c r="K150">
-        <v>524.73913043478206</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+        <v>583.95238095238096</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
-        <v>46041.733182118063</v>
+        <v>46044.614156412033</v>
       </c>
       <c r="B151" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="C151" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="D151" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="E151" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="F151">
-        <v>22500</v>
+        <v>65000</v>
       </c>
       <c r="G151">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="H151">
-        <v>95.744680851063805</v>
+        <v>631.06796116504802</v>
       </c>
       <c r="I151" t="s">
         <v>116</v>
@@ -7223,68 +7220,68 @@
         <v>27</v>
       </c>
       <c r="K151">
-        <v>98.744680851063805</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+        <v>634.06796116504802</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <v>46041.737899120373</v>
+        <v>46044.614772407411</v>
       </c>
       <c r="B152" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="C152" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="D152" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="E152" t="s">
         <v>49</v>
       </c>
       <c r="F152">
-        <v>51000</v>
+        <v>66000</v>
       </c>
       <c r="G152">
-        <v>530</v>
+        <v>115</v>
       </c>
       <c r="H152">
-        <v>96.2264150943396</v>
+        <v>573.91304347825997</v>
       </c>
       <c r="I152" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J152" t="s">
         <v>27</v>
       </c>
       <c r="K152">
-        <v>99.2264150943396</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+        <v>576.91304347825997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
-        <v>46042.486555821757</v>
+        <v>46044.802396180552</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="C153" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="D153" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="E153" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F153">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="G153">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="H153">
-        <v>100</v>
+        <v>562.5</v>
       </c>
       <c r="I153" t="s">
         <v>123</v>
@@ -7293,33 +7290,33 @@
         <v>27</v>
       </c>
       <c r="K153">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+        <v>565.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
-        <v>46042.487216504633</v>
+        <v>46044.803476307869</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="C154" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="D154" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="E154" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F154">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="G154">
-        <v>335</v>
+        <v>85</v>
       </c>
       <c r="H154">
-        <v>89.552238805970106</v>
+        <v>1058.8235294117601</v>
       </c>
       <c r="I154" t="s">
         <v>123</v>
@@ -7328,432 +7325,432 @@
         <v>27</v>
       </c>
       <c r="K154">
-        <v>92.552238805970106</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1061.8235294117601</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
-        <v>46044.611597071758</v>
+        <v>46044.804757442129</v>
       </c>
       <c r="B155" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C155" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D155" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E155" t="s">
         <v>63</v>
       </c>
       <c r="F155">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="G155">
+        <v>95</v>
+      </c>
+      <c r="H155">
+        <v>231.57894736842101</v>
+      </c>
+      <c r="I155" t="s">
+        <v>123</v>
+      </c>
+      <c r="J155" t="s">
+        <v>27</v>
+      </c>
+      <c r="K155">
+        <v>234.57894736842101</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>46044.80601197917</v>
+      </c>
+      <c r="B156" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" t="s">
+        <v>22</v>
+      </c>
+      <c r="D156" t="s">
+        <v>23</v>
+      </c>
+      <c r="E156" t="s">
+        <v>41</v>
+      </c>
+      <c r="F156">
+        <v>27000</v>
+      </c>
+      <c r="G156">
         <v>100</v>
       </c>
-      <c r="H155">
-        <v>190</v>
-      </c>
-      <c r="I155" t="s">
-        <v>116</v>
-      </c>
-      <c r="J155" t="s">
-        <v>27</v>
-      </c>
-      <c r="K155">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
-        <v>46044.612087349538</v>
-      </c>
-      <c r="B156" t="s">
-        <v>112</v>
-      </c>
-      <c r="C156" t="s">
-        <v>113</v>
-      </c>
-      <c r="D156" t="s">
-        <v>114</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="H156">
+        <v>270</v>
+      </c>
+      <c r="I156" t="s">
+        <v>123</v>
+      </c>
+      <c r="J156" t="s">
+        <v>27</v>
+      </c>
+      <c r="K156">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>46044.807247210651</v>
+      </c>
+      <c r="B157" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157" t="s">
+        <v>23</v>
+      </c>
+      <c r="E157" t="s">
         <v>43</v>
       </c>
-      <c r="F156">
-        <v>37000</v>
-      </c>
-      <c r="G156">
-        <v>95</v>
-      </c>
-      <c r="H156">
-        <v>389.47368421052602</v>
-      </c>
-      <c r="I156" t="s">
-        <v>116</v>
-      </c>
-      <c r="J156" t="s">
-        <v>27</v>
-      </c>
-      <c r="K156">
-        <v>392.47368421052602</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
-        <v>46044.61308520833</v>
-      </c>
-      <c r="B157" t="s">
-        <v>112</v>
-      </c>
-      <c r="C157" t="s">
-        <v>113</v>
-      </c>
-      <c r="D157" t="s">
-        <v>114</v>
-      </c>
-      <c r="E157" t="s">
-        <v>24</v>
-      </c>
       <c r="F157">
-        <v>65000</v>
+        <v>28000</v>
       </c>
       <c r="G157">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="H157">
-        <v>619.04761904761904</v>
+        <v>400</v>
       </c>
       <c r="I157" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J157" t="s">
         <v>27</v>
       </c>
       <c r="K157">
-        <v>622.04761904761904</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
-        <v>46044.613647106482</v>
+        <v>46044.809001145833</v>
       </c>
       <c r="B158" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C158" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D158" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E158" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F158">
-        <v>61000</v>
+        <v>25000</v>
       </c>
       <c r="G158">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H158">
-        <v>580.95238095238096</v>
+        <v>250</v>
       </c>
       <c r="I158" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J158" t="s">
         <v>27</v>
       </c>
       <c r="K158">
-        <v>583.95238095238096</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
-        <v>46044.614156412033</v>
+        <v>46044.809755046299</v>
       </c>
       <c r="B159" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C159" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D159" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E159" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="F159">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="G159">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H159">
-        <v>631.06796116504802</v>
+        <v>250</v>
       </c>
       <c r="I159" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J159" t="s">
         <v>27</v>
       </c>
       <c r="K159">
-        <v>634.06796116504802</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
-        <v>46044.614772407411</v>
+        <v>46044.812468425916</v>
       </c>
       <c r="B160" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C160" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D160" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E160" t="s">
         <v>49</v>
       </c>
       <c r="F160">
-        <v>66000</v>
+        <v>60000</v>
       </c>
       <c r="G160">
+        <v>100</v>
+      </c>
+      <c r="H160">
+        <v>600</v>
+      </c>
+      <c r="I160" t="s">
+        <v>123</v>
+      </c>
+      <c r="J160" t="s">
+        <v>27</v>
+      </c>
+      <c r="K160">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>46047.967883263889</v>
+      </c>
+      <c r="B161" t="s">
+        <v>79</v>
+      </c>
+      <c r="C161" t="s">
+        <v>80</v>
+      </c>
+      <c r="D161" t="s">
+        <v>81</v>
+      </c>
+      <c r="E161" t="s">
+        <v>103</v>
+      </c>
+      <c r="F161">
+        <v>21000</v>
+      </c>
+      <c r="G161">
+        <v>95</v>
+      </c>
+      <c r="H161">
+        <v>221.052631578947</v>
+      </c>
+      <c r="I161" t="s">
+        <v>116</v>
+      </c>
+      <c r="J161" t="s">
+        <v>27</v>
+      </c>
+      <c r="K161">
+        <v>224.052631578947</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>46047.966717152784</v>
+      </c>
+      <c r="B162" t="s">
+        <v>79</v>
+      </c>
+      <c r="C162" t="s">
+        <v>80</v>
+      </c>
+      <c r="D162" t="s">
+        <v>81</v>
+      </c>
+      <c r="E162" t="s">
+        <v>150</v>
+      </c>
+      <c r="F162">
+        <v>92000</v>
+      </c>
+      <c r="G162">
         <v>115</v>
       </c>
-      <c r="H160">
-        <v>573.91304347825997</v>
-      </c>
-      <c r="I160" t="s">
+      <c r="H162">
+        <v>800</v>
+      </c>
+      <c r="I162" t="s">
         <v>116</v>
       </c>
-      <c r="J160" t="s">
-        <v>27</v>
-      </c>
-      <c r="K160">
-        <v>576.91304347825997</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
-        <v>46044.802396180552</v>
-      </c>
-      <c r="B161" t="s">
-        <v>21</v>
-      </c>
-      <c r="C161" t="s">
-        <v>22</v>
-      </c>
-      <c r="D161" t="s">
-        <v>23</v>
-      </c>
-      <c r="E161" t="s">
-        <v>24</v>
-      </c>
-      <c r="F161">
-        <v>45000</v>
-      </c>
-      <c r="G161">
+      <c r="J162" t="s">
+        <v>27</v>
+      </c>
+      <c r="K162">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>46047.964625636567</v>
+      </c>
+      <c r="B163" t="s">
+        <v>79</v>
+      </c>
+      <c r="C163" t="s">
         <v>80</v>
       </c>
-      <c r="H161">
-        <v>562.5</v>
-      </c>
-      <c r="I161" t="s">
-        <v>123</v>
-      </c>
-      <c r="J161" t="s">
-        <v>27</v>
-      </c>
-      <c r="K161">
-        <v>565.5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
-        <v>46044.803476307869</v>
-      </c>
-      <c r="B162" t="s">
-        <v>21</v>
-      </c>
-      <c r="C162" t="s">
-        <v>22</v>
-      </c>
-      <c r="D162" t="s">
-        <v>23</v>
-      </c>
-      <c r="E162" t="s">
-        <v>32</v>
-      </c>
-      <c r="F162">
-        <v>90000</v>
-      </c>
-      <c r="G162">
-        <v>85</v>
-      </c>
-      <c r="H162">
-        <v>1058.8235294117601</v>
-      </c>
-      <c r="I162" t="s">
-        <v>123</v>
-      </c>
-      <c r="J162" t="s">
-        <v>27</v>
-      </c>
-      <c r="K162">
-        <v>1061.8235294117601</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
-        <v>46044.804757442129</v>
-      </c>
-      <c r="B163" t="s">
-        <v>21</v>
-      </c>
-      <c r="C163" t="s">
-        <v>22</v>
-      </c>
       <c r="D163" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="E163" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F163">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="G163">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H163">
-        <v>231.57894736842101</v>
+        <v>295.23809523809501</v>
       </c>
       <c r="I163" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J163" t="s">
         <v>27</v>
       </c>
       <c r="K163">
-        <v>234.57894736842101</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+        <v>298.23809523809501</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
-        <v>46044.80601197917</v>
+        <v>46047.959404143519</v>
       </c>
       <c r="B164" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D164" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="E164" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F164">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="G164">
         <v>100</v>
       </c>
       <c r="H164">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="I164" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J164" t="s">
         <v>27</v>
       </c>
       <c r="K164">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
-        <v>46044.807247210651</v>
+        <v>46047.958485613417</v>
       </c>
       <c r="B165" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D165" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="E165" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F165">
-        <v>28000</v>
+        <v>110000</v>
       </c>
       <c r="G165">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="H165">
-        <v>400</v>
+        <v>1122.44897959183</v>
       </c>
       <c r="I165" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J165" t="s">
         <v>27</v>
       </c>
       <c r="K165">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1125.44897959183</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
-        <v>46044.809001145833</v>
+        <v>46047.958044108796</v>
       </c>
       <c r="B166" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C166" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D166" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="E166" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F166">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="G166">
         <v>100</v>
       </c>
       <c r="H166">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I166" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J166" t="s">
         <v>27</v>
       </c>
       <c r="K166">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
-        <v>46044.809755046299</v>
+        <v>46046.726836967588</v>
       </c>
       <c r="B167" t="s">
         <v>21</v>
@@ -7762,33 +7759,33 @@
         <v>22</v>
       </c>
       <c r="D167" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E167" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="F167">
-        <v>25000</v>
+        <v>58000</v>
       </c>
       <c r="G167">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H167">
-        <v>250</v>
+        <v>604.16666666666595</v>
       </c>
       <c r="I167" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J167" t="s">
         <v>27</v>
       </c>
       <c r="K167">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+        <v>607.16666666666595</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
-        <v>46044.812468425916</v>
+        <v>46046.725977430557</v>
       </c>
       <c r="B168" t="s">
         <v>21</v>
@@ -7797,243 +7794,243 @@
         <v>22</v>
       </c>
       <c r="D168" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E168" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F168">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="G168">
         <v>100</v>
       </c>
       <c r="H168">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="I168" t="s">
+        <v>126</v>
+      </c>
+      <c r="J168" t="s">
+        <v>27</v>
+      </c>
+      <c r="K168">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>46046.724639745371</v>
+      </c>
+      <c r="B169" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" t="s">
+        <v>22</v>
+      </c>
+      <c r="D169" t="s">
+        <v>53</v>
+      </c>
+      <c r="E169" t="s">
+        <v>43</v>
+      </c>
+      <c r="F169">
+        <v>27000</v>
+      </c>
+      <c r="G169">
+        <v>70</v>
+      </c>
+      <c r="H169">
+        <v>385.71428571428498</v>
+      </c>
+      <c r="I169" t="s">
         <v>123</v>
       </c>
-      <c r="J168" t="s">
-        <v>27</v>
-      </c>
-      <c r="K168">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
-        <v>46047.967883263889</v>
-      </c>
-      <c r="B169" t="s">
-        <v>79</v>
-      </c>
-      <c r="C169" t="s">
-        <v>80</v>
-      </c>
-      <c r="D169" t="s">
-        <v>81</v>
-      </c>
-      <c r="E169" t="s">
-        <v>103</v>
-      </c>
-      <c r="F169">
-        <v>21000</v>
-      </c>
-      <c r="G169">
+      <c r="J169" t="s">
+        <v>27</v>
+      </c>
+      <c r="K169">
+        <v>388.71428571428498</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>46046.723781666667</v>
+      </c>
+      <c r="B170" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" t="s">
+        <v>22</v>
+      </c>
+      <c r="D170" t="s">
+        <v>53</v>
+      </c>
+      <c r="E170" t="s">
+        <v>41</v>
+      </c>
+      <c r="F170">
+        <v>29000</v>
+      </c>
+      <c r="G170">
+        <v>100</v>
+      </c>
+      <c r="H170">
+        <v>290</v>
+      </c>
+      <c r="I170" t="s">
+        <v>126</v>
+      </c>
+      <c r="J170" t="s">
+        <v>27</v>
+      </c>
+      <c r="K170">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>46046.722928634263</v>
+      </c>
+      <c r="B171" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171" t="s">
+        <v>22</v>
+      </c>
+      <c r="D171" t="s">
+        <v>53</v>
+      </c>
+      <c r="E171" t="s">
+        <v>63</v>
+      </c>
+      <c r="F171">
+        <v>22000</v>
+      </c>
+      <c r="G171">
         <v>95</v>
       </c>
-      <c r="H169">
-        <v>221.052631578947</v>
-      </c>
-      <c r="I169" t="s">
-        <v>116</v>
-      </c>
-      <c r="J169" t="s">
-        <v>27</v>
-      </c>
-      <c r="K169">
-        <v>224.052631578947</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
-        <v>46047.966717152784</v>
-      </c>
-      <c r="B170" t="s">
-        <v>79</v>
-      </c>
-      <c r="C170" t="s">
-        <v>80</v>
-      </c>
-      <c r="D170" t="s">
-        <v>81</v>
-      </c>
-      <c r="E170" t="s">
-        <v>150</v>
-      </c>
-      <c r="F170">
-        <v>92000</v>
-      </c>
-      <c r="G170">
-        <v>115</v>
-      </c>
-      <c r="H170">
-        <v>800</v>
-      </c>
-      <c r="I170" t="s">
-        <v>116</v>
-      </c>
-      <c r="J170" t="s">
-        <v>27</v>
-      </c>
-      <c r="K170">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
-        <v>46047.964625636567</v>
-      </c>
-      <c r="B171" t="s">
-        <v>79</v>
-      </c>
-      <c r="C171" t="s">
-        <v>80</v>
-      </c>
-      <c r="D171" t="s">
-        <v>81</v>
-      </c>
-      <c r="E171" t="s">
-        <v>41</v>
-      </c>
-      <c r="F171">
-        <v>31000</v>
-      </c>
-      <c r="G171">
-        <v>105</v>
-      </c>
       <c r="H171">
-        <v>295.23809523809501</v>
+        <v>231.57894736842101</v>
       </c>
       <c r="I171" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J171" t="s">
         <v>27</v>
       </c>
       <c r="K171">
-        <v>298.23809523809501</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+        <v>234.57894736842101</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
-        <v>46047.959404143519</v>
+        <v>46046.722074988429</v>
       </c>
       <c r="B172" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C172" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D172" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E172" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F172">
-        <v>28000</v>
+        <v>90000</v>
       </c>
       <c r="G172">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H172">
-        <v>280</v>
+        <v>1058.8235294117601</v>
       </c>
       <c r="I172" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J172" t="s">
         <v>27</v>
       </c>
       <c r="K172">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1061.8235294117601</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
-        <v>46047.958485613417</v>
+        <v>46046.720284965268</v>
       </c>
       <c r="B173" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C173" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D173" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E173" t="s">
         <v>32</v>
       </c>
       <c r="F173">
-        <v>110000</v>
+        <v>85000</v>
       </c>
       <c r="G173">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H173">
-        <v>1122.44897959183</v>
+        <v>1000</v>
       </c>
       <c r="I173" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J173" t="s">
         <v>27</v>
       </c>
       <c r="K173">
-        <v>1125.44897959183</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
-        <v>46047.958044108796</v>
+        <v>46046.719307523148</v>
       </c>
       <c r="B174" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C174" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D174" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E174" t="s">
         <v>24</v>
       </c>
       <c r="F174">
-        <v>50000</v>
+        <v>43000</v>
       </c>
       <c r="G174">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H174">
-        <v>500</v>
+        <v>537.5</v>
       </c>
       <c r="I174" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J174" t="s">
         <v>27</v>
       </c>
       <c r="K174">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+        <v>540.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
-        <v>46046.726836967588</v>
+        <v>46051.748093703703</v>
       </c>
       <c r="B175" t="s">
         <v>21</v>
@@ -8042,19 +8039,19 @@
         <v>22</v>
       </c>
       <c r="D175" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F175">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="G175">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H175">
-        <v>604.16666666666595</v>
+        <v>687.5</v>
       </c>
       <c r="I175" t="s">
         <v>123</v>
@@ -8063,12 +8060,12 @@
         <v>27</v>
       </c>
       <c r="K175">
-        <v>607.16666666666595</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+        <v>690.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
-        <v>46046.725977430557</v>
+        <v>46051.748703333331</v>
       </c>
       <c r="B176" t="s">
         <v>21</v>
@@ -8077,33 +8074,33 @@
         <v>22</v>
       </c>
       <c r="D176" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E176" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F176">
-        <v>28000</v>
+        <v>100000</v>
       </c>
       <c r="G176">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H176">
-        <v>280</v>
+        <v>1176.4705882352901</v>
       </c>
       <c r="I176" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J176" t="s">
         <v>27</v>
       </c>
       <c r="K176">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1179.4705882352901</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
-        <v>46046.724639745371</v>
+        <v>46051.749662708331</v>
       </c>
       <c r="B177" t="s">
         <v>21</v>
@@ -8112,33 +8109,33 @@
         <v>22</v>
       </c>
       <c r="D177" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F177">
-        <v>27000</v>
+        <v>96000</v>
       </c>
       <c r="G177">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H177">
-        <v>385.71428571428498</v>
+        <v>1129.4117647058799</v>
       </c>
       <c r="I177" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J177" t="s">
         <v>27</v>
       </c>
       <c r="K177">
-        <v>388.71428571428498</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1132.4117647058799</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
-        <v>46046.723781666667</v>
+        <v>46051.750264953713</v>
       </c>
       <c r="B178" t="s">
         <v>21</v>
@@ -8147,33 +8144,33 @@
         <v>22</v>
       </c>
       <c r="D178" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E178" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F178">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="G178">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H178">
-        <v>290</v>
+        <v>231.57894736842101</v>
       </c>
       <c r="I178" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J178" t="s">
         <v>27</v>
       </c>
       <c r="K178">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+        <v>234.57894736842101</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
-        <v>46046.722928634263</v>
+        <v>46051.751193750002</v>
       </c>
       <c r="B179" t="s">
         <v>21</v>
@@ -8182,19 +8179,19 @@
         <v>22</v>
       </c>
       <c r="D179" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E179" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F179">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="G179">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H179">
-        <v>231.57894736842101</v>
+        <v>300</v>
       </c>
       <c r="I179" t="s">
         <v>123</v>
@@ -8203,12 +8200,12 @@
         <v>27</v>
       </c>
       <c r="K179">
-        <v>234.57894736842101</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
-        <v>46046.722074988429</v>
+        <v>46051.752038564817</v>
       </c>
       <c r="B180" t="s">
         <v>21</v>
@@ -8217,33 +8214,33 @@
         <v>22</v>
       </c>
       <c r="D180" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E180" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F180">
-        <v>90000</v>
+        <v>28000</v>
       </c>
       <c r="G180">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H180">
-        <v>1058.8235294117601</v>
+        <v>373.33333333333297</v>
       </c>
       <c r="I180" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J180" t="s">
         <v>27</v>
       </c>
       <c r="K180">
-        <v>1061.8235294117601</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+        <v>376.33333333333297</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
-        <v>46046.720284965268</v>
+        <v>46051.755584768522</v>
       </c>
       <c r="B181" t="s">
         <v>21</v>
@@ -8252,33 +8249,33 @@
         <v>22</v>
       </c>
       <c r="D181" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E181" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F181">
-        <v>85000</v>
+        <v>23000</v>
       </c>
       <c r="G181">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H181">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="I181" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J181" t="s">
         <v>27</v>
       </c>
       <c r="K181">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
-        <v>46046.719307523148</v>
+        <v>46051.756378518519</v>
       </c>
       <c r="B182" t="s">
         <v>21</v>
@@ -8287,299 +8284,299 @@
         <v>22</v>
       </c>
       <c r="D182" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E182" t="s">
+        <v>159</v>
+      </c>
+      <c r="F182">
+        <v>23000</v>
+      </c>
+      <c r="G182">
+        <v>100</v>
+      </c>
+      <c r="H182">
+        <v>230</v>
+      </c>
+      <c r="I182" t="s">
+        <v>126</v>
+      </c>
+      <c r="J182" t="s">
+        <v>27</v>
+      </c>
+      <c r="K182">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>46051.756998287026</v>
+      </c>
+      <c r="B183" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" t="s">
+        <v>23</v>
+      </c>
+      <c r="E183" t="s">
+        <v>49</v>
+      </c>
+      <c r="F183">
+        <v>62000</v>
+      </c>
+      <c r="G183">
+        <v>95</v>
+      </c>
+      <c r="H183">
+        <v>652.63157894736798</v>
+      </c>
+      <c r="I183" t="s">
+        <v>123</v>
+      </c>
+      <c r="J183" t="s">
+        <v>27</v>
+      </c>
+      <c r="K183">
+        <v>655.63157894736798</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>46052.306498148151</v>
+      </c>
+      <c r="B184" t="s">
+        <v>112</v>
+      </c>
+      <c r="C184" t="s">
+        <v>113</v>
+      </c>
+      <c r="D184" t="s">
+        <v>114</v>
+      </c>
+      <c r="E184" t="s">
         <v>24</v>
       </c>
-      <c r="F182">
-        <v>43000</v>
-      </c>
-      <c r="G182">
-        <v>80</v>
-      </c>
-      <c r="H182">
-        <v>537.5</v>
-      </c>
-      <c r="I182" t="s">
-        <v>123</v>
-      </c>
-      <c r="J182" t="s">
-        <v>27</v>
-      </c>
-      <c r="K182">
-        <v>540.5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183" s="3">
-        <v>46046.492864837957</v>
-      </c>
-      <c r="B183" t="s">
-        <v>157</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="F184">
+        <v>68000</v>
+      </c>
+      <c r="G184">
+        <v>105</v>
+      </c>
+      <c r="H184">
+        <v>647.61904761904702</v>
+      </c>
+      <c r="I184" t="s">
+        <v>116</v>
+      </c>
+      <c r="J184" t="s">
+        <v>27</v>
+      </c>
+      <c r="K184">
+        <v>650.61904761904702</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <v>46052.30701689815</v>
+      </c>
+      <c r="B185" t="s">
+        <v>112</v>
+      </c>
+      <c r="C185" t="s">
+        <v>113</v>
+      </c>
+      <c r="D185" t="s">
+        <v>114</v>
+      </c>
+      <c r="E185" t="s">
+        <v>82</v>
+      </c>
+      <c r="F185">
+        <v>61000</v>
+      </c>
+      <c r="G185">
+        <v>105</v>
+      </c>
+      <c r="H185">
+        <v>580.95238095238096</v>
+      </c>
+      <c r="I185" t="s">
+        <v>116</v>
+      </c>
+      <c r="J185" t="s">
+        <v>27</v>
+      </c>
+      <c r="K185">
+        <v>583.95238095238096</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>46052.307482199067</v>
+      </c>
+      <c r="B186" t="s">
+        <v>112</v>
+      </c>
+      <c r="C186" t="s">
+        <v>113</v>
+      </c>
+      <c r="D186" t="s">
+        <v>114</v>
+      </c>
+      <c r="E186" t="s">
+        <v>43</v>
+      </c>
+      <c r="F186">
+        <v>36000</v>
+      </c>
+      <c r="G186">
+        <v>95</v>
+      </c>
+      <c r="H186">
+        <v>378.94736842105198</v>
+      </c>
+      <c r="I186" t="s">
+        <v>116</v>
+      </c>
+      <c r="J186" t="s">
+        <v>27</v>
+      </c>
+      <c r="K186">
+        <v>381.94736842105198</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <v>46052.307945995373</v>
+      </c>
+      <c r="B187" t="s">
+        <v>112</v>
+      </c>
+      <c r="C187" t="s">
+        <v>113</v>
+      </c>
+      <c r="D187" t="s">
+        <v>114</v>
+      </c>
+      <c r="E187" t="s">
         <v>170</v>
       </c>
-      <c r="D183" t="s">
-        <v>165</v>
-      </c>
-      <c r="E183" t="s">
-        <v>37</v>
-      </c>
-      <c r="F183">
-        <v>24000</v>
-      </c>
-      <c r="G183">
-        <v>237</v>
-      </c>
-      <c r="H183">
-        <v>101.26582278481</v>
-      </c>
-      <c r="I183" t="s">
+      <c r="F187">
+        <v>67000</v>
+      </c>
+      <c r="G187">
+        <v>103</v>
+      </c>
+      <c r="H187">
+        <v>650.48543689320297</v>
+      </c>
+      <c r="I187" t="s">
         <v>116</v>
       </c>
-      <c r="J183" t="s">
-        <v>27</v>
-      </c>
-      <c r="K183">
-        <v>104.26582278481</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
-        <v>46046.491925729169</v>
-      </c>
-      <c r="B184" t="s">
-        <v>157</v>
-      </c>
-      <c r="C184" t="s">
-        <v>170</v>
-      </c>
-      <c r="D184" t="s">
-        <v>165</v>
-      </c>
-      <c r="E184" t="s">
-        <v>43</v>
-      </c>
-      <c r="F184">
-        <v>35000</v>
-      </c>
-      <c r="G184">
-        <v>380</v>
-      </c>
-      <c r="H184">
-        <v>92.105263157894697</v>
-      </c>
-      <c r="I184" t="s">
-        <v>123</v>
-      </c>
-      <c r="J184" t="s">
-        <v>27</v>
-      </c>
-      <c r="K184">
-        <v>95.105263157894697</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
-        <v>46046.491101562497</v>
-      </c>
-      <c r="B185" t="s">
-        <v>157</v>
-      </c>
-      <c r="C185" t="s">
-        <v>170</v>
-      </c>
-      <c r="D185" t="s">
-        <v>165</v>
-      </c>
-      <c r="E185" t="s">
+      <c r="J187" t="s">
+        <v>27</v>
+      </c>
+      <c r="K187">
+        <v>653.48543689320297</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>46052.308440162044</v>
+      </c>
+      <c r="B188" t="s">
+        <v>112</v>
+      </c>
+      <c r="C188" t="s">
+        <v>113</v>
+      </c>
+      <c r="D188" t="s">
+        <v>114</v>
+      </c>
+      <c r="E188" t="s">
         <v>49</v>
       </c>
-      <c r="F185">
-        <v>60000</v>
-      </c>
-      <c r="G185">
-        <v>630</v>
-      </c>
-      <c r="H185">
-        <v>95.238095238095198</v>
-      </c>
-      <c r="I185" t="s">
-        <v>123</v>
-      </c>
-      <c r="J185" t="s">
-        <v>27</v>
-      </c>
-      <c r="K185">
-        <v>98.238095238095198</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
-        <v>46051.748093703703</v>
-      </c>
-      <c r="B186" t="s">
-        <v>21</v>
-      </c>
-      <c r="C186" t="s">
-        <v>22</v>
-      </c>
-      <c r="D186" t="s">
-        <v>23</v>
-      </c>
-      <c r="E186" t="s">
-        <v>24</v>
-      </c>
-      <c r="F186">
-        <v>55000</v>
-      </c>
-      <c r="G186">
-        <v>80</v>
-      </c>
-      <c r="H186">
-        <v>687.5</v>
-      </c>
-      <c r="I186" t="s">
-        <v>123</v>
-      </c>
-      <c r="J186" t="s">
-        <v>27</v>
-      </c>
-      <c r="K186">
-        <v>690.5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A187" s="3">
-        <v>46051.748703333331</v>
-      </c>
-      <c r="B187" t="s">
-        <v>21</v>
-      </c>
-      <c r="C187" t="s">
-        <v>22</v>
-      </c>
-      <c r="D187" t="s">
-        <v>23</v>
-      </c>
-      <c r="E187" t="s">
-        <v>32</v>
-      </c>
-      <c r="F187">
-        <v>100000</v>
-      </c>
-      <c r="G187">
-        <v>85</v>
-      </c>
-      <c r="H187">
-        <v>1176.4705882352901</v>
-      </c>
-      <c r="I187" t="s">
-        <v>123</v>
-      </c>
-      <c r="J187" t="s">
-        <v>27</v>
-      </c>
-      <c r="K187">
-        <v>1179.4705882352901</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
-        <v>46051.749662708331</v>
-      </c>
-      <c r="B188" t="s">
-        <v>21</v>
-      </c>
-      <c r="C188" t="s">
-        <v>22</v>
-      </c>
-      <c r="D188" t="s">
-        <v>23</v>
-      </c>
-      <c r="E188" t="s">
-        <v>59</v>
-      </c>
       <c r="F188">
-        <v>96000</v>
+        <v>71000</v>
       </c>
       <c r="G188">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="H188">
-        <v>1129.4117647058799</v>
+        <v>617.39130434782601</v>
       </c>
       <c r="I188" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J188" t="s">
         <v>27</v>
       </c>
       <c r="K188">
-        <v>1132.4117647058799</v>
+        <v>620.39130434782601</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
-        <v>46051.750264953713</v>
+        <v>46051.797552916672</v>
       </c>
       <c r="B189" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="C189" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="D189" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="E189" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F189">
-        <v>22000</v>
+        <v>60000</v>
       </c>
       <c r="G189">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H189">
-        <v>231.57894736842101</v>
+        <v>630</v>
       </c>
       <c r="I189" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J189" t="s">
         <v>27</v>
       </c>
       <c r="K189">
-        <v>234.57894736842101</v>
+        <v>98.238095238095198</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
-        <v>46051.751193750002</v>
+        <v>46051.798799305558</v>
       </c>
       <c r="B190" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="C190" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="D190" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="E190" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="F190">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="G190">
         <v>100</v>
       </c>
       <c r="H190">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="I190" t="s">
         <v>123</v>
@@ -8588,472 +8585,92 @@
         <v>27</v>
       </c>
       <c r="K190">
-        <v>303</v>
+        <v>133.76923076923001</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
-        <v>46051.752038564817</v>
+        <v>46051.80110222222</v>
       </c>
       <c r="B191" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="D191" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="E191" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F191">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="G191">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H191">
-        <v>373.33333333333297</v>
+        <v>230</v>
       </c>
       <c r="I191" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J191" t="s">
         <v>27</v>
       </c>
       <c r="K191">
-        <v>376.33333333333297</v>
+        <v>98.652173913043399</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
-        <v>46051.755584768522</v>
+        <v>46051.802656782413</v>
       </c>
       <c r="B192" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="C192" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="D192" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="E192" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F192">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="G192">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H192">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="I192" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J192" t="s">
         <v>27</v>
       </c>
       <c r="K192">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
-        <v>46051.756378518519</v>
-      </c>
-      <c r="B193" t="s">
-        <v>21</v>
-      </c>
-      <c r="C193" t="s">
-        <v>22</v>
-      </c>
-      <c r="D193" t="s">
-        <v>23</v>
-      </c>
-      <c r="E193" t="s">
-        <v>159</v>
-      </c>
-      <c r="F193">
-        <v>23000</v>
-      </c>
-      <c r="G193">
-        <v>100</v>
-      </c>
-      <c r="H193">
-        <v>230</v>
-      </c>
-      <c r="I193" t="s">
-        <v>126</v>
-      </c>
-      <c r="J193" t="s">
-        <v>27</v>
-      </c>
-      <c r="K193">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
-        <v>46051.756998287026</v>
-      </c>
-      <c r="B194" t="s">
-        <v>21</v>
-      </c>
-      <c r="C194" t="s">
-        <v>22</v>
-      </c>
-      <c r="D194" t="s">
-        <v>23</v>
-      </c>
-      <c r="E194" t="s">
-        <v>49</v>
-      </c>
-      <c r="F194">
-        <v>62000</v>
-      </c>
-      <c r="G194">
-        <v>95</v>
-      </c>
-      <c r="H194">
-        <v>652.63157894736798</v>
-      </c>
-      <c r="I194" t="s">
-        <v>123</v>
-      </c>
-      <c r="J194" t="s">
-        <v>27</v>
-      </c>
-      <c r="K194">
-        <v>655.63157894736798</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
-        <v>46052.306498148151</v>
-      </c>
-      <c r="B195" t="s">
-        <v>112</v>
-      </c>
-      <c r="C195" t="s">
-        <v>113</v>
-      </c>
-      <c r="D195" t="s">
-        <v>114</v>
-      </c>
-      <c r="E195" t="s">
-        <v>24</v>
-      </c>
-      <c r="F195">
-        <v>68000</v>
-      </c>
-      <c r="G195">
-        <v>105</v>
-      </c>
-      <c r="H195">
-        <v>647.61904761904702</v>
-      </c>
-      <c r="I195" t="s">
-        <v>116</v>
-      </c>
-      <c r="J195" t="s">
-        <v>27</v>
-      </c>
-      <c r="K195">
-        <v>650.61904761904702</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
-        <v>46052.30701689815</v>
-      </c>
-      <c r="B196" t="s">
-        <v>112</v>
-      </c>
-      <c r="C196" t="s">
-        <v>113</v>
-      </c>
-      <c r="D196" t="s">
-        <v>114</v>
-      </c>
-      <c r="E196" t="s">
-        <v>82</v>
-      </c>
-      <c r="F196">
-        <v>61000</v>
-      </c>
-      <c r="G196">
-        <v>105</v>
-      </c>
-      <c r="H196">
-        <v>580.95238095238096</v>
-      </c>
-      <c r="I196" t="s">
-        <v>116</v>
-      </c>
-      <c r="J196" t="s">
-        <v>27</v>
-      </c>
-      <c r="K196">
-        <v>583.95238095238096</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A197" s="3">
-        <v>46052.307482199067</v>
-      </c>
-      <c r="B197" t="s">
-        <v>112</v>
-      </c>
-      <c r="C197" t="s">
-        <v>113</v>
-      </c>
-      <c r="D197" t="s">
-        <v>114</v>
-      </c>
-      <c r="E197" t="s">
-        <v>43</v>
-      </c>
-      <c r="F197">
-        <v>36000</v>
-      </c>
-      <c r="G197">
-        <v>95</v>
-      </c>
-      <c r="H197">
-        <v>378.94736842105198</v>
-      </c>
-      <c r="I197" t="s">
-        <v>116</v>
-      </c>
-      <c r="J197" t="s">
-        <v>27</v>
-      </c>
-      <c r="K197">
-        <v>381.94736842105198</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
-        <v>46052.307945995373</v>
-      </c>
-      <c r="B198" t="s">
-        <v>112</v>
-      </c>
-      <c r="C198" t="s">
-        <v>113</v>
-      </c>
-      <c r="D198" t="s">
-        <v>114</v>
-      </c>
-      <c r="E198" t="s">
-        <v>171</v>
-      </c>
-      <c r="F198">
-        <v>67000</v>
-      </c>
-      <c r="G198">
-        <v>103</v>
-      </c>
-      <c r="H198">
-        <v>650.48543689320297</v>
-      </c>
-      <c r="I198" t="s">
-        <v>116</v>
-      </c>
-      <c r="J198" t="s">
-        <v>27</v>
-      </c>
-      <c r="K198">
-        <v>653.48543689320297</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
-        <v>46052.308440162044</v>
-      </c>
-      <c r="B199" t="s">
-        <v>112</v>
-      </c>
-      <c r="C199" t="s">
-        <v>113</v>
-      </c>
-      <c r="D199" t="s">
-        <v>114</v>
-      </c>
-      <c r="E199" t="s">
-        <v>49</v>
-      </c>
-      <c r="F199">
-        <v>71000</v>
-      </c>
-      <c r="G199">
-        <v>115</v>
-      </c>
-      <c r="H199">
-        <v>617.39130434782601</v>
-      </c>
-      <c r="I199" t="s">
-        <v>116</v>
-      </c>
-      <c r="J199" t="s">
-        <v>27</v>
-      </c>
-      <c r="K199">
-        <v>620.39130434782601</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
-        <v>46051.797552916672</v>
-      </c>
-      <c r="B200" t="s">
-        <v>157</v>
-      </c>
-      <c r="C200" t="s">
-        <v>170</v>
-      </c>
-      <c r="D200" t="s">
-        <v>165</v>
-      </c>
-      <c r="E200" t="s">
-        <v>49</v>
-      </c>
-      <c r="F200">
-        <v>60000</v>
-      </c>
-      <c r="G200">
-        <v>100</v>
-      </c>
-      <c r="H200">
-        <v>630</v>
-      </c>
-      <c r="I200" t="s">
-        <v>123</v>
-      </c>
-      <c r="J200" t="s">
-        <v>27</v>
-      </c>
-      <c r="K200">
-        <v>98.238095238095198</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
-        <v>46051.798799305558</v>
-      </c>
-      <c r="B201" t="s">
-        <v>157</v>
-      </c>
-      <c r="C201" t="s">
-        <v>170</v>
-      </c>
-      <c r="D201" t="s">
-        <v>165</v>
-      </c>
-      <c r="E201" t="s">
-        <v>159</v>
-      </c>
-      <c r="F201">
-        <v>34000</v>
-      </c>
-      <c r="G201">
-        <v>100</v>
-      </c>
-      <c r="H201">
-        <v>260</v>
-      </c>
-      <c r="I201" t="s">
-        <v>123</v>
-      </c>
-      <c r="J201" t="s">
-        <v>27</v>
-      </c>
-      <c r="K201">
-        <v>133.76923076923001</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
-        <v>46051.80110222222</v>
-      </c>
-      <c r="B202" t="s">
-        <v>157</v>
-      </c>
-      <c r="C202" t="s">
-        <v>170</v>
-      </c>
-      <c r="D202" t="s">
-        <v>165</v>
-      </c>
-      <c r="E202" t="s">
-        <v>37</v>
-      </c>
-      <c r="F202">
-        <v>22000</v>
-      </c>
-      <c r="G202">
-        <v>100</v>
-      </c>
-      <c r="H202">
-        <v>230</v>
-      </c>
-      <c r="I202" t="s">
-        <v>116</v>
-      </c>
-      <c r="J202" t="s">
-        <v>27</v>
-      </c>
-      <c r="K202">
-        <v>98.652173913043399</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A203" s="3">
-        <v>46051.802656782413</v>
-      </c>
-      <c r="B203" t="s">
-        <v>157</v>
-      </c>
-      <c r="C203" t="s">
-        <v>170</v>
-      </c>
-      <c r="D203" t="s">
-        <v>165</v>
-      </c>
-      <c r="E203" t="s">
-        <v>43</v>
-      </c>
-      <c r="F203">
-        <v>34000</v>
-      </c>
-      <c r="G203">
-        <v>80</v>
-      </c>
-      <c r="H203">
-        <v>360</v>
-      </c>
-      <c r="I203" t="s">
-        <v>123</v>
-      </c>
-      <c r="J203" t="s">
-        <v>27</v>
-      </c>
-      <c r="K203">
         <v>97.4444444444444</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W102" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:W192" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2026" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:W168">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Pambegua"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:W160">
       <sortCondition ref="A1:A102"/>
     </sortState>
   </autoFilter>
